--- a/src/test/resources/testdata/Client/FILI.xlsx
+++ b/src/test/resources/testdata/Client/FILI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE5437-FEEB-4A60-91ED-9C39BEBB62D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0153-9E32-485E-8DA7-22DFE75EA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision &amp; Admin" sheetId="6" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9885" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9885" uniqueCount="2406">
   <si>
     <t>Version</t>
   </si>
@@ -10804,6 +10804,9 @@
   </si>
   <si>
     <t>If InheritedNQ_Payment_WithholdFederal_Tax_Percentage= Blank, then ISSUE ERROR MESSAGE: Percentage is required.</t>
+  </si>
+  <si>
+    <t>If InheritedNQ_Payment_WithholdStateTax_Amount = Blank AND InheritedNQ_Payment_WithholdStateTax_Percentage = Blank, then ISSUE ERROR MESSAGE: Amount or Percentage is required.</t>
   </si>
 </sst>
 </file>
@@ -29933,9 +29936,9 @@
   <dimension ref="A1:AZ205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AE100" sqref="AE100"/>
+      <selection pane="bottomLeft" activeCell="AH98" sqref="AH98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="104.25" customHeight="1"/>
@@ -41677,7 +41680,7 @@
         <v>2392</v>
       </c>
       <c r="AI99" s="151" t="s">
-        <v>2387</v>
+        <v>2405</v>
       </c>
       <c r="AJ99" s="110"/>
       <c r="AK99" s="508" t="s">

--- a/src/test/resources/testdata/Client/FILI.xlsx
+++ b/src/test/resources/testdata/Client/FILI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70B0153-9E32-485E-8DA7-22DFE75EA5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA4143-F56A-413A-8D58-F37B0FC6E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision &amp; Admin" sheetId="6" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9885" uniqueCount="2406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9885" uniqueCount="2405">
   <si>
     <t>Version</t>
   </si>
@@ -10742,9 +10742,6 @@
   </si>
   <si>
     <t>If InheritedNQ_Payment_WithholdState Tax_YesNo= Blank, then ISSUE ERROR MESSAGE: Please Select Yes or No.</t>
-  </si>
-  <si>
-    <t>If InheritedNQ_Payment_WithholdState Tax_Amount = Blank AND InheritedNQ_Payment_WithholdStateTax_Percentage = Blank, then ISSUE ERROR MESSAGE: Amount or Percentage is required.</t>
   </si>
   <si>
     <t>Annuity_TaxQualification = Inherited Non-Qualified</t>
@@ -14946,17 +14943,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30">
+    <row r="1" spans="1:11" ht="28.8">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -14984,7 +14981,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30">
+    <row r="2" spans="1:11" ht="28.8">
       <c r="A2" s="251">
         <v>0</v>
       </c>
@@ -15006,7 +15003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="45">
+    <row r="3" spans="1:11" ht="43.2">
       <c r="A3" s="86">
         <v>0.1</v>
       </c>
@@ -15028,7 +15025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30">
+    <row r="4" spans="1:11" ht="28.8">
       <c r="A4" s="86">
         <v>0.1</v>
       </c>
@@ -15050,7 +15047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="270">
+    <row r="5" spans="1:11" ht="230.4">
       <c r="A5" s="86">
         <v>0.1</v>
       </c>
@@ -15068,7 +15065,7 @@
       </c>
       <c r="F5" s="86"/>
     </row>
-    <row r="6" spans="1:11" ht="90">
+    <row r="6" spans="1:11" ht="72">
       <c r="A6" s="86">
         <v>0.2</v>
       </c>
@@ -15086,7 +15083,7 @@
       </c>
       <c r="F6" s="86"/>
     </row>
-    <row r="7" spans="1:11" ht="30">
+    <row r="7" spans="1:11" ht="28.8">
       <c r="A7" s="86">
         <v>0.2</v>
       </c>
@@ -15122,7 +15119,7 @@
       </c>
       <c r="F8" s="86"/>
     </row>
-    <row r="9" spans="1:11" ht="75">
+    <row r="9" spans="1:11" ht="57.6">
       <c r="A9" s="86">
         <v>0.3</v>
       </c>
@@ -15160,7 +15157,7 @@
       </c>
       <c r="F10" s="86"/>
     </row>
-    <row r="11" spans="1:11" ht="75">
+    <row r="11" spans="1:11" ht="57.6">
       <c r="A11" s="86">
         <v>0.4</v>
       </c>
@@ -15178,7 +15175,7 @@
       </c>
       <c r="F11" s="86"/>
     </row>
-    <row r="12" spans="1:11" ht="30">
+    <row r="12" spans="1:11" ht="28.8">
       <c r="A12" s="86">
         <v>0.4</v>
       </c>
@@ -15196,7 +15193,7 @@
       </c>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:11" ht="60">
+    <row r="13" spans="1:11" ht="57.6">
       <c r="A13" s="86">
         <v>0.4</v>
       </c>
@@ -15214,7 +15211,7 @@
       </c>
       <c r="F13" s="86"/>
     </row>
-    <row r="14" spans="1:11" ht="195">
+    <row r="14" spans="1:11" ht="172.8">
       <c r="A14" s="86">
         <v>0.4</v>
       </c>
@@ -15232,7 +15229,7 @@
       </c>
       <c r="F14" s="86"/>
     </row>
-    <row r="15" spans="1:11" ht="90">
+    <row r="15" spans="1:11" ht="72">
       <c r="A15" s="86">
         <v>0.4</v>
       </c>
@@ -15268,7 +15265,7 @@
       </c>
       <c r="F16" s="86"/>
     </row>
-    <row r="17" spans="1:6" ht="105">
+    <row r="17" spans="1:6" ht="72">
       <c r="A17" s="86">
         <v>0.4</v>
       </c>
@@ -15286,7 +15283,7 @@
       </c>
       <c r="F17" s="86"/>
     </row>
-    <row r="18" spans="1:6" ht="30">
+    <row r="18" spans="1:6" ht="28.8">
       <c r="A18" s="86">
         <v>0.4</v>
       </c>
@@ -15304,7 +15301,7 @@
       </c>
       <c r="F18" s="86"/>
     </row>
-    <row r="19" spans="1:6" ht="105">
+    <row r="19" spans="1:6" ht="86.4">
       <c r="A19" s="86">
         <v>0.4</v>
       </c>
@@ -15322,7 +15319,7 @@
       </c>
       <c r="F19" s="86"/>
     </row>
-    <row r="20" spans="1:6" ht="75">
+    <row r="20" spans="1:6" ht="57.6">
       <c r="A20" s="86">
         <v>0.5</v>
       </c>
@@ -15340,7 +15337,7 @@
       </c>
       <c r="F20" s="86"/>
     </row>
-    <row r="21" spans="1:6" ht="90">
+    <row r="21" spans="1:6" ht="72">
       <c r="A21" s="86">
         <v>0.5</v>
       </c>
@@ -15358,7 +15355,7 @@
       </c>
       <c r="F21" s="86"/>
     </row>
-    <row r="22" spans="1:6" ht="195">
+    <row r="22" spans="1:6" ht="187.2">
       <c r="A22" s="86">
         <v>0.5</v>
       </c>
@@ -15376,7 +15373,7 @@
       </c>
       <c r="F22" s="86"/>
     </row>
-    <row r="23" spans="1:6" ht="45">
+    <row r="23" spans="1:6" ht="43.2">
       <c r="A23" s="86">
         <v>0.5</v>
       </c>
@@ -15394,7 +15391,7 @@
       </c>
       <c r="F23" s="86"/>
     </row>
-    <row r="24" spans="1:6" ht="30">
+    <row r="24" spans="1:6" ht="28.8">
       <c r="A24" s="86">
         <v>0.5</v>
       </c>
@@ -15412,7 +15409,7 @@
       </c>
       <c r="F24" s="86"/>
     </row>
-    <row r="25" spans="1:6" ht="90">
+    <row r="25" spans="1:6" ht="72">
       <c r="A25" s="86">
         <v>0.6</v>
       </c>
@@ -15430,7 +15427,7 @@
       </c>
       <c r="F25" s="86"/>
     </row>
-    <row r="26" spans="1:6" ht="285">
+    <row r="26" spans="1:6" ht="244.8">
       <c r="A26" s="86">
         <v>0.6</v>
       </c>
@@ -15448,7 +15445,7 @@
       </c>
       <c r="F26" s="86"/>
     </row>
-    <row r="27" spans="1:6" ht="120">
+    <row r="27" spans="1:6" ht="100.8">
       <c r="A27" s="86">
         <v>0.6</v>
       </c>
@@ -15466,7 +15463,7 @@
       </c>
       <c r="F27" s="86"/>
     </row>
-    <row r="28" spans="1:6" ht="120">
+    <row r="28" spans="1:6" ht="115.2">
       <c r="A28" s="86">
         <v>0.6</v>
       </c>
@@ -15484,7 +15481,7 @@
       </c>
       <c r="F28" s="86"/>
     </row>
-    <row r="29" spans="1:6" ht="75">
+    <row r="29" spans="1:6" ht="57.6">
       <c r="A29" s="86">
         <v>0.6</v>
       </c>
@@ -15502,7 +15499,7 @@
       </c>
       <c r="F29" s="86"/>
     </row>
-    <row r="30" spans="1:6" ht="45">
+    <row r="30" spans="1:6" ht="28.8">
       <c r="A30" s="86">
         <v>0.6</v>
       </c>
@@ -15520,7 +15517,7 @@
       </c>
       <c r="F30" s="86"/>
     </row>
-    <row r="31" spans="1:6" ht="105">
+    <row r="31" spans="1:6" ht="86.4">
       <c r="A31" s="86">
         <v>0.7</v>
       </c>
@@ -15538,7 +15535,7 @@
       </c>
       <c r="F31" s="86"/>
     </row>
-    <row r="32" spans="1:6" ht="60">
+    <row r="32" spans="1:6" ht="57.6">
       <c r="A32" s="86">
         <v>0.7</v>
       </c>
@@ -15556,7 +15553,7 @@
       </c>
       <c r="F32" s="86"/>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33" s="86">
         <v>0.7</v>
       </c>
@@ -15574,7 +15571,7 @@
       </c>
       <c r="F33" s="86"/>
     </row>
-    <row r="34" spans="1:6" ht="30">
+    <row r="34" spans="1:6" ht="28.8">
       <c r="A34" s="86">
         <v>0.7</v>
       </c>
@@ -15592,7 +15589,7 @@
       </c>
       <c r="F34" s="86"/>
     </row>
-    <row r="35" spans="1:6" ht="45">
+    <row r="35" spans="1:6" ht="28.8">
       <c r="A35" s="86">
         <v>0.8</v>
       </c>
@@ -15610,7 +15607,7 @@
       </c>
       <c r="F35" s="86"/>
     </row>
-    <row r="36" spans="1:6" ht="105">
+    <row r="36" spans="1:6" ht="86.4">
       <c r="A36" s="86">
         <v>0.8</v>
       </c>
@@ -15628,7 +15625,7 @@
       </c>
       <c r="F36" s="86"/>
     </row>
-    <row r="37" spans="1:6" ht="255">
+    <row r="37" spans="1:6" ht="230.4">
       <c r="A37" s="86">
         <v>0.8</v>
       </c>
@@ -15646,7 +15643,7 @@
       </c>
       <c r="F37" s="86"/>
     </row>
-    <row r="38" spans="1:6" ht="60">
+    <row r="38" spans="1:6" ht="57.6">
       <c r="A38" s="86">
         <v>0.8</v>
       </c>
@@ -15664,7 +15661,7 @@
       </c>
       <c r="F38" s="86"/>
     </row>
-    <row r="39" spans="1:6" ht="45">
+    <row r="39" spans="1:6" ht="43.2">
       <c r="A39" s="86">
         <v>0.8</v>
       </c>
@@ -15682,7 +15679,7 @@
       </c>
       <c r="F39" s="86"/>
     </row>
-    <row r="40" spans="1:6" ht="75">
+    <row r="40" spans="1:6" ht="57.6">
       <c r="A40" s="86">
         <v>0.8</v>
       </c>
@@ -15700,7 +15697,7 @@
       </c>
       <c r="F40" s="86"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41" s="86">
         <v>0.8</v>
       </c>
@@ -15718,7 +15715,7 @@
       </c>
       <c r="F41" s="86"/>
     </row>
-    <row r="42" spans="1:6" ht="30">
+    <row r="42" spans="1:6" ht="28.8">
       <c r="A42" s="86">
         <v>0.8</v>
       </c>
@@ -15736,7 +15733,7 @@
       </c>
       <c r="F42" s="86"/>
     </row>
-    <row r="43" spans="1:6" ht="45">
+    <row r="43" spans="1:6" ht="43.2">
       <c r="A43" s="86">
         <v>0.8</v>
       </c>
@@ -15754,7 +15751,7 @@
       </c>
       <c r="F43" s="86"/>
     </row>
-    <row r="44" spans="1:6" ht="30">
+    <row r="44" spans="1:6" ht="28.8">
       <c r="A44" s="86">
         <v>0.8</v>
       </c>
@@ -15772,7 +15769,7 @@
       </c>
       <c r="F44" s="86"/>
     </row>
-    <row r="45" spans="1:6" ht="165">
+    <row r="45" spans="1:6" ht="144">
       <c r="A45" s="86">
         <v>0.8</v>
       </c>
@@ -15790,7 +15787,7 @@
       </c>
       <c r="F45" s="86"/>
     </row>
-    <row r="46" spans="1:6" ht="30">
+    <row r="46" spans="1:6" ht="28.8">
       <c r="A46" s="86">
         <v>0.8</v>
       </c>
@@ -15808,7 +15805,7 @@
       </c>
       <c r="F46" s="86"/>
     </row>
-    <row r="47" spans="1:6" ht="135">
+    <row r="47" spans="1:6" ht="100.8">
       <c r="A47" s="86">
         <v>0.8</v>
       </c>
@@ -15826,7 +15823,7 @@
       </c>
       <c r="F47" s="86"/>
     </row>
-    <row r="48" spans="1:6" ht="30">
+    <row r="48" spans="1:6" ht="28.8">
       <c r="A48" s="86">
         <v>0.9</v>
       </c>
@@ -15844,7 +15841,7 @@
       </c>
       <c r="F48" s="86"/>
     </row>
-    <row r="49" spans="1:6" ht="120">
+    <row r="49" spans="1:6" ht="100.8">
       <c r="A49" s="86">
         <v>0.9</v>
       </c>
@@ -15862,7 +15859,7 @@
       </c>
       <c r="F49" s="86"/>
     </row>
-    <row r="50" spans="1:6" ht="60">
+    <row r="50" spans="1:6" ht="57.6">
       <c r="A50" s="86">
         <v>0.9</v>
       </c>
@@ -15880,7 +15877,7 @@
       </c>
       <c r="F50" s="86"/>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="28.8">
       <c r="A51" s="86">
         <v>0.9</v>
       </c>
@@ -15898,7 +15895,7 @@
       </c>
       <c r="F51" s="86"/>
     </row>
-    <row r="52" spans="1:6" ht="60">
+    <row r="52" spans="1:6" ht="43.2">
       <c r="A52" s="450">
         <v>0.1</v>
       </c>
@@ -15916,7 +15913,7 @@
       </c>
       <c r="F52" s="86"/>
     </row>
-    <row r="53" spans="1:6" ht="150">
+    <row r="53" spans="1:6" ht="115.2">
       <c r="A53" s="450">
         <v>0.1</v>
       </c>
@@ -15934,7 +15931,7 @@
       </c>
       <c r="F53" s="86"/>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="28.8">
       <c r="A54" s="450">
         <v>0.1</v>
       </c>
@@ -15952,7 +15949,7 @@
       </c>
       <c r="F54" s="86"/>
     </row>
-    <row r="55" spans="1:6" ht="270">
+    <row r="55" spans="1:6" ht="216">
       <c r="A55" s="450">
         <v>0.1</v>
       </c>
@@ -15970,7 +15967,7 @@
       </c>
       <c r="F55" s="86"/>
     </row>
-    <row r="56" spans="1:6" ht="255">
+    <row r="56" spans="1:6" ht="216">
       <c r="A56" s="450">
         <v>0.1</v>
       </c>
@@ -15988,7 +15985,7 @@
       </c>
       <c r="F56" s="86"/>
     </row>
-    <row r="57" spans="1:6" ht="45">
+    <row r="57" spans="1:6" ht="43.2">
       <c r="A57" s="450">
         <v>0.1</v>
       </c>
@@ -16006,7 +16003,7 @@
       </c>
       <c r="F57" s="86"/>
     </row>
-    <row r="58" spans="1:6" ht="105">
+    <row r="58" spans="1:6" ht="86.4">
       <c r="A58" s="450">
         <v>0.1</v>
       </c>
@@ -16024,7 +16021,7 @@
       </c>
       <c r="F58" s="86"/>
     </row>
-    <row r="59" spans="1:6" ht="30">
+    <row r="59" spans="1:6" ht="28.8">
       <c r="A59" s="450">
         <v>0.1</v>
       </c>
@@ -16042,7 +16039,7 @@
       </c>
       <c r="F59" s="86"/>
     </row>
-    <row r="60" spans="1:6" ht="30">
+    <row r="60" spans="1:6" ht="28.8">
       <c r="A60" s="450">
         <v>0.1</v>
       </c>
@@ -16060,7 +16057,7 @@
       </c>
       <c r="F60" s="86"/>
     </row>
-    <row r="61" spans="1:6" ht="120">
+    <row r="61" spans="1:6" ht="115.2">
       <c r="A61" s="450">
         <v>0.1</v>
       </c>
@@ -16078,7 +16075,7 @@
       </c>
       <c r="F61" s="86"/>
     </row>
-    <row r="62" spans="1:6" ht="105">
+    <row r="62" spans="1:6" ht="86.4">
       <c r="A62" s="450">
         <v>0.1</v>
       </c>
@@ -16114,7 +16111,7 @@
       </c>
       <c r="F63" s="86"/>
     </row>
-    <row r="64" spans="1:6" ht="30">
+    <row r="64" spans="1:6" ht="28.8">
       <c r="A64" s="450">
         <v>0.1</v>
       </c>
@@ -16142,7 +16139,7 @@
       <c r="E65" s="511"/>
       <c r="F65" s="86"/>
     </row>
-    <row r="66" spans="1:6" ht="30">
+    <row r="66" spans="1:6" ht="28.8">
       <c r="A66" s="470">
         <v>0.11</v>
       </c>
@@ -16159,7 +16156,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="45">
+    <row r="67" spans="1:6" ht="28.8">
       <c r="A67" s="470">
         <v>0.11</v>
       </c>
@@ -16176,7 +16173,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="30">
+    <row r="68" spans="1:6" ht="28.8">
       <c r="A68" s="470">
         <v>0.11</v>
       </c>
@@ -16193,7 +16190,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="30">
+    <row r="69" spans="1:6" ht="28.8">
       <c r="A69" s="470">
         <v>0.11</v>
       </c>
@@ -16230,16 +16227,16 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45">
+    <row r="1" spans="1:5" ht="28.8">
       <c r="A1" s="191" t="s">
         <v>1530</v>
       </c>
@@ -16592,7 +16589,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="30">
+    <row r="35" spans="1:10" ht="28.8">
       <c r="A35" s="86" t="s">
         <v>967</v>
       </c>
@@ -16783,45 +16780,45 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" customWidth="1"/>
-    <col min="27" max="27" width="3.85546875" customWidth="1"/>
-    <col min="28" max="28" width="3.5703125" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" customWidth="1"/>
+    <col min="28" max="28" width="3.5546875" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="52" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="66.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="32" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:270" s="24" customFormat="1" ht="24">
@@ -17154,7 +17151,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="5" spans="1:270" ht="120">
+    <row r="5" spans="1:270" ht="86.4">
       <c r="A5" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17259,7 +17256,7 @@
       <c r="AZ5" s="86"/>
       <c r="BA5" s="86"/>
     </row>
-    <row r="6" spans="1:270" s="75" customFormat="1" ht="75">
+    <row r="6" spans="1:270" s="75" customFormat="1" ht="72">
       <c r="A6" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17342,7 +17339,7 @@
       <c r="AZ6" s="185"/>
       <c r="BA6" s="185"/>
     </row>
-    <row r="7" spans="1:270" ht="45">
+    <row r="7" spans="1:270" ht="43.2">
       <c r="A7" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17447,7 +17444,7 @@
       <c r="AZ7" s="86"/>
       <c r="BA7" s="86"/>
     </row>
-    <row r="8" spans="1:270" ht="45">
+    <row r="8" spans="1:270" ht="43.2">
       <c r="A8" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17552,7 +17549,7 @@
       <c r="AZ8" s="86"/>
       <c r="BA8" s="86"/>
     </row>
-    <row r="9" spans="1:270" s="173" customFormat="1" ht="45">
+    <row r="9" spans="1:270" s="173" customFormat="1" ht="43.2">
       <c r="A9" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17888,7 +17885,7 @@
       <c r="JI9"/>
       <c r="JJ9"/>
     </row>
-    <row r="10" spans="1:270" s="173" customFormat="1" ht="90">
+    <row r="10" spans="1:270" s="173" customFormat="1" ht="86.4">
       <c r="A10" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18224,7 +18221,7 @@
       <c r="JI10"/>
       <c r="JJ10"/>
     </row>
-    <row r="11" spans="1:270" s="173" customFormat="1" ht="90">
+    <row r="11" spans="1:270" s="173" customFormat="1" ht="57.6">
       <c r="A11" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18560,7 +18557,7 @@
       <c r="JI11"/>
       <c r="JJ11"/>
     </row>
-    <row r="12" spans="1:270" s="173" customFormat="1" ht="45">
+    <row r="12" spans="1:270" s="173" customFormat="1" ht="43.2">
       <c r="A12" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18894,7 +18891,7 @@
       <c r="JI12"/>
       <c r="JJ12"/>
     </row>
-    <row r="13" spans="1:270" s="173" customFormat="1" ht="90">
+    <row r="13" spans="1:270" s="173" customFormat="1" ht="86.4">
       <c r="A13" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19234,7 +19231,7 @@
       <c r="JI13"/>
       <c r="JJ13"/>
     </row>
-    <row r="14" spans="1:270" s="173" customFormat="1" ht="135">
+    <row r="14" spans="1:270" s="173" customFormat="1" ht="129.6">
       <c r="A14" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19574,7 +19571,7 @@
       <c r="JI14"/>
       <c r="JJ14"/>
     </row>
-    <row r="15" spans="1:270" s="173" customFormat="1" ht="45">
+    <row r="15" spans="1:270" s="173" customFormat="1" ht="43.2">
       <c r="A15" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19906,7 +19903,7 @@
       <c r="JI15"/>
       <c r="JJ15"/>
     </row>
-    <row r="16" spans="1:270" s="173" customFormat="1" ht="120">
+    <row r="16" spans="1:270" s="173" customFormat="1" ht="86.4">
       <c r="A16" s="186" t="s">
         <v>1557</v>
       </c>
@@ -20240,7 +20237,7 @@
       <c r="JI16"/>
       <c r="JJ16"/>
     </row>
-    <row r="17" spans="1:270" s="173" customFormat="1" ht="120">
+    <row r="17" spans="1:270" s="173" customFormat="1" ht="86.4">
       <c r="A17" s="186" t="s">
         <v>1557</v>
       </c>
@@ -20662,15 +20659,15 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="48.140625" customWidth="1"/>
-    <col min="3" max="3" width="85.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20699,7 +20696,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" t="s">
         <v>1607</v>
       </c>
@@ -20765,7 +20762,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45">
+    <row r="9" spans="1:8" ht="43.2">
       <c r="A9" t="s">
         <v>1611</v>
       </c>
@@ -20798,7 +20795,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30">
+    <row r="12" spans="1:8" ht="28.8">
       <c r="A12" t="s">
         <v>1616</v>
       </c>
@@ -20809,7 +20806,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="30">
+    <row r="13" spans="1:8" ht="28.8">
       <c r="A13" t="s">
         <v>1616</v>
       </c>
@@ -20820,7 +20817,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="28.8">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -20831,7 +20828,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="28.8">
       <c r="B15" s="81" t="s">
         <v>1621</v>
       </c>
@@ -20839,7 +20836,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60">
+    <row r="16" spans="1:8" ht="57.6">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -20850,7 +20847,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="105">
+    <row r="17" spans="1:3" ht="100.8">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -20908,7 +20905,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24.75">
+    <row r="23" spans="1:3" ht="26.4">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -20928,7 +20925,7 @@
       </c>
       <c r="C24" s="160"/>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -20937,7 +20934,7 @@
       </c>
       <c r="C25" s="160"/>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="28.8">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -20957,7 +20954,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -20975,7 +20972,7 @@
       </c>
       <c r="C29" s="160"/>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" ht="28.8">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -20984,7 +20981,7 @@
       </c>
       <c r="C30" s="160"/>
     </row>
-    <row r="31" spans="1:3" ht="30">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -20993,7 +20990,7 @@
       </c>
       <c r="C31" s="160"/>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="28.8">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -21020,7 +21017,7 @@
       </c>
       <c r="C34" s="160"/>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -21029,7 +21026,7 @@
       </c>
       <c r="C35" s="160"/>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>1630</v>
       </c>
@@ -21040,7 +21037,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>1630</v>
       </c>
@@ -21051,7 +21048,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>1630</v>
       </c>
@@ -21062,7 +21059,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>1630</v>
       </c>
@@ -21073,7 +21070,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="28.8">
       <c r="A40" t="s">
         <v>1632</v>
       </c>
@@ -21084,7 +21081,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>1632</v>
       </c>
@@ -21128,7 +21125,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="45">
+    <row r="45" spans="1:3" ht="43.2">
       <c r="A45" t="s">
         <v>1638</v>
       </c>
@@ -21139,7 +21136,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="28.8">
       <c r="A46" t="s">
         <v>1638</v>
       </c>
@@ -21177,20 +21174,20 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="48">
@@ -21248,7 +21245,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30">
+    <row r="3" spans="1:14" ht="28.8">
       <c r="A3" t="s">
         <v>982</v>
       </c>
@@ -21303,7 +21300,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30">
+    <row r="8" spans="1:14" ht="28.8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -21325,7 +21322,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30">
+    <row r="10" spans="1:14" ht="28.8">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -21360,7 +21357,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="45">
+    <row r="13" spans="1:14" ht="43.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -21372,7 +21369,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="45">
+    <row r="14" spans="1:14" ht="43.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -21384,7 +21381,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="45">
+    <row r="15" spans="1:14" ht="43.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -21396,7 +21393,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="45">
+    <row r="16" spans="1:14" ht="43.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -21507,7 +21504,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="28.8">
       <c r="A26" t="s">
         <v>1692</v>
       </c>
@@ -21574,10 +21571,10 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
@@ -21824,7 +21821,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="69" t="s">
@@ -21862,9 +21859,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.95" customHeight="1">
+    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.9" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
@@ -22337,12 +22334,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5546875" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="56.1" customHeight="1">
@@ -22438,14 +22435,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
@@ -22688,7 +22685,7 @@
       </c>
       <c r="K8" s="154"/>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="28.8">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -22722,7 +22719,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="60">
+    <row r="10" spans="1:12" ht="43.2">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -22951,72 +22948,72 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="261" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" style="261" customWidth="1"/>
     <col min="2" max="2" width="22" style="261" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="261" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="261" customWidth="1"/>
     <col min="4" max="4" width="14" style="261" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="261" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="261" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="261" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="261" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="261" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" style="262" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="261" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="261" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="261" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="261" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" style="261" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="261" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="262" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="261" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" style="261" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="261" customWidth="1"/>
-    <col min="22" max="22" width="19.5703125" style="261" customWidth="1"/>
-    <col min="23" max="26" width="14.42578125" style="261" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" style="261" customWidth="1"/>
-    <col min="28" max="28" width="17.42578125" style="261" customWidth="1"/>
-    <col min="29" max="29" width="19.5703125" style="261" customWidth="1"/>
-    <col min="30" max="30" width="19.42578125" style="261" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" style="261" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" style="368" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" style="261" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" style="261" customWidth="1"/>
-    <col min="35" max="35" width="18.42578125" style="262" customWidth="1"/>
-    <col min="36" max="36" width="20.85546875" style="261" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" style="261" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" style="261" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" style="261" customWidth="1"/>
-    <col min="40" max="40" width="13.85546875" style="261" customWidth="1"/>
-    <col min="41" max="41" width="19.140625" style="261" customWidth="1"/>
-    <col min="42" max="42" width="16.5703125" style="261" customWidth="1"/>
-    <col min="43" max="43" width="14.5703125" style="261" customWidth="1"/>
-    <col min="44" max="44" width="14.85546875" style="261" customWidth="1"/>
-    <col min="45" max="45" width="15.42578125" style="261" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="261" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="261" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="261" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="261" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="261" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="262" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="261" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="261" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" style="261" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="261" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="261" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" style="261" customWidth="1"/>
+    <col min="17" max="18" width="14.44140625" style="262" customWidth="1"/>
+    <col min="19" max="19" width="25.5546875" style="261" customWidth="1"/>
+    <col min="20" max="20" width="21.5546875" style="261" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="261" customWidth="1"/>
+    <col min="22" max="22" width="19.5546875" style="261" customWidth="1"/>
+    <col min="23" max="26" width="14.44140625" style="261" customWidth="1"/>
+    <col min="27" max="27" width="19.109375" style="261" customWidth="1"/>
+    <col min="28" max="28" width="17.44140625" style="261" customWidth="1"/>
+    <col min="29" max="29" width="19.5546875" style="261" customWidth="1"/>
+    <col min="30" max="30" width="19.44140625" style="261" customWidth="1"/>
+    <col min="31" max="31" width="17.5546875" style="261" customWidth="1"/>
+    <col min="32" max="32" width="17.5546875" style="368" customWidth="1"/>
+    <col min="33" max="33" width="22.44140625" style="261" customWidth="1"/>
+    <col min="34" max="34" width="12.5546875" style="261" customWidth="1"/>
+    <col min="35" max="35" width="18.44140625" style="262" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" style="261" customWidth="1"/>
+    <col min="37" max="37" width="12.88671875" style="261" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" style="261" customWidth="1"/>
+    <col min="39" max="39" width="16.5546875" style="261" customWidth="1"/>
+    <col min="40" max="40" width="13.88671875" style="261" customWidth="1"/>
+    <col min="41" max="41" width="19.109375" style="261" customWidth="1"/>
+    <col min="42" max="42" width="16.5546875" style="261" customWidth="1"/>
+    <col min="43" max="43" width="14.5546875" style="261" customWidth="1"/>
+    <col min="44" max="44" width="14.88671875" style="261" customWidth="1"/>
+    <col min="45" max="45" width="15.44140625" style="261" customWidth="1"/>
     <col min="46" max="46" width="16" style="261" customWidth="1"/>
-    <col min="47" max="47" width="16.5703125" style="261" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" style="261" customWidth="1"/>
-    <col min="49" max="49" width="8.7109375" style="261"/>
-    <col min="50" max="50" width="17.5703125" style="358" customWidth="1"/>
-    <col min="51" max="51" width="16.42578125" style="358" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" style="380" customWidth="1"/>
-    <col min="53" max="53" width="16.5703125" style="358" customWidth="1"/>
+    <col min="47" max="47" width="16.5546875" style="261" customWidth="1"/>
+    <col min="48" max="48" width="12.44140625" style="261" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" style="261"/>
+    <col min="50" max="50" width="17.5546875" style="358" customWidth="1"/>
+    <col min="51" max="51" width="16.44140625" style="358" customWidth="1"/>
+    <col min="52" max="52" width="15.33203125" style="380" customWidth="1"/>
+    <col min="53" max="53" width="16.5546875" style="358" customWidth="1"/>
     <col min="54" max="54" width="16" style="358" customWidth="1"/>
     <col min="55" max="55" width="18" style="358" customWidth="1"/>
-    <col min="56" max="56" width="14.42578125" style="362" customWidth="1"/>
-    <col min="57" max="57" width="16.5703125" style="358" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" style="358" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" style="362" customWidth="1"/>
-    <col min="60" max="60" width="13.5703125" style="362" customWidth="1"/>
-    <col min="61" max="62" width="11.85546875" style="362" customWidth="1"/>
-    <col min="63" max="63" width="12.42578125" style="362" customWidth="1"/>
-    <col min="64" max="64" width="12.85546875" style="362" customWidth="1"/>
-    <col min="65" max="66" width="13.42578125" style="362" customWidth="1"/>
-    <col min="67" max="16384" width="8.7109375" style="261"/>
+    <col min="56" max="56" width="14.44140625" style="362" customWidth="1"/>
+    <col min="57" max="57" width="16.5546875" style="358" customWidth="1"/>
+    <col min="58" max="58" width="13.109375" style="358" customWidth="1"/>
+    <col min="59" max="59" width="14.44140625" style="362" customWidth="1"/>
+    <col min="60" max="60" width="13.5546875" style="362" customWidth="1"/>
+    <col min="61" max="62" width="11.88671875" style="362" customWidth="1"/>
+    <col min="63" max="63" width="12.44140625" style="362" customWidth="1"/>
+    <col min="64" max="64" width="12.88671875" style="362" customWidth="1"/>
+    <col min="65" max="66" width="13.44140625" style="362" customWidth="1"/>
+    <col min="67" max="16384" width="8.6640625" style="261"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="23.25">
+    <row r="1" spans="1:74" ht="22.8">
       <c r="A1" s="260"/>
       <c r="B1" s="514" t="s">
         <v>93</v>
@@ -23044,7 +23041,7 @@
       <c r="BF1" s="515"/>
       <c r="BG1" s="515"/>
     </row>
-    <row r="2" spans="1:74" s="349" customFormat="1" ht="25.5">
+    <row r="2" spans="1:74" s="349" customFormat="1" ht="26.4">
       <c r="C2" s="350" t="s">
         <v>94</v>
       </c>
@@ -23194,7 +23191,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="356" customFormat="1" ht="63.75">
+    <row r="3" spans="1:74" s="356" customFormat="1" ht="66">
       <c r="A3" s="356" t="s">
         <v>1752</v>
       </c>
@@ -23568,7 +23565,7 @@
       <c r="BS4" s="355"/>
       <c r="BT4" s="355"/>
     </row>
-    <row r="5" spans="1:74" s="266" customFormat="1" ht="240">
+    <row r="5" spans="1:74" s="266" customFormat="1" ht="216">
       <c r="A5" s="263" t="s">
         <v>163</v>
       </c>
@@ -23772,7 +23769,7 @@
       <c r="BS5" s="265"/>
       <c r="BT5" s="265"/>
     </row>
-    <row r="6" spans="1:74" s="459" customFormat="1" ht="41.45" customHeight="1">
+    <row r="6" spans="1:74" s="459" customFormat="1" ht="41.4" customHeight="1">
       <c r="A6" s="452" t="s">
         <v>201</v>
       </c>
@@ -24045,7 +24042,7 @@
       <c r="BM7" s="364"/>
       <c r="BN7" s="364"/>
     </row>
-    <row r="8" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="8" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A8" s="267" t="s">
         <v>232</v>
       </c>
@@ -24153,7 +24150,7 @@
       <c r="BM8" s="364"/>
       <c r="BN8" s="364"/>
     </row>
-    <row r="9" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="9" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A9" s="267" t="s">
         <v>235</v>
       </c>
@@ -24259,7 +24256,7 @@
       <c r="BM9" s="364"/>
       <c r="BN9" s="364"/>
     </row>
-    <row r="10" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="10" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A10" s="267" t="s">
         <v>236</v>
       </c>
@@ -24368,7 +24365,7 @@
       <c r="BM10" s="364"/>
       <c r="BN10" s="364"/>
     </row>
-    <row r="11" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="11" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A11" s="267" t="s">
         <v>238</v>
       </c>
@@ -24478,7 +24475,7 @@
       <c r="BM11" s="364"/>
       <c r="BN11" s="364"/>
     </row>
-    <row r="12" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="12" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A12" s="267" t="s">
         <v>246</v>
       </c>
@@ -24587,7 +24584,7 @@
       <c r="BM12" s="364"/>
       <c r="BN12" s="364"/>
     </row>
-    <row r="13" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="13" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A13" s="267" t="s">
         <v>247</v>
       </c>
@@ -24693,7 +24690,7 @@
       <c r="BM13" s="364"/>
       <c r="BN13" s="364"/>
     </row>
-    <row r="14" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="14" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A14" s="267" t="s">
         <v>248</v>
       </c>
@@ -24803,7 +24800,7 @@
       <c r="BM14" s="364"/>
       <c r="BN14" s="364"/>
     </row>
-    <row r="15" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="15" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A15" s="267" t="s">
         <v>251</v>
       </c>
@@ -24906,7 +24903,7 @@
       <c r="BM15" s="364"/>
       <c r="BN15" s="364"/>
     </row>
-    <row r="16" spans="1:74" s="268" customFormat="1" ht="33.75">
+    <row r="16" spans="1:74" s="268" customFormat="1" ht="32.4">
       <c r="A16" s="267" t="s">
         <v>252</v>
       </c>
@@ -25015,7 +25012,7 @@
       <c r="BM16" s="364"/>
       <c r="BN16" s="364"/>
     </row>
-    <row r="17" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="17" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A17" s="267" t="s">
         <v>254</v>
       </c>
@@ -25124,7 +25121,7 @@
       <c r="BM17" s="364"/>
       <c r="BN17" s="364"/>
     </row>
-    <row r="18" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="18" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A18" s="267" t="s">
         <v>256</v>
       </c>
@@ -25230,7 +25227,7 @@
       <c r="BM18" s="364"/>
       <c r="BN18" s="364"/>
     </row>
-    <row r="19" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="19" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A19" s="267" t="s">
         <v>257</v>
       </c>
@@ -25337,7 +25334,7 @@
       <c r="BM19" s="364"/>
       <c r="BN19" s="364"/>
     </row>
-    <row r="20" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="20" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A20" s="267" t="s">
         <v>259</v>
       </c>
@@ -25447,7 +25444,7 @@
       <c r="BM20" s="364"/>
       <c r="BN20" s="364"/>
     </row>
-    <row r="21" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="21" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A21" s="267" t="s">
         <v>262</v>
       </c>
@@ -25553,7 +25550,7 @@
       <c r="BM21" s="364"/>
       <c r="BN21" s="364"/>
     </row>
-    <row r="22" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="22" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A22" s="267" t="s">
         <v>264</v>
       </c>
@@ -25662,7 +25659,7 @@
       <c r="BM22" s="364"/>
       <c r="BN22" s="364"/>
     </row>
-    <row r="23" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="23" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A23" s="267" t="s">
         <v>265</v>
       </c>
@@ -25769,7 +25766,7 @@
       <c r="BM23" s="364"/>
       <c r="BN23" s="364"/>
     </row>
-    <row r="24" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="24" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A24" s="267" t="s">
         <v>267</v>
       </c>
@@ -25878,7 +25875,7 @@
       <c r="BM24" s="364"/>
       <c r="BN24" s="364"/>
     </row>
-    <row r="25" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="25" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A25" s="267" t="s">
         <v>268</v>
       </c>
@@ -25984,7 +25981,7 @@
       <c r="BM25" s="364"/>
       <c r="BN25" s="364"/>
     </row>
-    <row r="26" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="26" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A26" s="267" t="s">
         <v>269</v>
       </c>
@@ -26093,7 +26090,7 @@
       <c r="BM26" s="364"/>
       <c r="BN26" s="364"/>
     </row>
-    <row r="27" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="27" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A27" s="267" t="s">
         <v>270</v>
       </c>
@@ -26200,7 +26197,7 @@
       <c r="BM27" s="364"/>
       <c r="BN27" s="364"/>
     </row>
-    <row r="28" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="28" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A28" s="267" t="s">
         <v>273</v>
       </c>
@@ -26305,7 +26302,7 @@
       </c>
       <c r="BN28" s="364"/>
     </row>
-    <row r="29" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="29" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A29" s="267" t="s">
         <v>277</v>
       </c>
@@ -26408,7 +26405,7 @@
       <c r="BM29" s="364"/>
       <c r="BN29" s="364"/>
     </row>
-    <row r="30" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="30" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A30" s="267" t="s">
         <v>278</v>
       </c>
@@ -26515,7 +26512,7 @@
       <c r="BM30" s="364"/>
       <c r="BN30" s="364"/>
     </row>
-    <row r="31" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="31" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A31" s="267" t="s">
         <v>280</v>
       </c>
@@ -26621,7 +26618,7 @@
       <c r="BM31" s="364"/>
       <c r="BN31" s="364"/>
     </row>
-    <row r="32" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="32" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A32" s="267" t="s">
         <v>281</v>
       </c>
@@ -26730,7 +26727,7 @@
       <c r="BM32" s="364"/>
       <c r="BN32" s="364"/>
     </row>
-    <row r="33" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="33" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A33" s="267" t="s">
         <v>282</v>
       </c>
@@ -26838,7 +26835,7 @@
       <c r="BM33" s="364"/>
       <c r="BN33" s="364"/>
     </row>
-    <row r="34" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="34" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A34" s="267" t="s">
         <v>285</v>
       </c>
@@ -26944,7 +26941,7 @@
       <c r="BM34" s="364"/>
       <c r="BN34" s="364"/>
     </row>
-    <row r="35" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="35" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A35" s="267" t="s">
         <v>286</v>
       </c>
@@ -27051,7 +27048,7 @@
       <c r="BM35" s="364"/>
       <c r="BN35" s="364"/>
     </row>
-    <row r="36" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="36" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A36" s="267" t="s">
         <v>288</v>
       </c>
@@ -27160,7 +27157,7 @@
       <c r="BM36" s="364"/>
       <c r="BN36" s="364"/>
     </row>
-    <row r="37" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="37" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A37" s="267" t="s">
         <v>290</v>
       </c>
@@ -27270,7 +27267,7 @@
       <c r="BM37" s="364"/>
       <c r="BN37" s="364"/>
     </row>
-    <row r="38" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="38" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A38" s="267" t="s">
         <v>293</v>
       </c>
@@ -27376,7 +27373,7 @@
       <c r="BM38" s="364"/>
       <c r="BN38" s="364"/>
     </row>
-    <row r="39" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="39" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A39" s="267" t="s">
         <v>294</v>
       </c>
@@ -27494,7 +27491,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="40" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A40" s="267" t="s">
         <v>307</v>
       </c>
@@ -27600,7 +27597,7 @@
       <c r="BM40" s="364"/>
       <c r="BN40" s="364"/>
     </row>
-    <row r="41" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="41" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A41" s="267" t="s">
         <v>308</v>
       </c>
@@ -27702,7 +27699,7 @@
       <c r="BM41" s="364"/>
       <c r="BN41" s="364"/>
     </row>
-    <row r="42" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="42" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A42" s="267" t="s">
         <v>309</v>
       </c>
@@ -27811,7 +27808,7 @@
       <c r="BM42" s="364"/>
       <c r="BN42" s="364"/>
     </row>
-    <row r="43" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="43" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A43" s="267" t="s">
         <v>310</v>
       </c>
@@ -27920,7 +27917,7 @@
       <c r="BM43" s="364"/>
       <c r="BN43" s="364"/>
     </row>
-    <row r="44" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="44" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A44" s="267" t="s">
         <v>312</v>
       </c>
@@ -28026,7 +28023,7 @@
       <c r="BM44" s="364"/>
       <c r="BN44" s="364"/>
     </row>
-    <row r="45" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="45" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A45" s="267" t="s">
         <v>313</v>
       </c>
@@ -28132,7 +28129,7 @@
       <c r="BM45" s="364"/>
       <c r="BN45" s="364"/>
     </row>
-    <row r="46" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="46" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A46" s="267" t="s">
         <v>315</v>
       </c>
@@ -28241,7 +28238,7 @@
       <c r="BM46" s="364"/>
       <c r="BN46" s="364"/>
     </row>
-    <row r="47" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="47" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A47" s="267" t="s">
         <v>316</v>
       </c>
@@ -28346,7 +28343,7 @@
       <c r="BM47" s="364"/>
       <c r="BN47" s="364"/>
     </row>
-    <row r="48" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="48" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A48" s="267" t="s">
         <v>317</v>
       </c>
@@ -28452,7 +28449,7 @@
       <c r="BM48" s="364"/>
       <c r="BN48" s="364"/>
     </row>
-    <row r="49" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="49" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A49" s="267" t="s">
         <v>318</v>
       </c>
@@ -28558,7 +28555,7 @@
       <c r="BM49" s="364"/>
       <c r="BN49" s="364"/>
     </row>
-    <row r="50" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="50" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A50" s="267" t="s">
         <v>320</v>
       </c>
@@ -28667,7 +28664,7 @@
       <c r="BM50" s="364"/>
       <c r="BN50" s="364"/>
     </row>
-    <row r="51" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="51" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A51" s="267" t="s">
         <v>321</v>
       </c>
@@ -28776,7 +28773,7 @@
       <c r="BM51" s="364"/>
       <c r="BN51" s="364"/>
     </row>
-    <row r="52" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="52" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A52" s="267" t="s">
         <v>322</v>
       </c>
@@ -28881,7 +28878,7 @@
       <c r="BM52" s="364"/>
       <c r="BN52" s="364"/>
     </row>
-    <row r="53" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="53" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A53" s="267" t="s">
         <v>73</v>
       </c>
@@ -28990,7 +28987,7 @@
       <c r="BM53" s="364"/>
       <c r="BN53" s="364"/>
     </row>
-    <row r="54" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="54" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A54" s="267" t="s">
         <v>323</v>
       </c>
@@ -29097,7 +29094,7 @@
       <c r="BM54" s="364"/>
       <c r="BN54" s="364"/>
     </row>
-    <row r="55" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="55" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A55" s="267" t="s">
         <v>325</v>
       </c>
@@ -29206,7 +29203,7 @@
       <c r="BM55" s="364"/>
       <c r="BN55" s="364"/>
     </row>
-    <row r="56" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="56" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A56" s="267" t="s">
         <v>326</v>
       </c>
@@ -29315,7 +29312,7 @@
       <c r="BM56" s="364"/>
       <c r="BN56" s="364"/>
     </row>
-    <row r="57" spans="1:66" s="268" customFormat="1" ht="33.75">
+    <row r="57" spans="1:66" s="268" customFormat="1" ht="32.4">
       <c r="A57" s="267" t="s">
         <v>327</v>
       </c>
@@ -29828,11 +29825,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29935,59 +29932,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F3D7E-D500-4249-A60B-8D4257022104}">
   <dimension ref="A1:AZ205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AH98" sqref="AH98"/>
+      <selection pane="bottomLeft" activeCell="AI98" sqref="AI98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="104.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="37.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25.85546875" customWidth="1"/>
-    <col min="21" max="21" width="19.140625" customWidth="1"/>
-    <col min="22" max="25" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="22.6640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.109375" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.88671875" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" customWidth="1"/>
+    <col min="22" max="25" width="19.109375" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="8.5703125" customWidth="1"/>
+    <col min="27" max="27" width="8.5546875" customWidth="1"/>
     <col min="28" max="28" width="3" customWidth="1"/>
-    <col min="29" max="30" width="3.28515625" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" customWidth="1"/>
-    <col min="33" max="33" width="25.140625" customWidth="1"/>
-    <col min="34" max="34" width="48.28515625" style="463" customWidth="1"/>
-    <col min="35" max="35" width="83.85546875" customWidth="1"/>
-    <col min="36" max="36" width="8.28515625" customWidth="1"/>
-    <col min="37" max="37" width="8.140625" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" customWidth="1"/>
-    <col min="39" max="40" width="8.42578125" customWidth="1"/>
-    <col min="41" max="41" width="9.42578125" customWidth="1"/>
-    <col min="42" max="42" width="40.85546875" customWidth="1"/>
-    <col min="43" max="43" width="7.5703125" customWidth="1"/>
-    <col min="44" max="44" width="5.140625" customWidth="1"/>
-    <col min="45" max="45" width="24.5703125" customWidth="1"/>
-    <col min="46" max="47" width="7.5703125" customWidth="1"/>
-    <col min="48" max="48" width="23.85546875" customWidth="1"/>
-    <col min="49" max="49" width="18.42578125" customWidth="1"/>
-    <col min="50" max="50" width="41.85546875" customWidth="1"/>
-    <col min="51" max="51" width="65.140625" style="196" customWidth="1"/>
+    <col min="29" max="30" width="3.33203125" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.109375" customWidth="1"/>
+    <col min="33" max="33" width="25.109375" customWidth="1"/>
+    <col min="34" max="34" width="48.33203125" style="463" customWidth="1"/>
+    <col min="35" max="35" width="83.88671875" customWidth="1"/>
+    <col min="36" max="36" width="8.33203125" customWidth="1"/>
+    <col min="37" max="37" width="8.109375" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" customWidth="1"/>
+    <col min="39" max="40" width="8.44140625" customWidth="1"/>
+    <col min="41" max="41" width="9.44140625" customWidth="1"/>
+    <col min="42" max="42" width="40.88671875" customWidth="1"/>
+    <col min="43" max="43" width="7.5546875" customWidth="1"/>
+    <col min="44" max="44" width="5.109375" customWidth="1"/>
+    <col min="45" max="45" width="24.5546875" customWidth="1"/>
+    <col min="46" max="47" width="7.5546875" customWidth="1"/>
+    <col min="48" max="48" width="23.88671875" customWidth="1"/>
+    <col min="49" max="49" width="18.44140625" customWidth="1"/>
+    <col min="50" max="50" width="41.88671875" customWidth="1"/>
+    <col min="51" max="51" width="65.109375" style="196" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="33" customHeight="1">
@@ -32839,7 +32836,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="165">
+    <row r="24" spans="1:51" ht="165.6">
       <c r="A24" s="76" t="s">
         <v>2102</v>
       </c>
@@ -32964,7 +32961,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="165">
+    <row r="25" spans="1:51" ht="144">
       <c r="A25" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33089,7 +33086,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="165">
+    <row r="26" spans="1:51" ht="144">
       <c r="A26" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33214,7 +33211,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="165">
+    <row r="27" spans="1:51" ht="144">
       <c r="A27" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33339,7 +33336,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="90">
+    <row r="28" spans="1:51" ht="86.4">
       <c r="A28" s="76" t="s">
         <v>2102</v>
       </c>
@@ -35063,7 +35060,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="135">
+    <row r="42" spans="1:51" ht="138">
       <c r="A42" s="76" t="s">
         <v>2102</v>
       </c>
@@ -35186,7 +35183,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="43" spans="1:51" s="193" customFormat="1" ht="108">
+    <row r="43" spans="1:51" s="193" customFormat="1" ht="124.2">
       <c r="A43" s="288" t="s">
         <v>2102</v>
       </c>
@@ -35908,7 +35905,7 @@
       <c r="AX48" s="414"/>
       <c r="AY48" s="420"/>
     </row>
-    <row r="49" spans="1:51" ht="175.5">
+    <row r="49" spans="1:51" ht="179.4">
       <c r="A49" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36031,7 +36028,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="162">
+    <row r="50" spans="1:51" ht="179.4">
       <c r="A50" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36156,7 +36153,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="175.5">
+    <row r="51" spans="1:51" ht="179.4">
       <c r="A51" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36281,7 +36278,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="162">
+    <row r="52" spans="1:51" ht="165.6">
       <c r="A52" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36406,7 +36403,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="175.5">
+    <row r="53" spans="1:51" ht="179.4">
       <c r="A53" s="76" t="s">
         <v>2102</v>
       </c>
@@ -38094,7 +38091,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="115" customFormat="1" ht="108">
+    <row r="67" spans="1:51" s="115" customFormat="1" ht="110.4">
       <c r="A67" s="220" t="s">
         <v>2102</v>
       </c>
@@ -39116,10 +39113,10 @@
       </c>
       <c r="AF75" s="221"/>
       <c r="AG75" s="111" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AH75" s="461" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="AI75" s="151" t="s">
         <v>2364</v>
@@ -39227,10 +39224,10 @@
       </c>
       <c r="AF76" s="221"/>
       <c r="AG76" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH76" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH76" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI76" s="151" t="s">
         <v>2366</v>
@@ -39334,10 +39331,10 @@
       </c>
       <c r="AF77" s="221"/>
       <c r="AG77" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH77" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH77" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI77" s="108" t="s">
         <v>2367</v>
@@ -39439,10 +39436,10 @@
       </c>
       <c r="AF78" s="221"/>
       <c r="AG78" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH78" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH78" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI78" s="335"/>
       <c r="AJ78" s="110"/>
@@ -39544,10 +39541,10 @@
       </c>
       <c r="AF79" s="221"/>
       <c r="AG79" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH79" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH79" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI79" s="108" t="s">
         <v>2368</v>
@@ -39651,10 +39648,10 @@
       </c>
       <c r="AF80" s="221"/>
       <c r="AG80" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH80" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH80" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI80" s="108" t="s">
         <v>2369</v>
@@ -39694,7 +39691,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="109" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="D81" s="141" t="s">
         <v>26</v>
@@ -39760,10 +39757,10 @@
       </c>
       <c r="AF81" s="221"/>
       <c r="AG81" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH81" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH81" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI81" s="108" t="s">
         <v>2370</v>
@@ -39867,10 +39864,10 @@
       </c>
       <c r="AF82" s="221"/>
       <c r="AG82" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH82" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH82" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI82" s="108" t="s">
         <v>2371</v>
@@ -39974,10 +39971,10 @@
       </c>
       <c r="AF83" s="221"/>
       <c r="AG83" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH83" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH83" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI83" s="108" t="s">
         <v>2372</v>
@@ -40087,10 +40084,10 @@
       </c>
       <c r="AF84" s="221"/>
       <c r="AG84" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH84" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH84" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI84" s="151" t="s">
         <v>2373</v>
@@ -40196,10 +40193,10 @@
       </c>
       <c r="AF85" s="341"/>
       <c r="AG85" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH85" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH85" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI85" s="108" t="s">
         <v>2374</v>
@@ -40301,10 +40298,10 @@
       </c>
       <c r="AF86" s="109"/>
       <c r="AG86" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH86" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH86" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI86" s="108"/>
       <c r="AJ86" s="110"/>
@@ -40400,17 +40397,17 @@
         <v>387</v>
       </c>
       <c r="AE87" s="109" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="AF87" s="109"/>
       <c r="AG87" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH87" s="461" t="s">
         <v>2388</v>
       </c>
-      <c r="AH87" s="461" t="s">
-        <v>2389</v>
-      </c>
       <c r="AI87" s="108" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AJ87" s="110"/>
       <c r="AK87" s="166">
@@ -40513,10 +40510,10 @@
       </c>
       <c r="AF88" s="109"/>
       <c r="AG88" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH88" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH88" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI88" s="108" t="s">
         <v>2376</v>
@@ -40622,10 +40619,10 @@
       </c>
       <c r="AF89" s="109"/>
       <c r="AG89" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH89" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH89" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI89" s="108" t="s">
         <v>2378</v>
@@ -40731,10 +40728,10 @@
       </c>
       <c r="AF90" s="109"/>
       <c r="AG90" s="111" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AH90" s="461" t="s">
         <v>2397</v>
-      </c>
-      <c r="AH90" s="461" t="s">
-        <v>2398</v>
       </c>
       <c r="AI90" s="108" t="s">
         <v>2380</v>
@@ -40836,10 +40833,10 @@
       </c>
       <c r="AF91" s="109"/>
       <c r="AG91" s="111" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AH91" s="461" t="s">
         <v>2397</v>
-      </c>
-      <c r="AH91" s="461" t="s">
-        <v>2398</v>
       </c>
       <c r="AI91" s="108" t="s">
         <v>2381</v>
@@ -40941,10 +40938,10 @@
       </c>
       <c r="AF92" s="109"/>
       <c r="AG92" s="111" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AH92" s="461" t="s">
         <v>2397</v>
-      </c>
-      <c r="AH92" s="461" t="s">
-        <v>2398</v>
       </c>
       <c r="AI92" s="108" t="s">
         <v>2382</v>
@@ -41046,10 +41043,10 @@
       </c>
       <c r="AF93" s="109"/>
       <c r="AG93" s="111" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AH93" s="461" t="s">
         <v>2397</v>
-      </c>
-      <c r="AH93" s="461" t="s">
-        <v>2398</v>
       </c>
       <c r="AI93" s="108" t="s">
         <v>2383</v>
@@ -41151,10 +41148,10 @@
       </c>
       <c r="AF94" s="109"/>
       <c r="AG94" s="111" t="s">
+        <v>2396</v>
+      </c>
+      <c r="AH94" s="461" t="s">
         <v>2397</v>
-      </c>
-      <c r="AH94" s="461" t="s">
-        <v>2398</v>
       </c>
       <c r="AI94" s="108" t="s">
         <v>2384</v>
@@ -41254,10 +41251,10 @@
       </c>
       <c r="AF95" s="109"/>
       <c r="AG95" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH95" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH95" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI95" s="335" t="s">
         <v>539</v>
@@ -41355,17 +41352,17 @@
         <v>387</v>
       </c>
       <c r="AE96" s="109" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="AF96" s="109"/>
       <c r="AG96" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH96" s="461" t="s">
         <v>2388</v>
       </c>
-      <c r="AH96" s="461" t="s">
-        <v>2389</v>
-      </c>
       <c r="AI96" s="108" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="AJ96" s="110"/>
       <c r="AK96" s="107" t="s">
@@ -41460,17 +41457,17 @@
         <v>387</v>
       </c>
       <c r="AE97" s="109" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AF97" s="109"/>
       <c r="AG97" s="111" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AH97" s="461" t="s">
         <v>2401</v>
       </c>
-      <c r="AH97" s="461" t="s">
-        <v>2402</v>
-      </c>
       <c r="AI97" s="108" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="AJ97" s="110"/>
       <c r="AK97" s="107" t="s">
@@ -41569,10 +41566,10 @@
       </c>
       <c r="AF98" s="109"/>
       <c r="AG98" s="111" t="s">
+        <v>2387</v>
+      </c>
+      <c r="AH98" s="461" t="s">
         <v>2388</v>
-      </c>
-      <c r="AH98" s="461" t="s">
-        <v>2389</v>
       </c>
       <c r="AI98" s="108" t="s">
         <v>2386</v>
@@ -41674,13 +41671,13 @@
       </c>
       <c r="AF99" s="109"/>
       <c r="AG99" s="111" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="AH99" s="461" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="AI99" s="151" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="AJ99" s="110"/>
       <c r="AK99" s="508" t="s">
@@ -41779,13 +41776,13 @@
       </c>
       <c r="AF100" s="109"/>
       <c r="AG100" s="111" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AH100" s="461" t="s">
         <v>2391</v>
       </c>
-      <c r="AH100" s="461" t="s">
-        <v>2392</v>
-      </c>
       <c r="AI100" s="151" t="s">
-        <v>2387</v>
+        <v>2404</v>
       </c>
       <c r="AJ100" s="110"/>
       <c r="AK100" s="107" t="s">
@@ -53025,53 +53022,53 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="115" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="115" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.6640625" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="28.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" customWidth="1"/>
-    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.109375" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.109375" customWidth="1"/>
+    <col min="20" max="20" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="28.28515625" customWidth="1"/>
-    <col min="23" max="24" width="26.85546875" style="168" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="21.28515625" customWidth="1"/>
-    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.33203125" customWidth="1"/>
+    <col min="23" max="24" width="26.88671875" style="168" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="21.33203125" customWidth="1"/>
+    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.140625" customWidth="1"/>
-    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.28515625" customWidth="1"/>
-    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.140625" customWidth="1"/>
+    <col min="30" max="30" width="25.109375" customWidth="1"/>
+    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.33203125" customWidth="1"/>
+    <col min="33" max="33" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.109375" customWidth="1"/>
     <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.85546875" customWidth="1"/>
-    <col min="38" max="38" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" customWidth="1"/>
-    <col min="40" max="40" width="25.5703125" customWidth="1"/>
-    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" customWidth="1"/>
-    <col min="43" max="43" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.140625" customWidth="1"/>
-    <col min="45" max="45" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.88671875" customWidth="1"/>
+    <col min="38" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" customWidth="1"/>
+    <col min="40" max="40" width="25.5546875" customWidth="1"/>
+    <col min="41" max="41" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5546875" customWidth="1"/>
+    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.109375" customWidth="1"/>
+    <col min="45" max="45" width="32.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="475" customFormat="1" ht="75">
+    <row r="1" spans="1:51" s="475" customFormat="1" ht="72">
       <c r="A1" s="472" t="s">
         <v>1065</v>
       </c>
@@ -53214,7 +53211,7 @@
       <c r="AX1" s="474"/>
       <c r="AY1" s="474"/>
     </row>
-    <row r="2" spans="1:51" s="478" customFormat="1" ht="18.75">
+    <row r="2" spans="1:51" s="478" customFormat="1" ht="18">
       <c r="A2" s="476" t="s">
         <v>375</v>
       </c>
@@ -53351,7 +53348,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:51" s="86" customFormat="1" ht="90">
+    <row r="3" spans="1:51" s="86" customFormat="1" ht="72">
       <c r="A3" s="81" t="s">
         <v>1096</v>
       </c>
@@ -53488,7 +53485,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="86" customFormat="1" ht="90">
+    <row r="4" spans="1:51" s="86" customFormat="1" ht="86.4">
       <c r="A4" s="81" t="s">
         <v>1123</v>
       </c>
@@ -53619,7 +53616,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="86" customFormat="1" ht="90">
+    <row r="5" spans="1:51" s="86" customFormat="1" ht="86.4">
       <c r="A5" s="81" t="s">
         <v>1145</v>
       </c>
@@ -53716,7 +53713,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="86" customFormat="1" ht="90">
+    <row r="6" spans="1:51" s="86" customFormat="1" ht="72">
       <c r="A6" s="81" t="s">
         <v>1162</v>
       </c>
@@ -53783,7 +53780,7 @@
       </c>
       <c r="AR6" s="81"/>
     </row>
-    <row r="7" spans="1:51" s="86" customFormat="1" ht="75">
+    <row r="7" spans="1:51" s="86" customFormat="1" ht="72">
       <c r="A7" s="81" t="s">
         <v>1172</v>
       </c>
@@ -56378,12 +56375,12 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.44140625" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1">
@@ -56405,7 +56402,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="259" customFormat="1" ht="60">
+    <row r="3" spans="1:4" s="259" customFormat="1" ht="57.6">
       <c r="A3" s="273" t="s">
         <v>1489</v>
       </c>
@@ -56419,7 +56416,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="259" customFormat="1" ht="60">
+    <row r="4" spans="1:4" s="259" customFormat="1" ht="57.6">
       <c r="A4" s="273" t="s">
         <v>1489</v>
       </c>
@@ -56433,7 +56430,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="75" customFormat="1" ht="45">
+    <row r="5" spans="1:4" s="75" customFormat="1" ht="28.8">
       <c r="A5" s="103" t="s">
         <v>1495</v>
       </c>
@@ -56442,7 +56439,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="60">
+    <row r="6" spans="1:4" ht="57.6">
       <c r="A6" s="81" t="s">
         <v>1497</v>
       </c>
@@ -56451,7 +56448,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="60">
+    <row r="7" spans="1:4" ht="57.6">
       <c r="A7" s="81" t="s">
         <v>1499</v>
       </c>
@@ -56460,7 +56457,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="75" customFormat="1" ht="30">
+    <row r="8" spans="1:4" s="75" customFormat="1" ht="28.8">
       <c r="A8" s="103" t="s">
         <v>1501</v>
       </c>
@@ -56543,7 +56540,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30">
+    <row r="24" spans="1:5" ht="28.8">
       <c r="A24" s="242" t="s">
         <v>1779</v>
       </c>
@@ -56556,7 +56553,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45">
+    <row r="57" spans="1:5" ht="43.2">
       <c r="A57" s="103" t="s">
         <v>1783</v>
       </c>
@@ -56565,7 +56562,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="45">
+    <row r="58" spans="1:5" ht="28.8">
       <c r="A58" s="103" t="s">
         <v>1785</v>
       </c>
@@ -56706,16 +56703,16 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="48.75" thickTop="1" thickBot="1">
+    <row r="1" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A1" s="197" t="s">
         <v>1512</v>
       </c>
@@ -56735,7 +56732,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A2" s="517" t="s">
         <v>1091</v>
       </c>
@@ -56755,7 +56752,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A3" s="517"/>
       <c r="B3" s="200" t="s">
         <v>35</v>
@@ -56773,7 +56770,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A4" s="517"/>
       <c r="B4" s="200" t="s">
         <v>1161</v>
@@ -56791,7 +56788,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A5" s="206"/>
       <c r="B5" s="207"/>
       <c r="C5" s="213"/>
@@ -56799,7 +56796,7 @@
       <c r="E5" s="208"/>
       <c r="F5" s="207"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A6" s="517" t="s">
         <v>1118</v>
       </c>
@@ -56819,7 +56816,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="7" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A7" s="517"/>
       <c r="B7" s="200" t="s">
         <v>1121</v>
@@ -56837,7 +56834,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="8" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A8" s="517"/>
       <c r="B8" s="200" t="s">
         <v>35</v>
@@ -56855,7 +56852,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="9" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A9" s="517"/>
       <c r="B9" s="200" t="s">
         <v>1161</v>
@@ -56873,7 +56870,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="10" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A10" s="206"/>
       <c r="B10" s="207"/>
       <c r="C10" s="213"/>
@@ -56881,7 +56878,7 @@
       <c r="E10" s="209"/>
       <c r="F10" s="207"/>
     </row>
-    <row r="11" spans="1:6" ht="33" thickTop="1" thickBot="1">
+    <row r="11" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A11" s="517" t="s">
         <v>1159</v>
       </c>
@@ -56901,7 +56898,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="33" thickTop="1" thickBot="1">
+    <row r="12" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A12" s="517"/>
       <c r="B12" s="200" t="s">
         <v>1526</v>
@@ -56919,7 +56916,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" thickTop="1" thickBot="1">
+    <row r="13" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A13" s="517"/>
       <c r="B13" s="200" t="s">
         <v>1526</v>
@@ -56937,7 +56934,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="14" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A14" s="517"/>
       <c r="B14" s="200" t="s">
         <v>35</v>
@@ -56955,7 +56952,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="15" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A15" s="517"/>
       <c r="B15" s="200" t="s">
         <v>1161</v>
@@ -56973,7 +56970,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+    <row r="16" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
       <c r="A16" s="206"/>
       <c r="B16" s="207"/>
       <c r="C16" s="213"/>
@@ -56981,7 +56978,7 @@
       <c r="E16" s="207"/>
       <c r="F16" s="207"/>
     </row>
-    <row r="17" spans="1:6" ht="33" thickTop="1" thickBot="1">
+    <row r="17" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
       <c r="A17" s="199" t="s">
         <v>1527</v>
       </c>
@@ -57001,7 +56998,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="18" spans="1:6" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A4"/>
@@ -57013,6 +57010,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
+    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <UserInfo>
+        <DisplayName>Tammy Sunderland</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A419301B98B8354A897828D82A6F00F6" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20ca8a0c0d59028efd0f33ef93e3a420">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e08ed28-a208-4db3-90dc-062006ce0c78" xmlns:ns3="7e386c18-d449-4d9a-a5df-f64c6139a3c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecc1aa61ba2aa3d92dc6750af3137611" ns2:_="" ns3:_="">
     <xsd:import namespace="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
@@ -57333,33 +57357,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
-    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <UserInfo>
-        <DisplayName>Tammy Sunderland</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -57370,6 +57367,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E841BFC-575E-4C80-B796-EDB398657E74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57388,23 +57402,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E841BFC-575E-4C80-B796-EDB398657E74}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
   <ds:schemaRefs>

--- a/src/test/resources/testdata/Client/FILI.xlsx
+++ b/src/test/resources/testdata/Client/FILI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA4143-F56A-413A-8D58-F37B0FC6E0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54280138-1B50-4A5B-8771-9F3B4A5F29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="1" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision &amp; Admin" sheetId="6" r:id="rId1"/>
@@ -19,20 +19,21 @@
     <sheet name="Carrier Form Matrix" sheetId="31" r:id="rId4"/>
     <sheet name="Reg 60 Forms Trigger Conditions" sheetId="32" r:id="rId5"/>
     <sheet name="E-app Wizard Spec" sheetId="26" r:id="rId6"/>
-    <sheet name="Data List" sheetId="5" r:id="rId7"/>
-    <sheet name="General Form Mapping " sheetId="30" r:id="rId8"/>
-    <sheet name="Age Validation  Rules" sheetId="29" r:id="rId9"/>
-    <sheet name="Bene Relationship Mapping" sheetId="27" state="hidden" r:id="rId10"/>
-    <sheet name="Fund Allocation Module-Combined" sheetId="23" state="hidden" r:id="rId11"/>
-    <sheet name="Requests for Verification Log" sheetId="3" state="hidden" r:id="rId12"/>
-    <sheet name="Defects Log" sheetId="4" state="hidden" r:id="rId13"/>
-    <sheet name="Data Types" sheetId="9" r:id="rId14"/>
-    <sheet name="Built In Rules" sheetId="7" r:id="rId15"/>
-    <sheet name="UI Template - SSOT (locked)" sheetId="1" state="hidden" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="33" r:id="rId7"/>
+    <sheet name="Data List" sheetId="5" r:id="rId8"/>
+    <sheet name="General Form Mapping " sheetId="30" r:id="rId9"/>
+    <sheet name="Age Validation  Rules" sheetId="29" r:id="rId10"/>
+    <sheet name="Bene Relationship Mapping" sheetId="27" state="hidden" r:id="rId11"/>
+    <sheet name="Fund Allocation Module-Combined" sheetId="23" state="hidden" r:id="rId12"/>
+    <sheet name="Requests for Verification Log" sheetId="3" state="hidden" r:id="rId13"/>
+    <sheet name="Defects Log" sheetId="4" state="hidden" r:id="rId14"/>
+    <sheet name="Data Types" sheetId="9" r:id="rId15"/>
+    <sheet name="Built In Rules" sheetId="7" r:id="rId16"/>
+    <sheet name="UI Template - SSOT (locked)" sheetId="1" state="hidden" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'E-app Wizard Spec'!$A$1:$BD$194</definedName>
@@ -444,7 +445,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9885" uniqueCount="2405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10267" uniqueCount="2410">
   <si>
     <t>Version</t>
   </si>
@@ -10158,12 +10159,6 @@
     <t>Annuity_TaxQualification</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Default = Blank.
-2. If Owner_Type= Individual then SHOW Options Blank, Non-Qualified.
-3. If Owner_Type= Joint, Trust, UTMA/UGMA then SHOW Options Blank, Non-Qualified.
-</t>
-  </si>
-  <si>
     <t>If Annuity_TaxQualification = Blank, then ISSUE ERROR MESSAGE: Plan Type is required.</t>
   </si>
   <si>
@@ -10638,34 +10633,6 @@
     <t>1.       If Annuitant_Primary_EmailAddress = Invalid, then ISSUE ERROR MESSAGE: Please enter a valid email address for Annuitant.</t>
   </si>
   <si>
-    <t>1. If Owner_TIN = Invalid,  then ISSUE ERROR MESSAGE: Please enter a valid TIN for Owner.
-2. If Owner_TIN = Blank, then ISSUE ERROR MESSAGE: Owner TIN is required.</t>
-  </si>
-  <si>
-    <t>1.       If JointOwner_Primary_EmailAddress = Invalid,  then ISSUE ERROR MESSAGE: Please enter a valid email address for the Joint Owner.
-2. If JointOwner_Primary_EmailAddress = Blank, then ISSUE ERROR MESSAGE: Joint Owner Email Address is required.</t>
-  </si>
-  <si>
-    <t>1.       If Custodian_SSN = Invalid, then ISSUE ERROR MESSAGE: Please enter a valid SSN for Custodian.
-2.       If Custodian_SSN = Blank, then ISSUE ERROR MESSAGE: Custodian SSN is required.</t>
-  </si>
-  <si>
-    <t>1.       If Custodian_Primary_EmailAddress = Invalid  then ISSUE ERROR MESSAGE: Please enter a valid email address for the Custodian.
-2. 1. If Custodian_Primary_EmailAddress = Blank, then ISSUE ERROR MESSAGE: Custodian Email Address is required”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 	Default = Blank. 
-2.	 If Owner_Type =Individual, Joint, UTMA/UGMA then SHOW and ENABLE
-3. If Owner_Type = Trust then DISABLE and HIDE.
-</t>
-  </si>
-  <si>
-    <t>1. If Owner_Type = Individual, Joint AND Owner_DOB &lt; 18, then ISSUE ERROR MESSAGE:  “ The Owner age must be greater than or equal to 18.
-2. If Owner_Type = UTMA/UGMA AND (Owner_DOB &lt; 0 OR Owner_DOB  &gt; 18), then ISSUE ERROR MESSAGE:  “ The Owner age must be between 0 and 18.
-2. If Owner_DOB &gt; current date, then ISSUE ERROR MESSAGE: Owner DOB must be in the past.
-3. If Owner_DOB = Current date, then ISSUE ERROR MESSAGE: This field must contain a date in the past</t>
-  </si>
-  <si>
     <t>Inherited Non Qual should match requirements given in  Carrier Questions /NQ Inherited tab</t>
   </si>
   <si>
@@ -10745,11 +10712,6 @@
   </si>
   <si>
     <t>Annuity_TaxQualification = Inherited Non-Qualified</t>
-  </si>
-  <si>
-    <t>1. Default = Blank
-2. If Annuity_TaxQualification =  Inherited Non-Qualified  then SHOW and ENABLE
-3. If Annuity_TaxQualification =  Non-Qualified then DISABLE and HIDE.</t>
   </si>
   <si>
     <t>Annuity_TaxQualification = Inherited Non-Qualified AND InheritedNQ_Payment_WithholdStateTax_YesNo =  Yes</t>
@@ -10772,38 +10734,101 @@
     <t>InheritedNQ_Payment_StartDate</t>
   </si>
   <si>
-    <t>If InheritedNQ_Payment_StartDate= Blank, then ISSUE ERROR MESSAGE: Payment Start Date is required.</t>
-  </si>
-  <si>
     <t>Annuity_TaxQualification = Inherited Non-Qualified AND InheritedNQ_Payment_Method =  ACH</t>
+  </si>
+  <si>
+    <t>InheritedNQ_Payment_WithholdFederal_Tax_YesNo</t>
+  </si>
+  <si>
+    <t>Annuity_TaxQualification = Inherited Non-Qualified AND InheritedNQ_Payment_WithholdFederal_Tax_YesNo =  Yes</t>
+  </si>
+  <si>
+    <t>InheritedNQ_Payment_WithholdFederal_Tax_Percentage</t>
+  </si>
+  <si>
+    <t>If InheritedNQ_Payment_WithholdStateTax_Amount = Blank AND InheritedNQ_Payment_WithholdStateTax_Percentage = Blank, then ISSUE ERROR MESSAGE: Amount or Percentage is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 	Default = Blank. 
+2	 If Owner_Type =Individual, Joint, UTMA/UGMA then SHOW and ENABLE
+3. If Owner_Type = Trust then DISABLE and HIDE.
+</t>
+  </si>
+  <si>
+    <t>1. If Owner_TIN =INVALID,  then ISSUE ERROR MESSAGE: Please enter a valid TIN for Owner.
+2. If Owner_TIN = Blank, then ISSUE ERROR MESSAGE: Owner TIN is required.</t>
+  </si>
+  <si>
+    <t>1.       If JointOwner_Primary_EmailAddress =INVALID,  then ISSUE ERROR MESSAGE: Please enter a valid email address for the Joint Owner.
+2. If JointOwner_Primary_EmailAddress = Blank, then ISSUE ERROR MESSAGE: Joint Owner Email Address is required.</t>
+  </si>
+  <si>
+    <t>1.       If Custodian_SSN =INVALID, then ISSUE ERROR MESSAGE: Please enter a valid SSN for Custodian.
+2.       If Custodian_SSN = Blank, then ISSUE ERROR MESSAGE: Custodian SSN is required.</t>
+  </si>
+  <si>
+    <t>1. If Custodian_Primary_EmailAddress =INVALID,  then ISSUE ERROR MESSAGE: Please enter a valid email address for the Custodian.
+2. If Custodian_Primary_EmailAddress = Blank, then ISSUE ERROR MESSAGE: Custodian Email Address is required.</t>
+  </si>
+  <si>
+    <t>1. Default = Blank
+2. If Annuity_TaxQualification =  Inherited Non-Qualified  then SHOW and ENABLE
+3. If Annuity_TaxQualification &lt;&gt;Inherited Non-Qualified then DISABLE and HIDE.</t>
+  </si>
+  <si>
+    <t>If InheritedNQ__Payment_StartDate= Blank, then ISSUE ERROR MESSAGE: Payment Start Date is required.</t>
+  </si>
+  <si>
+    <t>1. Default = Blank
+2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_AccountType =  ACH, then SHOW and ENABLE 
+3. If Annuity_TaxQualification &lt;&gt;  Inherited Non-Qualified  OR InheritedNQ_Payment_AccountType &lt;&gt; ACH, then DISABLE and HIDE</t>
+  </si>
+  <si>
+    <t>If InheritedNQ_Payment_WithholdFederal Tax_YesNo= Blank, then ISSUE ERROR MESSAGE: Please Select Yes or No.</t>
+  </si>
+  <si>
+    <t>1. Default = Blank
+2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_WithholdFederal Tax_YesNo =  Yes   then SHOW and ENABLE
+3. If  Annuity_TaxQualification &lt;&gt; Inherited Non-Qualified OR InheritedNQ_Payment_WithholdFederal Tax_YesNo =  No   then DISABLE and HIDE</t>
+  </si>
+  <si>
+    <t>If InheritedNQ_Payment_WithholdFederal Tax_Percentage= Blank, then ISSUE ERROR MESSAGE: Percentage is required.</t>
+  </si>
+  <si>
+    <t>1. Default = Blank
+2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_WithholdStateTax_YesNo =  Yes  then SHOW and ENABLE 
+3. If Annuity_TaxQualification &lt;&gt; Inherited Non-Qualified OR InheritedNQ_Payment_WithholdStateTax_YesNo =  No  then DISABLE and HIDE</t>
+  </si>
+  <si>
+    <t>If InheritedNQ_Payment_WithholdState Tax_Amount = Blank AND InheritedNQ_Payment_WithholdStateTax_Percentage = Blank, then ISSUE ERROR MESSAGE: Amount or Percentage is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Default = Blank.
+2. If Owner_Type= Individual then SHOW Options Blank, Non-Qualified, Inherited Non-Qualified
+3. If Owner_Type= Joint, Trust, UTMA/UGMA then SHOW Options Blank, Non-Qualified.
+</t>
+  </si>
+  <si>
+    <t>1. If Owner_Type &lt;&gt; UTMA/UGMA AND Owner_DOB &gt; 0 AND Owner_DOB &lt; 18, then ISSUE ERROR MESSAGE:  The Owner age must be greater than or equal to 18.
+2. If Owner_Type = UTMA/UGMA AND (Owner_DOB &lt; 0 OR Owner_DOB  &gt; 18), then ISSUE ERROR MESSAGE: The Owner age must be between 0 and 18.
+2. If Owner_DOB &gt; current date, then ISSUE ERROR MESSAGE: Owner DOB must be in the past.
+3. If Owner_DOB = Current date, then ISSUE ERROR MESSAGE: This field must contain a date in the past.</t>
   </si>
   <si>
     <t>1. Default = Blank
 2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_Method =  ACH, then SHOW and ENABLE 
-3. If Annuity_TaxQualification = Non-Qualified  AND InheritedNQ_Payment_Method =  Check, then DISABLE and HIDE</t>
-  </si>
-  <si>
-    <t>InheritedNQ_Payment_WithholdFederal_Tax_YesNo</t>
-  </si>
-  <si>
-    <t>If InheritedNQ_Payment_WithholdFederal_Tax_YesNo= Blank, then ISSUE ERROR MESSAGE: Please Select Yes or No.</t>
-  </si>
-  <si>
-    <t>Annuity_TaxQualification = Inherited Non-Qualified AND InheritedNQ_Payment_WithholdFederal_Tax_YesNo =  Yes</t>
+3. If Annuity_TaxQualification &lt;&gt;  Inherited Non-Qualified  OR InheritedNQ_Payment_Method\ &lt;&gt; ACH, then DISABLE and HIDE</t>
   </si>
   <si>
     <t>1. Default = Blank
-2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_WithholdFederal_Tax_YesNo =  Yes   then SHOW and ENABLE
-3. If  Annuity_TaxQualification =  Non-Qualified  AND InheritedNQ_Payment_WithholdFederal_Tax_YesNo =  No   then DISABLE and HIDE</t>
-  </si>
-  <si>
-    <t>InheritedNQ_Payment_WithholdFederal_Tax_Percentage</t>
-  </si>
-  <si>
-    <t>If InheritedNQ_Payment_WithholdFederal_Tax_Percentage= Blank, then ISSUE ERROR MESSAGE: Percentage is required.</t>
-  </si>
-  <si>
-    <t>If InheritedNQ_Payment_WithholdStateTax_Amount = Blank AND InheritedNQ_Payment_WithholdStateTax_Percentage = Blank, then ISSUE ERROR MESSAGE: Amount or Percentage is required.</t>
+2. If Annuity_TaxQualification =  Inherited Non-Qualified  AND InheritedNQ_Payment_Method =  ACH, then SHOW and ENABLE 
+3. If Annuity_TaxQualification &lt;&gt;  Inherited Non-Qualified  OR InheritedNQ_Payment_Method &lt;&gt; ACH, then DISABLE and HIDE</t>
+  </si>
+  <si>
+    <t>1. If Owner_Type &lt;&gt; UTMA/UGMA AND (Owner_DOB &gt; 0 OR Owner_DOB &lt; 18), then ISSUE ERROR MESSAGE:  The Owner age must be greater than or equal to 18.
+2. If Owner_Type = UTMA/UGMA AND (Owner_DOB &lt; 0 OR Owner_DOB  &gt; 18), then ISSUE ERROR MESSAGE: The Owner age must be between 0 and 18.
+2. If Owner_DOB &gt; current date, then ISSUE ERROR MESSAGE: Owner DOB must be in the past.
+3. If Owner_DOB = Current date, then ISSUE ERROR MESSAGE: This field must contain a date in the past.</t>
   </si>
 </sst>
 </file>
@@ -12093,7 +12118,7 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="521">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13200,9 +13225,6 @@
     <xf numFmtId="0" fontId="52" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -13237,9 +13259,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -13312,9 +13331,6 @@
     <xf numFmtId="0" fontId="63" fillId="17" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="35" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -13323,9 +13339,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13484,7 +13497,7 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{50DE3D44-ABB6-42F7-A295-F0E77105A8F4}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="56">
     <dxf>
       <fill>
         <patternFill>
@@ -13912,6 +13925,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14943,17 +14986,17 @@
       <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.88671875" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="35" customWidth="1"/>
-    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8">
+    <row r="1" spans="1:11" ht="30">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -14981,7 +15024,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8">
+    <row r="2" spans="1:11" ht="30">
       <c r="A2" s="251">
         <v>0</v>
       </c>
@@ -15003,7 +15046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="43.2">
+    <row r="3" spans="1:11" ht="45">
       <c r="A3" s="86">
         <v>0.1</v>
       </c>
@@ -15025,7 +15068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="86">
         <v>0.1</v>
       </c>
@@ -15047,7 +15090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="230.4">
+    <row r="5" spans="1:11" ht="270">
       <c r="A5" s="86">
         <v>0.1</v>
       </c>
@@ -15065,7 +15108,7 @@
       </c>
       <c r="F5" s="86"/>
     </row>
-    <row r="6" spans="1:11" ht="72">
+    <row r="6" spans="1:11" ht="90">
       <c r="A6" s="86">
         <v>0.2</v>
       </c>
@@ -15083,7 +15126,7 @@
       </c>
       <c r="F6" s="86"/>
     </row>
-    <row r="7" spans="1:11" ht="28.8">
+    <row r="7" spans="1:11" ht="30">
       <c r="A7" s="86">
         <v>0.2</v>
       </c>
@@ -15119,7 +15162,7 @@
       </c>
       <c r="F8" s="86"/>
     </row>
-    <row r="9" spans="1:11" ht="57.6">
+    <row r="9" spans="1:11" ht="75">
       <c r="A9" s="86">
         <v>0.3</v>
       </c>
@@ -15157,7 +15200,7 @@
       </c>
       <c r="F10" s="86"/>
     </row>
-    <row r="11" spans="1:11" ht="57.6">
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" s="86">
         <v>0.4</v>
       </c>
@@ -15175,7 +15218,7 @@
       </c>
       <c r="F11" s="86"/>
     </row>
-    <row r="12" spans="1:11" ht="28.8">
+    <row r="12" spans="1:11" ht="30">
       <c r="A12" s="86">
         <v>0.4</v>
       </c>
@@ -15193,7 +15236,7 @@
       </c>
       <c r="F12" s="86"/>
     </row>
-    <row r="13" spans="1:11" ht="57.6">
+    <row r="13" spans="1:11" ht="60">
       <c r="A13" s="86">
         <v>0.4</v>
       </c>
@@ -15211,7 +15254,7 @@
       </c>
       <c r="F13" s="86"/>
     </row>
-    <row r="14" spans="1:11" ht="172.8">
+    <row r="14" spans="1:11" ht="195">
       <c r="A14" s="86">
         <v>0.4</v>
       </c>
@@ -15229,7 +15272,7 @@
       </c>
       <c r="F14" s="86"/>
     </row>
-    <row r="15" spans="1:11" ht="72">
+    <row r="15" spans="1:11" ht="90">
       <c r="A15" s="86">
         <v>0.4</v>
       </c>
@@ -15265,7 +15308,7 @@
       </c>
       <c r="F16" s="86"/>
     </row>
-    <row r="17" spans="1:6" ht="72">
+    <row r="17" spans="1:6" ht="105">
       <c r="A17" s="86">
         <v>0.4</v>
       </c>
@@ -15283,7 +15326,7 @@
       </c>
       <c r="F17" s="86"/>
     </row>
-    <row r="18" spans="1:6" ht="28.8">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="86">
         <v>0.4</v>
       </c>
@@ -15301,7 +15344,7 @@
       </c>
       <c r="F18" s="86"/>
     </row>
-    <row r="19" spans="1:6" ht="86.4">
+    <row r="19" spans="1:6" ht="105">
       <c r="A19" s="86">
         <v>0.4</v>
       </c>
@@ -15319,7 +15362,7 @@
       </c>
       <c r="F19" s="86"/>
     </row>
-    <row r="20" spans="1:6" ht="57.6">
+    <row r="20" spans="1:6" ht="75">
       <c r="A20" s="86">
         <v>0.5</v>
       </c>
@@ -15337,7 +15380,7 @@
       </c>
       <c r="F20" s="86"/>
     </row>
-    <row r="21" spans="1:6" ht="72">
+    <row r="21" spans="1:6" ht="90">
       <c r="A21" s="86">
         <v>0.5</v>
       </c>
@@ -15355,7 +15398,7 @@
       </c>
       <c r="F21" s="86"/>
     </row>
-    <row r="22" spans="1:6" ht="187.2">
+    <row r="22" spans="1:6" ht="195">
       <c r="A22" s="86">
         <v>0.5</v>
       </c>
@@ -15373,7 +15416,7 @@
       </c>
       <c r="F22" s="86"/>
     </row>
-    <row r="23" spans="1:6" ht="43.2">
+    <row r="23" spans="1:6" ht="45">
       <c r="A23" s="86">
         <v>0.5</v>
       </c>
@@ -15391,7 +15434,7 @@
       </c>
       <c r="F23" s="86"/>
     </row>
-    <row r="24" spans="1:6" ht="28.8">
+    <row r="24" spans="1:6" ht="30">
       <c r="A24" s="86">
         <v>0.5</v>
       </c>
@@ -15409,7 +15452,7 @@
       </c>
       <c r="F24" s="86"/>
     </row>
-    <row r="25" spans="1:6" ht="72">
+    <row r="25" spans="1:6" ht="90">
       <c r="A25" s="86">
         <v>0.6</v>
       </c>
@@ -15427,7 +15470,7 @@
       </c>
       <c r="F25" s="86"/>
     </row>
-    <row r="26" spans="1:6" ht="244.8">
+    <row r="26" spans="1:6" ht="285">
       <c r="A26" s="86">
         <v>0.6</v>
       </c>
@@ -15445,7 +15488,7 @@
       </c>
       <c r="F26" s="86"/>
     </row>
-    <row r="27" spans="1:6" ht="100.8">
+    <row r="27" spans="1:6" ht="120">
       <c r="A27" s="86">
         <v>0.6</v>
       </c>
@@ -15463,7 +15506,7 @@
       </c>
       <c r="F27" s="86"/>
     </row>
-    <row r="28" spans="1:6" ht="115.2">
+    <row r="28" spans="1:6" ht="120">
       <c r="A28" s="86">
         <v>0.6</v>
       </c>
@@ -15481,7 +15524,7 @@
       </c>
       <c r="F28" s="86"/>
     </row>
-    <row r="29" spans="1:6" ht="57.6">
+    <row r="29" spans="1:6" ht="75">
       <c r="A29" s="86">
         <v>0.6</v>
       </c>
@@ -15499,7 +15542,7 @@
       </c>
       <c r="F29" s="86"/>
     </row>
-    <row r="30" spans="1:6" ht="28.8">
+    <row r="30" spans="1:6" ht="45">
       <c r="A30" s="86">
         <v>0.6</v>
       </c>
@@ -15517,7 +15560,7 @@
       </c>
       <c r="F30" s="86"/>
     </row>
-    <row r="31" spans="1:6" ht="86.4">
+    <row r="31" spans="1:6" ht="105">
       <c r="A31" s="86">
         <v>0.7</v>
       </c>
@@ -15535,7 +15578,7 @@
       </c>
       <c r="F31" s="86"/>
     </row>
-    <row r="32" spans="1:6" ht="57.6">
+    <row r="32" spans="1:6" ht="60">
       <c r="A32" s="86">
         <v>0.7</v>
       </c>
@@ -15553,7 +15596,7 @@
       </c>
       <c r="F32" s="86"/>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="86">
         <v>0.7</v>
       </c>
@@ -15571,7 +15614,7 @@
       </c>
       <c r="F33" s="86"/>
     </row>
-    <row r="34" spans="1:6" ht="28.8">
+    <row r="34" spans="1:6" ht="30">
       <c r="A34" s="86">
         <v>0.7</v>
       </c>
@@ -15589,7 +15632,7 @@
       </c>
       <c r="F34" s="86"/>
     </row>
-    <row r="35" spans="1:6" ht="28.8">
+    <row r="35" spans="1:6" ht="45">
       <c r="A35" s="86">
         <v>0.8</v>
       </c>
@@ -15607,7 +15650,7 @@
       </c>
       <c r="F35" s="86"/>
     </row>
-    <row r="36" spans="1:6" ht="86.4">
+    <row r="36" spans="1:6" ht="105">
       <c r="A36" s="86">
         <v>0.8</v>
       </c>
@@ -15625,7 +15668,7 @@
       </c>
       <c r="F36" s="86"/>
     </row>
-    <row r="37" spans="1:6" ht="230.4">
+    <row r="37" spans="1:6" ht="255">
       <c r="A37" s="86">
         <v>0.8</v>
       </c>
@@ -15643,7 +15686,7 @@
       </c>
       <c r="F37" s="86"/>
     </row>
-    <row r="38" spans="1:6" ht="57.6">
+    <row r="38" spans="1:6" ht="60">
       <c r="A38" s="86">
         <v>0.8</v>
       </c>
@@ -15661,7 +15704,7 @@
       </c>
       <c r="F38" s="86"/>
     </row>
-    <row r="39" spans="1:6" ht="43.2">
+    <row r="39" spans="1:6" ht="45">
       <c r="A39" s="86">
         <v>0.8</v>
       </c>
@@ -15679,7 +15722,7 @@
       </c>
       <c r="F39" s="86"/>
     </row>
-    <row r="40" spans="1:6" ht="57.6">
+    <row r="40" spans="1:6" ht="75">
       <c r="A40" s="86">
         <v>0.8</v>
       </c>
@@ -15697,7 +15740,7 @@
       </c>
       <c r="F40" s="86"/>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="30">
       <c r="A41" s="86">
         <v>0.8</v>
       </c>
@@ -15715,7 +15758,7 @@
       </c>
       <c r="F41" s="86"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8">
+    <row r="42" spans="1:6" ht="30">
       <c r="A42" s="86">
         <v>0.8</v>
       </c>
@@ -15733,7 +15776,7 @@
       </c>
       <c r="F42" s="86"/>
     </row>
-    <row r="43" spans="1:6" ht="43.2">
+    <row r="43" spans="1:6" ht="45">
       <c r="A43" s="86">
         <v>0.8</v>
       </c>
@@ -15751,7 +15794,7 @@
       </c>
       <c r="F43" s="86"/>
     </row>
-    <row r="44" spans="1:6" ht="28.8">
+    <row r="44" spans="1:6" ht="30">
       <c r="A44" s="86">
         <v>0.8</v>
       </c>
@@ -15769,7 +15812,7 @@
       </c>
       <c r="F44" s="86"/>
     </row>
-    <row r="45" spans="1:6" ht="144">
+    <row r="45" spans="1:6" ht="165">
       <c r="A45" s="86">
         <v>0.8</v>
       </c>
@@ -15787,7 +15830,7 @@
       </c>
       <c r="F45" s="86"/>
     </row>
-    <row r="46" spans="1:6" ht="28.8">
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="86">
         <v>0.8</v>
       </c>
@@ -15805,7 +15848,7 @@
       </c>
       <c r="F46" s="86"/>
     </row>
-    <row r="47" spans="1:6" ht="100.8">
+    <row r="47" spans="1:6" ht="135">
       <c r="A47" s="86">
         <v>0.8</v>
       </c>
@@ -15823,7 +15866,7 @@
       </c>
       <c r="F47" s="86"/>
     </row>
-    <row r="48" spans="1:6" ht="28.8">
+    <row r="48" spans="1:6" ht="30">
       <c r="A48" s="86">
         <v>0.9</v>
       </c>
@@ -15841,7 +15884,7 @@
       </c>
       <c r="F48" s="86"/>
     </row>
-    <row r="49" spans="1:6" ht="100.8">
+    <row r="49" spans="1:6" ht="120">
       <c r="A49" s="86">
         <v>0.9</v>
       </c>
@@ -15859,7 +15902,7 @@
       </c>
       <c r="F49" s="86"/>
     </row>
-    <row r="50" spans="1:6" ht="57.6">
+    <row r="50" spans="1:6" ht="60">
       <c r="A50" s="86">
         <v>0.9</v>
       </c>
@@ -15877,7 +15920,7 @@
       </c>
       <c r="F50" s="86"/>
     </row>
-    <row r="51" spans="1:6" ht="28.8">
+    <row r="51" spans="1:6" ht="45">
       <c r="A51" s="86">
         <v>0.9</v>
       </c>
@@ -15895,8 +15938,8 @@
       </c>
       <c r="F51" s="86"/>
     </row>
-    <row r="52" spans="1:6" ht="43.2">
-      <c r="A52" s="450">
+    <row r="52" spans="1:6" ht="60">
+      <c r="A52" s="448">
         <v>0.1</v>
       </c>
       <c r="B52" s="239">
@@ -15913,8 +15956,8 @@
       </c>
       <c r="F52" s="86"/>
     </row>
-    <row r="53" spans="1:6" ht="115.2">
-      <c r="A53" s="450">
+    <row r="53" spans="1:6" ht="150">
+      <c r="A53" s="448">
         <v>0.1</v>
       </c>
       <c r="B53" s="239">
@@ -15931,8 +15974,8 @@
       </c>
       <c r="F53" s="86"/>
     </row>
-    <row r="54" spans="1:6" ht="28.8">
-      <c r="A54" s="450">
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="448">
         <v>0.1</v>
       </c>
       <c r="B54" s="239">
@@ -15949,8 +15992,8 @@
       </c>
       <c r="F54" s="86"/>
     </row>
-    <row r="55" spans="1:6" ht="216">
-      <c r="A55" s="450">
+    <row r="55" spans="1:6" ht="270">
+      <c r="A55" s="448">
         <v>0.1</v>
       </c>
       <c r="B55" s="239">
@@ -15967,8 +16010,8 @@
       </c>
       <c r="F55" s="86"/>
     </row>
-    <row r="56" spans="1:6" ht="216">
-      <c r="A56" s="450">
+    <row r="56" spans="1:6" ht="255">
+      <c r="A56" s="448">
         <v>0.1</v>
       </c>
       <c r="B56" s="239">
@@ -15985,8 +16028,8 @@
       </c>
       <c r="F56" s="86"/>
     </row>
-    <row r="57" spans="1:6" ht="43.2">
-      <c r="A57" s="450">
+    <row r="57" spans="1:6" ht="45">
+      <c r="A57" s="448">
         <v>0.1</v>
       </c>
       <c r="B57" s="239">
@@ -16003,8 +16046,8 @@
       </c>
       <c r="F57" s="86"/>
     </row>
-    <row r="58" spans="1:6" ht="86.4">
-      <c r="A58" s="450">
+    <row r="58" spans="1:6" ht="105">
+      <c r="A58" s="448">
         <v>0.1</v>
       </c>
       <c r="B58" s="239">
@@ -16021,8 +16064,8 @@
       </c>
       <c r="F58" s="86"/>
     </row>
-    <row r="59" spans="1:6" ht="28.8">
-      <c r="A59" s="450">
+    <row r="59" spans="1:6" ht="30">
+      <c r="A59" s="448">
         <v>0.1</v>
       </c>
       <c r="B59" s="239">
@@ -16039,8 +16082,8 @@
       </c>
       <c r="F59" s="86"/>
     </row>
-    <row r="60" spans="1:6" ht="28.8">
-      <c r="A60" s="450">
+    <row r="60" spans="1:6" ht="30">
+      <c r="A60" s="448">
         <v>0.1</v>
       </c>
       <c r="B60" s="239">
@@ -16057,8 +16100,8 @@
       </c>
       <c r="F60" s="86"/>
     </row>
-    <row r="61" spans="1:6" ht="115.2">
-      <c r="A61" s="450">
+    <row r="61" spans="1:6" ht="120">
+      <c r="A61" s="448">
         <v>0.1</v>
       </c>
       <c r="B61" s="239">
@@ -16075,8 +16118,8 @@
       </c>
       <c r="F61" s="86"/>
     </row>
-    <row r="62" spans="1:6" ht="86.4">
-      <c r="A62" s="450">
+    <row r="62" spans="1:6" ht="105">
+      <c r="A62" s="448">
         <v>0.1</v>
       </c>
       <c r="B62" s="239">
@@ -16094,7 +16137,7 @@
       <c r="F62" s="86"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="450">
+      <c r="A63" s="448">
         <v>0.1</v>
       </c>
       <c r="B63" s="239">
@@ -16111,8 +16154,8 @@
       </c>
       <c r="F63" s="86"/>
     </row>
-    <row r="64" spans="1:6" ht="28.8">
-      <c r="A64" s="450">
+    <row r="64" spans="1:6" ht="30">
+      <c r="A64" s="448">
         <v>0.1</v>
       </c>
       <c r="B64" s="239">
@@ -16130,20 +16173,20 @@
       <c r="F64" s="86"/>
     </row>
     <row r="65" spans="1:6" ht="21">
-      <c r="A65" s="511" t="s">
+      <c r="A65" s="507" t="s">
         <v>2059</v>
       </c>
-      <c r="B65" s="511"/>
-      <c r="C65" s="511"/>
-      <c r="D65" s="511"/>
-      <c r="E65" s="511"/>
+      <c r="B65" s="507"/>
+      <c r="C65" s="507"/>
+      <c r="D65" s="507"/>
+      <c r="E65" s="507"/>
       <c r="F65" s="86"/>
     </row>
-    <row r="66" spans="1:6" ht="28.8">
-      <c r="A66" s="470">
+    <row r="66" spans="1:6" ht="30">
+      <c r="A66" s="466">
         <v>0.11</v>
       </c>
-      <c r="B66" s="471">
+      <c r="B66" s="467">
         <v>45372</v>
       </c>
       <c r="C66" t="s">
@@ -16156,11 +16199,11 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="28.8">
-      <c r="A67" s="470">
+    <row r="67" spans="1:6" ht="45">
+      <c r="A67" s="466">
         <v>0.11</v>
       </c>
-      <c r="B67" s="471">
+      <c r="B67" s="467">
         <v>45372</v>
       </c>
       <c r="C67" t="s">
@@ -16173,11 +16216,11 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="28.8">
-      <c r="A68" s="470">
+    <row r="68" spans="1:6" ht="30">
+      <c r="A68" s="466">
         <v>0.11</v>
       </c>
-      <c r="B68" s="471">
+      <c r="B68" s="467">
         <v>45372</v>
       </c>
       <c r="C68" t="s">
@@ -16190,11 +16233,11 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="28.8">
-      <c r="A69" s="470">
+    <row r="69" spans="1:6" ht="30">
+      <c r="A69" s="466">
         <v>0.11</v>
       </c>
-      <c r="B69" s="471">
+      <c r="B69" s="467">
         <v>45372</v>
       </c>
       <c r="C69" t="s">
@@ -16217,6 +16260,320 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AEF824-EC99-4442-A58E-3D1DFF7D54BA}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="48.75" thickTop="1" thickBot="1">
+      <c r="A1" s="197" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B1" s="198" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C1" s="198" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D1" s="198" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A2" s="513" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" s="200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="211">
+        <v>18</v>
+      </c>
+      <c r="D2" s="201" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E2" s="202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F2" s="201" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A3" s="513"/>
+      <c r="B3" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="212" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D3" s="203" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E3" s="204" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F3" s="203" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A4" s="513"/>
+      <c r="B4" s="200" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C4" s="212" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D4" s="205" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E4" s="204" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F4" s="203" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A5" s="206"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="208"/>
+      <c r="F5" s="207"/>
+    </row>
+    <row r="6" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="513" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B6" s="200" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="211">
+        <v>18</v>
+      </c>
+      <c r="D6" s="201" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E6" s="202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F6" s="203" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="513"/>
+      <c r="B7" s="200" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C7" s="212">
+        <v>18</v>
+      </c>
+      <c r="D7" s="203" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E7" s="202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F7" s="203" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A8" s="513"/>
+      <c r="B8" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="212" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D8" s="203" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E8" s="204" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F8" s="203" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A9" s="513"/>
+      <c r="B9" s="200" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C9" s="212" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D9" s="205" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E9" s="204" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F9" s="203" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A10" s="206"/>
+      <c r="B10" s="207"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="207"/>
+    </row>
+    <row r="11" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A11" s="513" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B11" s="200" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C11" s="212" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D11" s="201" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E11" s="204" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F11" s="203" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A12" s="513"/>
+      <c r="B12" s="200" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C12" s="212" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D12" s="203" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E12" s="204" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F12" s="203" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A13" s="513"/>
+      <c r="B13" s="200" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C13" s="212" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D13" s="203" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E13" s="204" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F13" s="203" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A14" s="513"/>
+      <c r="B14" s="200" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="212">
+        <v>18</v>
+      </c>
+      <c r="D14" s="203" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E14" s="202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F14" s="203" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A15" s="513"/>
+      <c r="B15" s="200" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C15" s="205">
+        <v>18</v>
+      </c>
+      <c r="D15" s="205" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E15" s="202" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F15" s="203" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A16" s="206"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="213"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="207"/>
+    </row>
+    <row r="17" spans="1:6" ht="33" thickTop="1" thickBot="1">
+      <c r="A17" s="199" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B17" s="200" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C17" s="210">
+        <v>0</v>
+      </c>
+      <c r="D17" s="210" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E17" s="210" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F17" s="210" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A11:A15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B80752-EE36-4D69-A55B-D96A4E2989DB}">
   <dimension ref="A1:J52"/>
   <sheetViews>
@@ -16227,16 +16584,16 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8">
+    <row r="1" spans="1:5" ht="45">
       <c r="A1" s="191" t="s">
         <v>1530</v>
       </c>
@@ -16589,7 +16946,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="28.8">
+    <row r="35" spans="1:10" ht="30">
       <c r="A35" s="86" t="s">
         <v>967</v>
       </c>
@@ -16772,7 +17129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F70413F-D206-420E-867F-6C935C82E8FE}">
   <dimension ref="A1:JJ17"/>
   <sheetViews>
@@ -16780,45 +17137,45 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="28" width="3.5546875" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="3.5703125" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="52" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="37" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="32" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="44" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="52" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="52" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:270" s="24" customFormat="1" ht="24">
@@ -17151,7 +17508,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="5" spans="1:270" ht="86.4">
+    <row r="5" spans="1:270" ht="120">
       <c r="A5" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17256,7 +17613,7 @@
       <c r="AZ5" s="86"/>
       <c r="BA5" s="86"/>
     </row>
-    <row r="6" spans="1:270" s="75" customFormat="1" ht="72">
+    <row r="6" spans="1:270" s="75" customFormat="1" ht="75">
       <c r="A6" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17339,7 +17696,7 @@
       <c r="AZ6" s="185"/>
       <c r="BA6" s="185"/>
     </row>
-    <row r="7" spans="1:270" ht="43.2">
+    <row r="7" spans="1:270" ht="45">
       <c r="A7" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17444,7 +17801,7 @@
       <c r="AZ7" s="86"/>
       <c r="BA7" s="86"/>
     </row>
-    <row r="8" spans="1:270" ht="43.2">
+    <row r="8" spans="1:270" ht="45">
       <c r="A8" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17549,7 +17906,7 @@
       <c r="AZ8" s="86"/>
       <c r="BA8" s="86"/>
     </row>
-    <row r="9" spans="1:270" s="173" customFormat="1" ht="43.2">
+    <row r="9" spans="1:270" s="173" customFormat="1" ht="45">
       <c r="A9" s="186" t="s">
         <v>1557</v>
       </c>
@@ -17885,7 +18242,7 @@
       <c r="JI9"/>
       <c r="JJ9"/>
     </row>
-    <row r="10" spans="1:270" s="173" customFormat="1" ht="86.4">
+    <row r="10" spans="1:270" s="173" customFormat="1" ht="90">
       <c r="A10" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18221,7 +18578,7 @@
       <c r="JI10"/>
       <c r="JJ10"/>
     </row>
-    <row r="11" spans="1:270" s="173" customFormat="1" ht="57.6">
+    <row r="11" spans="1:270" s="173" customFormat="1" ht="90">
       <c r="A11" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18557,7 +18914,7 @@
       <c r="JI11"/>
       <c r="JJ11"/>
     </row>
-    <row r="12" spans="1:270" s="173" customFormat="1" ht="43.2">
+    <row r="12" spans="1:270" s="173" customFormat="1" ht="45">
       <c r="A12" s="186" t="s">
         <v>1557</v>
       </c>
@@ -18891,7 +19248,7 @@
       <c r="JI12"/>
       <c r="JJ12"/>
     </row>
-    <row r="13" spans="1:270" s="173" customFormat="1" ht="86.4">
+    <row r="13" spans="1:270" s="173" customFormat="1" ht="90">
       <c r="A13" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19231,7 +19588,7 @@
       <c r="JI13"/>
       <c r="JJ13"/>
     </row>
-    <row r="14" spans="1:270" s="173" customFormat="1" ht="129.6">
+    <row r="14" spans="1:270" s="173" customFormat="1" ht="135">
       <c r="A14" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19571,7 +19928,7 @@
       <c r="JI14"/>
       <c r="JJ14"/>
     </row>
-    <row r="15" spans="1:270" s="173" customFormat="1" ht="43.2">
+    <row r="15" spans="1:270" s="173" customFormat="1" ht="45">
       <c r="A15" s="186" t="s">
         <v>1557</v>
       </c>
@@ -19903,7 +20260,7 @@
       <c r="JI15"/>
       <c r="JJ15"/>
     </row>
-    <row r="16" spans="1:270" s="173" customFormat="1" ht="86.4">
+    <row r="16" spans="1:270" s="173" customFormat="1" ht="120">
       <c r="A16" s="186" t="s">
         <v>1557</v>
       </c>
@@ -20237,7 +20594,7 @@
       <c r="JI16"/>
       <c r="JJ16"/>
     </row>
-    <row r="17" spans="1:270" s="173" customFormat="1" ht="86.4">
+    <row r="17" spans="1:270" s="173" customFormat="1" ht="120">
       <c r="A17" s="186" t="s">
         <v>1557</v>
       </c>
@@ -20648,7 +21005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAFC8964-6A4D-4D80-9558-28C0D72BA2B2}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -20659,15 +21016,15 @@
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="48.109375" customWidth="1"/>
-    <col min="3" max="3" width="85.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="85.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -20696,7 +21053,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8">
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
         <v>1607</v>
       </c>
@@ -20762,7 +21119,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2">
+    <row r="9" spans="1:8" ht="45">
       <c r="A9" t="s">
         <v>1611</v>
       </c>
@@ -20795,7 +21152,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.8">
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" t="s">
         <v>1616</v>
       </c>
@@ -20806,7 +21163,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.8">
+    <row r="13" spans="1:8" ht="30">
       <c r="A13" t="s">
         <v>1616</v>
       </c>
@@ -20817,7 +21174,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.8">
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -20828,7 +21185,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.8">
+    <row r="15" spans="1:8" ht="30">
       <c r="B15" s="81" t="s">
         <v>1621</v>
       </c>
@@ -20836,7 +21193,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="57.6">
+    <row r="16" spans="1:8" ht="60">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -20847,7 +21204,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="100.8">
+    <row r="17" spans="1:3" ht="105">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -20905,7 +21262,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="26.4">
+    <row r="23" spans="1:3" ht="24.75">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -20925,7 +21282,7 @@
       </c>
       <c r="C24" s="160"/>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>89</v>
       </c>
@@ -20934,7 +21291,7 @@
       </c>
       <c r="C25" s="160"/>
     </row>
-    <row r="26" spans="1:3" ht="28.8">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -20954,7 +21311,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="30">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -20972,7 +21329,7 @@
       </c>
       <c r="C29" s="160"/>
     </row>
-    <row r="30" spans="1:3" ht="28.8">
+    <row r="30" spans="1:3" ht="30">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -20981,7 +21338,7 @@
       </c>
       <c r="C30" s="160"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="30">
       <c r="A31" t="s">
         <v>89</v>
       </c>
@@ -20990,7 +21347,7 @@
       </c>
       <c r="C31" s="160"/>
     </row>
-    <row r="32" spans="1:3" ht="28.8">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -21017,7 +21374,7 @@
       </c>
       <c r="C34" s="160"/>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -21026,7 +21383,7 @@
       </c>
       <c r="C35" s="160"/>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>1630</v>
       </c>
@@ -21037,7 +21394,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" t="s">
         <v>1630</v>
       </c>
@@ -21048,7 +21405,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>1630</v>
       </c>
@@ -21059,7 +21416,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>1630</v>
       </c>
@@ -21070,7 +21427,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>1632</v>
       </c>
@@ -21081,7 +21438,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>1632</v>
       </c>
@@ -21125,7 +21482,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="43.2">
+    <row r="45" spans="1:3" ht="45">
       <c r="A45" t="s">
         <v>1638</v>
       </c>
@@ -21136,7 +21493,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8">
+    <row r="46" spans="1:3" ht="30">
       <c r="A46" t="s">
         <v>1638</v>
       </c>
@@ -21163,7 +21520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBE31B8-C4B8-42FA-9D07-E22491A568A2}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -21174,20 +21531,20 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.5546875" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="24" customFormat="1" ht="48">
@@ -21245,7 +21602,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="28.8">
+    <row r="3" spans="1:14" ht="30">
       <c r="A3" t="s">
         <v>982</v>
       </c>
@@ -21300,7 +21657,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.8">
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -21322,7 +21679,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="28.8">
+    <row r="10" spans="1:14" ht="30">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -21357,7 +21714,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="43.2">
+    <row r="13" spans="1:14" ht="45">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -21369,7 +21726,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="43.2">
+    <row r="14" spans="1:14" ht="45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -21381,7 +21738,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.2">
+    <row r="15" spans="1:14" ht="45">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -21393,7 +21750,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="43.2">
+    <row r="16" spans="1:14" ht="45">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -21504,7 +21861,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="28.8">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>1692</v>
       </c>
@@ -21563,7 +21920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E899B311-4FCF-46B9-8F89-50401035D8E1}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -21571,22 +21928,22 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A1" s="518" t="s">
+      <c r="A1" s="514" t="s">
         <v>1697</v>
       </c>
-      <c r="B1" s="519"/>
-      <c r="C1" s="519"/>
-      <c r="D1" s="519"/>
-      <c r="E1" s="519"/>
-      <c r="F1" s="519"/>
-      <c r="G1" s="520"/>
+      <c r="B1" s="515"/>
+      <c r="C1" s="515"/>
+      <c r="D1" s="515"/>
+      <c r="E1" s="515"/>
+      <c r="F1" s="515"/>
+      <c r="G1" s="516"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="70" t="s">
@@ -21813,7 +22170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026075D-C8F4-4004-8C6A-810C1959EB6D}">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -21821,7 +22178,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="69" t="s">
@@ -21851,7 +22208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BCF3EF-0590-4C47-BBD0-C308E349FBCF}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
@@ -21859,9 +22216,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.9" customHeight="1">
+    <row r="1" spans="1:53" s="24" customFormat="1" ht="54.95" customHeight="1">
       <c r="A1" s="25"/>
       <c r="B1" s="26"/>
       <c r="C1" s="27" t="s">
@@ -22334,12 +22691,12 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.5546875" customWidth="1"/>
-    <col min="2" max="2" width="44.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="56.1" customHeight="1">
@@ -22435,14 +22792,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21">
@@ -22452,17 +22809,17 @@
       <c r="B1" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="512" t="s">
+      <c r="C1" s="508" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="513"/>
-      <c r="E1" s="513"/>
-      <c r="F1" s="513"/>
-      <c r="G1" s="513"/>
-      <c r="H1" s="513"/>
-      <c r="I1" s="513"/>
-      <c r="J1" s="513"/>
-      <c r="K1" s="513"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="509"/>
+      <c r="G1" s="509"/>
+      <c r="H1" s="509"/>
+      <c r="I1" s="509"/>
+      <c r="J1" s="509"/>
+      <c r="K1" s="509"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="153" t="s">
@@ -22685,7 +23042,7 @@
       </c>
       <c r="K8" s="154"/>
     </row>
-    <row r="9" spans="1:12" ht="28.8">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -22719,7 +23076,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.2">
+    <row r="10" spans="1:12" ht="60">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -22948,100 +23305,100 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="261" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="261" customWidth="1"/>
     <col min="2" max="2" width="22" style="261" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" style="261" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="261" customWidth="1"/>
     <col min="4" max="4" width="14" style="261" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="261" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="261" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" style="261" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="261" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="261" customWidth="1"/>
-    <col min="10" max="10" width="16.109375" style="262" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="261" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" style="261" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" style="261" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="261" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="261" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" style="261" customWidth="1"/>
-    <col min="17" max="18" width="14.44140625" style="262" customWidth="1"/>
-    <col min="19" max="19" width="25.5546875" style="261" customWidth="1"/>
-    <col min="20" max="20" width="21.5546875" style="261" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="261" customWidth="1"/>
-    <col min="22" max="22" width="19.5546875" style="261" customWidth="1"/>
-    <col min="23" max="26" width="14.44140625" style="261" customWidth="1"/>
-    <col min="27" max="27" width="19.109375" style="261" customWidth="1"/>
-    <col min="28" max="28" width="17.44140625" style="261" customWidth="1"/>
-    <col min="29" max="29" width="19.5546875" style="261" customWidth="1"/>
-    <col min="30" max="30" width="19.44140625" style="261" customWidth="1"/>
-    <col min="31" max="31" width="17.5546875" style="261" customWidth="1"/>
-    <col min="32" max="32" width="17.5546875" style="368" customWidth="1"/>
-    <col min="33" max="33" width="22.44140625" style="261" customWidth="1"/>
-    <col min="34" max="34" width="12.5546875" style="261" customWidth="1"/>
-    <col min="35" max="35" width="18.44140625" style="262" customWidth="1"/>
-    <col min="36" max="36" width="20.88671875" style="261" customWidth="1"/>
-    <col min="37" max="37" width="12.88671875" style="261" customWidth="1"/>
-    <col min="38" max="38" width="13.5546875" style="261" customWidth="1"/>
-    <col min="39" max="39" width="16.5546875" style="261" customWidth="1"/>
-    <col min="40" max="40" width="13.88671875" style="261" customWidth="1"/>
-    <col min="41" max="41" width="19.109375" style="261" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" style="261" customWidth="1"/>
-    <col min="43" max="43" width="14.5546875" style="261" customWidth="1"/>
-    <col min="44" max="44" width="14.88671875" style="261" customWidth="1"/>
-    <col min="45" max="45" width="15.44140625" style="261" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="261" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="261" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="261" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="261" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="261" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" style="262" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="261" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="261" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="261" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="261" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="261" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="261" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="262" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" style="261" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" style="261" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="261" customWidth="1"/>
+    <col min="22" max="22" width="19.5703125" style="261" customWidth="1"/>
+    <col min="23" max="26" width="14.42578125" style="261" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" style="261" customWidth="1"/>
+    <col min="28" max="28" width="17.42578125" style="261" customWidth="1"/>
+    <col min="29" max="29" width="19.5703125" style="261" customWidth="1"/>
+    <col min="30" max="30" width="19.42578125" style="261" customWidth="1"/>
+    <col min="31" max="31" width="17.5703125" style="261" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" style="368" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="261" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" style="261" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="262" customWidth="1"/>
+    <col min="36" max="36" width="20.85546875" style="261" customWidth="1"/>
+    <col min="37" max="37" width="12.85546875" style="261" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" style="261" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="261" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" style="261" customWidth="1"/>
+    <col min="41" max="41" width="19.140625" style="261" customWidth="1"/>
+    <col min="42" max="42" width="16.5703125" style="261" customWidth="1"/>
+    <col min="43" max="43" width="14.5703125" style="261" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" style="261" customWidth="1"/>
+    <col min="45" max="45" width="15.42578125" style="261" customWidth="1"/>
     <col min="46" max="46" width="16" style="261" customWidth="1"/>
-    <col min="47" max="47" width="16.5546875" style="261" customWidth="1"/>
-    <col min="48" max="48" width="12.44140625" style="261" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" style="261"/>
-    <col min="50" max="50" width="17.5546875" style="358" customWidth="1"/>
-    <col min="51" max="51" width="16.44140625" style="358" customWidth="1"/>
-    <col min="52" max="52" width="15.33203125" style="380" customWidth="1"/>
-    <col min="53" max="53" width="16.5546875" style="358" customWidth="1"/>
+    <col min="47" max="47" width="16.5703125" style="261" customWidth="1"/>
+    <col min="48" max="48" width="12.42578125" style="261" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" style="261"/>
+    <col min="50" max="50" width="17.5703125" style="358" customWidth="1"/>
+    <col min="51" max="51" width="16.42578125" style="358" customWidth="1"/>
+    <col min="52" max="52" width="15.28515625" style="380" customWidth="1"/>
+    <col min="53" max="53" width="16.5703125" style="358" customWidth="1"/>
     <col min="54" max="54" width="16" style="358" customWidth="1"/>
     <col min="55" max="55" width="18" style="358" customWidth="1"/>
-    <col min="56" max="56" width="14.44140625" style="362" customWidth="1"/>
-    <col min="57" max="57" width="16.5546875" style="358" customWidth="1"/>
-    <col min="58" max="58" width="13.109375" style="358" customWidth="1"/>
-    <col min="59" max="59" width="14.44140625" style="362" customWidth="1"/>
-    <col min="60" max="60" width="13.5546875" style="362" customWidth="1"/>
-    <col min="61" max="62" width="11.88671875" style="362" customWidth="1"/>
-    <col min="63" max="63" width="12.44140625" style="362" customWidth="1"/>
-    <col min="64" max="64" width="12.88671875" style="362" customWidth="1"/>
-    <col min="65" max="66" width="13.44140625" style="362" customWidth="1"/>
-    <col min="67" max="16384" width="8.6640625" style="261"/>
+    <col min="56" max="56" width="14.42578125" style="362" customWidth="1"/>
+    <col min="57" max="57" width="16.5703125" style="358" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" style="358" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" style="362" customWidth="1"/>
+    <col min="60" max="60" width="13.5703125" style="362" customWidth="1"/>
+    <col min="61" max="62" width="11.85546875" style="362" customWidth="1"/>
+    <col min="63" max="63" width="12.42578125" style="362" customWidth="1"/>
+    <col min="64" max="64" width="12.85546875" style="362" customWidth="1"/>
+    <col min="65" max="66" width="13.42578125" style="362" customWidth="1"/>
+    <col min="67" max="16384" width="8.7109375" style="261"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="22.8">
+    <row r="1" spans="1:74" ht="23.25">
       <c r="A1" s="260"/>
-      <c r="B1" s="514" t="s">
+      <c r="B1" s="510" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="514"/>
-      <c r="D1" s="514"/>
-      <c r="E1" s="514"/>
-      <c r="F1" s="514"/>
-      <c r="G1" s="514"/>
-      <c r="H1" s="514"/>
-      <c r="I1" s="514"/>
-      <c r="J1" s="514"/>
-      <c r="K1" s="514"/>
-      <c r="L1" s="514"/>
-      <c r="M1" s="514"/>
-      <c r="AY1" s="515" t="s">
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+      <c r="E1" s="510"/>
+      <c r="F1" s="510"/>
+      <c r="G1" s="510"/>
+      <c r="H1" s="510"/>
+      <c r="I1" s="510"/>
+      <c r="J1" s="510"/>
+      <c r="K1" s="510"/>
+      <c r="L1" s="510"/>
+      <c r="M1" s="510"/>
+      <c r="AY1" s="511" t="s">
         <v>1836</v>
       </c>
-      <c r="AZ1" s="515"/>
-      <c r="BA1" s="515"/>
-      <c r="BB1" s="515"/>
-      <c r="BC1" s="515"/>
-      <c r="BD1" s="515"/>
-      <c r="BE1" s="515"/>
-      <c r="BF1" s="515"/>
-      <c r="BG1" s="515"/>
-    </row>
-    <row r="2" spans="1:74" s="349" customFormat="1" ht="26.4">
+      <c r="AZ1" s="511"/>
+      <c r="BA1" s="511"/>
+      <c r="BB1" s="511"/>
+      <c r="BC1" s="511"/>
+      <c r="BD1" s="511"/>
+      <c r="BE1" s="511"/>
+      <c r="BF1" s="511"/>
+      <c r="BG1" s="511"/>
+    </row>
+    <row r="2" spans="1:74" s="349" customFormat="1" ht="25.5">
       <c r="C2" s="350" t="s">
         <v>94</v>
       </c>
@@ -23191,7 +23548,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:74" s="356" customFormat="1" ht="66">
+    <row r="3" spans="1:74" s="356" customFormat="1" ht="63.75">
       <c r="A3" s="356" t="s">
         <v>1752</v>
       </c>
@@ -23565,7 +23922,7 @@
       <c r="BS4" s="355"/>
       <c r="BT4" s="355"/>
     </row>
-    <row r="5" spans="1:74" s="266" customFormat="1" ht="216">
+    <row r="5" spans="1:74" s="266" customFormat="1" ht="240">
       <c r="A5" s="263" t="s">
         <v>163</v>
       </c>
@@ -23632,19 +23989,19 @@
       <c r="V5" s="265" t="s">
         <v>1837</v>
       </c>
-      <c r="W5" s="451" t="s">
+      <c r="W5" s="449" t="s">
         <v>2063</v>
       </c>
-      <c r="X5" s="451" t="s">
+      <c r="X5" s="449" t="s">
         <v>2063</v>
       </c>
-      <c r="Y5" s="451" t="s">
+      <c r="Y5" s="449" t="s">
         <v>2063</v>
       </c>
-      <c r="Z5" s="451" t="s">
+      <c r="Z5" s="449" t="s">
         <v>2063</v>
       </c>
-      <c r="AA5" s="451" t="s">
+      <c r="AA5" s="449" t="s">
         <v>2063</v>
       </c>
       <c r="AB5" s="265" t="s">
@@ -23769,169 +24126,169 @@
       <c r="BS5" s="265"/>
       <c r="BT5" s="265"/>
     </row>
-    <row r="6" spans="1:74" s="459" customFormat="1" ht="41.4" customHeight="1">
-      <c r="A6" s="452" t="s">
+    <row r="6" spans="1:74" s="457" customFormat="1" ht="41.45" customHeight="1">
+      <c r="A6" s="450" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="453"/>
-      <c r="C6" s="454">
+      <c r="B6" s="451"/>
+      <c r="C6" s="452">
         <v>3</v>
       </c>
-      <c r="D6" s="454">
+      <c r="D6" s="452">
         <v>3</v>
       </c>
-      <c r="E6" s="454">
+      <c r="E6" s="452">
         <v>3</v>
       </c>
-      <c r="F6" s="454">
+      <c r="F6" s="452">
         <v>3</v>
       </c>
-      <c r="G6" s="454">
+      <c r="G6" s="452">
         <v>3</v>
       </c>
-      <c r="H6" s="454">
+      <c r="H6" s="452">
         <v>3</v>
       </c>
-      <c r="I6" s="454">
+      <c r="I6" s="452">
         <v>3</v>
       </c>
-      <c r="J6" s="454">
+      <c r="J6" s="452">
         <v>3</v>
       </c>
-      <c r="K6" s="454">
+      <c r="K6" s="452">
         <v>3</v>
       </c>
-      <c r="L6" s="454">
+      <c r="L6" s="452">
         <v>3</v>
       </c>
-      <c r="M6" s="454">
+      <c r="M6" s="452">
         <v>3</v>
       </c>
-      <c r="N6" s="454">
+      <c r="N6" s="452">
         <v>3</v>
       </c>
-      <c r="O6" s="454">
+      <c r="O6" s="452">
         <v>3</v>
       </c>
-      <c r="P6" s="454">
+      <c r="P6" s="452">
         <v>3</v>
       </c>
-      <c r="Q6" s="454">
+      <c r="Q6" s="452">
         <v>1</v>
       </c>
-      <c r="R6" s="455">
+      <c r="R6" s="453">
         <v>2</v>
       </c>
-      <c r="S6" s="455">
+      <c r="S6" s="453">
         <v>4</v>
       </c>
-      <c r="T6" s="455">
+      <c r="T6" s="453">
         <v>5</v>
       </c>
-      <c r="U6" s="455">
+      <c r="U6" s="453">
         <v>6</v>
       </c>
-      <c r="V6" s="455">
+      <c r="V6" s="453">
         <v>7</v>
       </c>
-      <c r="W6" s="455">
+      <c r="W6" s="453">
         <v>3</v>
       </c>
-      <c r="X6" s="455">
+      <c r="X6" s="453">
         <v>2</v>
       </c>
-      <c r="Y6" s="455">
+      <c r="Y6" s="453">
         <v>1</v>
       </c>
-      <c r="Z6" s="455">
+      <c r="Z6" s="453">
         <v>4</v>
       </c>
-      <c r="AA6" s="455">
+      <c r="AA6" s="453">
         <v>5</v>
       </c>
-      <c r="AB6" s="455">
+      <c r="AB6" s="453">
         <v>8</v>
       </c>
-      <c r="AC6" s="455">
+      <c r="AC6" s="453">
         <v>9</v>
       </c>
-      <c r="AD6" s="455">
+      <c r="AD6" s="453">
         <v>10</v>
       </c>
-      <c r="AE6" s="455">
+      <c r="AE6" s="453">
         <v>11</v>
       </c>
-      <c r="AF6" s="456"/>
-      <c r="AG6" s="455">
+      <c r="AF6" s="454"/>
+      <c r="AG6" s="453">
         <v>12</v>
       </c>
       <c r="AH6" s="409"/>
       <c r="AI6" s="409"/>
-      <c r="AJ6" s="455">
+      <c r="AJ6" s="453">
         <v>13</v>
       </c>
-      <c r="AK6" s="455" t="s">
+      <c r="AK6" s="453" t="s">
         <v>1892</v>
       </c>
-      <c r="AL6" s="455" t="s">
+      <c r="AL6" s="453" t="s">
         <v>1896</v>
       </c>
-      <c r="AM6" s="455">
+      <c r="AM6" s="453">
         <v>14</v>
       </c>
-      <c r="AN6" s="455" t="s">
+      <c r="AN6" s="453" t="s">
         <v>1895</v>
       </c>
-      <c r="AO6" s="455">
+      <c r="AO6" s="453">
         <v>15</v>
       </c>
-      <c r="AP6" s="455" t="s">
+      <c r="AP6" s="453" t="s">
         <v>1893</v>
       </c>
-      <c r="AQ6" s="455" t="s">
+      <c r="AQ6" s="453" t="s">
         <v>1894</v>
       </c>
-      <c r="AR6" s="455" t="s">
+      <c r="AR6" s="453" t="s">
         <v>1897</v>
       </c>
-      <c r="AS6" s="455" t="s">
+      <c r="AS6" s="453" t="s">
         <v>1898</v>
       </c>
-      <c r="AT6" s="455" t="s">
+      <c r="AT6" s="453" t="s">
         <v>1891</v>
       </c>
-      <c r="AU6" s="455">
+      <c r="AU6" s="453">
         <v>4</v>
       </c>
-      <c r="AV6" s="455">
+      <c r="AV6" s="453">
         <v>5</v>
       </c>
-      <c r="AW6" s="455"/>
-      <c r="AX6" s="456"/>
-      <c r="AY6" s="456"/>
-      <c r="AZ6" s="457"/>
-      <c r="BA6" s="456"/>
-      <c r="BB6" s="456"/>
-      <c r="BC6" s="456"/>
-      <c r="BD6" s="456"/>
-      <c r="BE6" s="456"/>
-      <c r="BF6" s="456"/>
-      <c r="BG6" s="456"/>
-      <c r="BH6" s="456"/>
-      <c r="BI6" s="456"/>
-      <c r="BJ6" s="456"/>
-      <c r="BK6" s="456"/>
-      <c r="BL6" s="456"/>
-      <c r="BM6" s="456"/>
-      <c r="BN6" s="456"/>
-      <c r="BO6" s="455"/>
-      <c r="BP6" s="455"/>
-      <c r="BQ6" s="455"/>
-      <c r="BR6" s="455"/>
-      <c r="BS6" s="455"/>
-      <c r="BT6" s="455"/>
-      <c r="BU6" s="458"/>
-      <c r="BV6" s="458"/>
+      <c r="AW6" s="453"/>
+      <c r="AX6" s="454"/>
+      <c r="AY6" s="454"/>
+      <c r="AZ6" s="455"/>
+      <c r="BA6" s="454"/>
+      <c r="BB6" s="454"/>
+      <c r="BC6" s="454"/>
+      <c r="BD6" s="454"/>
+      <c r="BE6" s="454"/>
+      <c r="BF6" s="454"/>
+      <c r="BG6" s="454"/>
+      <c r="BH6" s="454"/>
+      <c r="BI6" s="454"/>
+      <c r="BJ6" s="454"/>
+      <c r="BK6" s="454"/>
+      <c r="BL6" s="454"/>
+      <c r="BM6" s="454"/>
+      <c r="BN6" s="454"/>
+      <c r="BO6" s="453"/>
+      <c r="BP6" s="453"/>
+      <c r="BQ6" s="453"/>
+      <c r="BR6" s="453"/>
+      <c r="BS6" s="453"/>
+      <c r="BT6" s="453"/>
+      <c r="BU6" s="456"/>
+      <c r="BV6" s="456"/>
     </row>
     <row r="7" spans="1:74" s="268" customFormat="1" ht="33.75" customHeight="1">
       <c r="A7" s="267" t="s">
@@ -24042,7 +24399,7 @@
       <c r="BM7" s="364"/>
       <c r="BN7" s="364"/>
     </row>
-    <row r="8" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="8" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A8" s="267" t="s">
         <v>232</v>
       </c>
@@ -24150,7 +24507,7 @@
       <c r="BM8" s="364"/>
       <c r="BN8" s="364"/>
     </row>
-    <row r="9" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="9" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A9" s="267" t="s">
         <v>235</v>
       </c>
@@ -24256,7 +24613,7 @@
       <c r="BM9" s="364"/>
       <c r="BN9" s="364"/>
     </row>
-    <row r="10" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="10" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A10" s="267" t="s">
         <v>236</v>
       </c>
@@ -24365,7 +24722,7 @@
       <c r="BM10" s="364"/>
       <c r="BN10" s="364"/>
     </row>
-    <row r="11" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="11" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A11" s="267" t="s">
         <v>238</v>
       </c>
@@ -24475,7 +24832,7 @@
       <c r="BM11" s="364"/>
       <c r="BN11" s="364"/>
     </row>
-    <row r="12" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="12" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A12" s="267" t="s">
         <v>246</v>
       </c>
@@ -24584,7 +24941,7 @@
       <c r="BM12" s="364"/>
       <c r="BN12" s="364"/>
     </row>
-    <row r="13" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="13" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A13" s="267" t="s">
         <v>247</v>
       </c>
@@ -24690,7 +25047,7 @@
       <c r="BM13" s="364"/>
       <c r="BN13" s="364"/>
     </row>
-    <row r="14" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="14" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A14" s="267" t="s">
         <v>248</v>
       </c>
@@ -24800,7 +25157,7 @@
       <c r="BM14" s="364"/>
       <c r="BN14" s="364"/>
     </row>
-    <row r="15" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="15" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A15" s="267" t="s">
         <v>251</v>
       </c>
@@ -24903,7 +25260,7 @@
       <c r="BM15" s="364"/>
       <c r="BN15" s="364"/>
     </row>
-    <row r="16" spans="1:74" s="268" customFormat="1" ht="32.4">
+    <row r="16" spans="1:74" s="268" customFormat="1" ht="33.75">
       <c r="A16" s="267" t="s">
         <v>252</v>
       </c>
@@ -25012,7 +25369,7 @@
       <c r="BM16" s="364"/>
       <c r="BN16" s="364"/>
     </row>
-    <row r="17" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="17" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A17" s="267" t="s">
         <v>254</v>
       </c>
@@ -25121,7 +25478,7 @@
       <c r="BM17" s="364"/>
       <c r="BN17" s="364"/>
     </row>
-    <row r="18" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="18" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A18" s="267" t="s">
         <v>256</v>
       </c>
@@ -25227,7 +25584,7 @@
       <c r="BM18" s="364"/>
       <c r="BN18" s="364"/>
     </row>
-    <row r="19" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="19" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A19" s="267" t="s">
         <v>257</v>
       </c>
@@ -25334,7 +25691,7 @@
       <c r="BM19" s="364"/>
       <c r="BN19" s="364"/>
     </row>
-    <row r="20" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="20" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A20" s="267" t="s">
         <v>259</v>
       </c>
@@ -25444,7 +25801,7 @@
       <c r="BM20" s="364"/>
       <c r="BN20" s="364"/>
     </row>
-    <row r="21" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="21" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A21" s="267" t="s">
         <v>262</v>
       </c>
@@ -25550,7 +25907,7 @@
       <c r="BM21" s="364"/>
       <c r="BN21" s="364"/>
     </row>
-    <row r="22" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="22" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A22" s="267" t="s">
         <v>264</v>
       </c>
@@ -25659,7 +26016,7 @@
       <c r="BM22" s="364"/>
       <c r="BN22" s="364"/>
     </row>
-    <row r="23" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="23" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A23" s="267" t="s">
         <v>265</v>
       </c>
@@ -25766,7 +26123,7 @@
       <c r="BM23" s="364"/>
       <c r="BN23" s="364"/>
     </row>
-    <row r="24" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="24" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A24" s="267" t="s">
         <v>267</v>
       </c>
@@ -25875,7 +26232,7 @@
       <c r="BM24" s="364"/>
       <c r="BN24" s="364"/>
     </row>
-    <row r="25" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="25" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A25" s="267" t="s">
         <v>268</v>
       </c>
@@ -25981,7 +26338,7 @@
       <c r="BM25" s="364"/>
       <c r="BN25" s="364"/>
     </row>
-    <row r="26" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="26" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A26" s="267" t="s">
         <v>269</v>
       </c>
@@ -26090,7 +26447,7 @@
       <c r="BM26" s="364"/>
       <c r="BN26" s="364"/>
     </row>
-    <row r="27" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="27" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A27" s="267" t="s">
         <v>270</v>
       </c>
@@ -26197,7 +26554,7 @@
       <c r="BM27" s="364"/>
       <c r="BN27" s="364"/>
     </row>
-    <row r="28" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="28" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A28" s="267" t="s">
         <v>273</v>
       </c>
@@ -26302,7 +26659,7 @@
       </c>
       <c r="BN28" s="364"/>
     </row>
-    <row r="29" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="29" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A29" s="267" t="s">
         <v>277</v>
       </c>
@@ -26405,7 +26762,7 @@
       <c r="BM29" s="364"/>
       <c r="BN29" s="364"/>
     </row>
-    <row r="30" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="30" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A30" s="267" t="s">
         <v>278</v>
       </c>
@@ -26512,7 +26869,7 @@
       <c r="BM30" s="364"/>
       <c r="BN30" s="364"/>
     </row>
-    <row r="31" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="31" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A31" s="267" t="s">
         <v>280</v>
       </c>
@@ -26618,7 +26975,7 @@
       <c r="BM31" s="364"/>
       <c r="BN31" s="364"/>
     </row>
-    <row r="32" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="32" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A32" s="267" t="s">
         <v>281</v>
       </c>
@@ -26727,7 +27084,7 @@
       <c r="BM32" s="364"/>
       <c r="BN32" s="364"/>
     </row>
-    <row r="33" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="33" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A33" s="267" t="s">
         <v>282</v>
       </c>
@@ -26835,7 +27192,7 @@
       <c r="BM33" s="364"/>
       <c r="BN33" s="364"/>
     </row>
-    <row r="34" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="34" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A34" s="267" t="s">
         <v>285</v>
       </c>
@@ -26941,7 +27298,7 @@
       <c r="BM34" s="364"/>
       <c r="BN34" s="364"/>
     </row>
-    <row r="35" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="35" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A35" s="267" t="s">
         <v>286</v>
       </c>
@@ -27048,7 +27405,7 @@
       <c r="BM35" s="364"/>
       <c r="BN35" s="364"/>
     </row>
-    <row r="36" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="36" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A36" s="267" t="s">
         <v>288</v>
       </c>
@@ -27157,7 +27514,7 @@
       <c r="BM36" s="364"/>
       <c r="BN36" s="364"/>
     </row>
-    <row r="37" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="37" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A37" s="267" t="s">
         <v>290</v>
       </c>
@@ -27267,7 +27624,7 @@
       <c r="BM37" s="364"/>
       <c r="BN37" s="364"/>
     </row>
-    <row r="38" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="38" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A38" s="267" t="s">
         <v>293</v>
       </c>
@@ -27373,7 +27730,7 @@
       <c r="BM38" s="364"/>
       <c r="BN38" s="364"/>
     </row>
-    <row r="39" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="39" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A39" s="267" t="s">
         <v>294</v>
       </c>
@@ -27491,7 +27848,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="40" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A40" s="267" t="s">
         <v>307</v>
       </c>
@@ -27597,7 +27954,7 @@
       <c r="BM40" s="364"/>
       <c r="BN40" s="364"/>
     </row>
-    <row r="41" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="41" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A41" s="267" t="s">
         <v>308</v>
       </c>
@@ -27699,7 +28056,7 @@
       <c r="BM41" s="364"/>
       <c r="BN41" s="364"/>
     </row>
-    <row r="42" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="42" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A42" s="267" t="s">
         <v>309</v>
       </c>
@@ -27808,7 +28165,7 @@
       <c r="BM42" s="364"/>
       <c r="BN42" s="364"/>
     </row>
-    <row r="43" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="43" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A43" s="267" t="s">
         <v>310</v>
       </c>
@@ -27917,7 +28274,7 @@
       <c r="BM43" s="364"/>
       <c r="BN43" s="364"/>
     </row>
-    <row r="44" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="44" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A44" s="267" t="s">
         <v>312</v>
       </c>
@@ -28023,7 +28380,7 @@
       <c r="BM44" s="364"/>
       <c r="BN44" s="364"/>
     </row>
-    <row r="45" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="45" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A45" s="267" t="s">
         <v>313</v>
       </c>
@@ -28129,7 +28486,7 @@
       <c r="BM45" s="364"/>
       <c r="BN45" s="364"/>
     </row>
-    <row r="46" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="46" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A46" s="267" t="s">
         <v>315</v>
       </c>
@@ -28238,7 +28595,7 @@
       <c r="BM46" s="364"/>
       <c r="BN46" s="364"/>
     </row>
-    <row r="47" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="47" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A47" s="267" t="s">
         <v>316</v>
       </c>
@@ -28343,7 +28700,7 @@
       <c r="BM47" s="364"/>
       <c r="BN47" s="364"/>
     </row>
-    <row r="48" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="48" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A48" s="267" t="s">
         <v>317</v>
       </c>
@@ -28449,7 +28806,7 @@
       <c r="BM48" s="364"/>
       <c r="BN48" s="364"/>
     </row>
-    <row r="49" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="49" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A49" s="267" t="s">
         <v>318</v>
       </c>
@@ -28555,7 +28912,7 @@
       <c r="BM49" s="364"/>
       <c r="BN49" s="364"/>
     </row>
-    <row r="50" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="50" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A50" s="267" t="s">
         <v>320</v>
       </c>
@@ -28664,7 +29021,7 @@
       <c r="BM50" s="364"/>
       <c r="BN50" s="364"/>
     </row>
-    <row r="51" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="51" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A51" s="267" t="s">
         <v>321</v>
       </c>
@@ -28773,7 +29130,7 @@
       <c r="BM51" s="364"/>
       <c r="BN51" s="364"/>
     </row>
-    <row r="52" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="52" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A52" s="267" t="s">
         <v>322</v>
       </c>
@@ -28878,7 +29235,7 @@
       <c r="BM52" s="364"/>
       <c r="BN52" s="364"/>
     </row>
-    <row r="53" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="53" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A53" s="267" t="s">
         <v>73</v>
       </c>
@@ -28987,7 +29344,7 @@
       <c r="BM53" s="364"/>
       <c r="BN53" s="364"/>
     </row>
-    <row r="54" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="54" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A54" s="267" t="s">
         <v>323</v>
       </c>
@@ -29094,7 +29451,7 @@
       <c r="BM54" s="364"/>
       <c r="BN54" s="364"/>
     </row>
-    <row r="55" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="55" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A55" s="267" t="s">
         <v>325</v>
       </c>
@@ -29203,7 +29560,7 @@
       <c r="BM55" s="364"/>
       <c r="BN55" s="364"/>
     </row>
-    <row r="56" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="56" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A56" s="267" t="s">
         <v>326</v>
       </c>
@@ -29312,7 +29669,7 @@
       <c r="BM56" s="364"/>
       <c r="BN56" s="364"/>
     </row>
-    <row r="57" spans="1:66" s="268" customFormat="1" ht="32.4">
+    <row r="57" spans="1:66" s="268" customFormat="1" ht="33.75">
       <c r="A57" s="267" t="s">
         <v>327</v>
       </c>
@@ -29825,11 +30182,11 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29917,10 +30274,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29932,59 +30289,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F3D7E-D500-4249-A60B-8D4257022104}">
   <dimension ref="A1:AZ205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="AI98" sqref="AI98"/>
+      <selection pane="bottomLeft" activeCell="AH98" sqref="AH98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="104.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="37.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="16" width="22.6640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="25.33203125" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="18.109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="25.88671875" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" customWidth="1"/>
-    <col min="22" max="25" width="19.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="37.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="25.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="25.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="25" width="19.140625" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
-    <col min="27" max="27" width="8.5546875" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" customWidth="1"/>
     <col min="28" max="28" width="3" customWidth="1"/>
-    <col min="29" max="30" width="3.33203125" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.109375" customWidth="1"/>
-    <col min="33" max="33" width="25.109375" customWidth="1"/>
-    <col min="34" max="34" width="48.33203125" style="463" customWidth="1"/>
-    <col min="35" max="35" width="83.88671875" customWidth="1"/>
-    <col min="36" max="36" width="8.33203125" customWidth="1"/>
-    <col min="37" max="37" width="8.109375" customWidth="1"/>
-    <col min="38" max="38" width="9.109375" customWidth="1"/>
-    <col min="39" max="40" width="8.44140625" customWidth="1"/>
-    <col min="41" max="41" width="9.44140625" customWidth="1"/>
-    <col min="42" max="42" width="40.88671875" customWidth="1"/>
-    <col min="43" max="43" width="7.5546875" customWidth="1"/>
-    <col min="44" max="44" width="5.109375" customWidth="1"/>
-    <col min="45" max="45" width="24.5546875" customWidth="1"/>
-    <col min="46" max="47" width="7.5546875" customWidth="1"/>
-    <col min="48" max="48" width="23.88671875" customWidth="1"/>
-    <col min="49" max="49" width="18.44140625" customWidth="1"/>
-    <col min="50" max="50" width="41.88671875" customWidth="1"/>
-    <col min="51" max="51" width="65.109375" style="196" customWidth="1"/>
+    <col min="29" max="30" width="3.28515625" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" customWidth="1"/>
+    <col min="33" max="33" width="25.140625" customWidth="1"/>
+    <col min="34" max="34" width="48.28515625" style="460" customWidth="1"/>
+    <col min="35" max="35" width="83.85546875" customWidth="1"/>
+    <col min="36" max="36" width="8.28515625" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" customWidth="1"/>
+    <col min="39" max="40" width="8.42578125" customWidth="1"/>
+    <col min="41" max="41" width="9.42578125" customWidth="1"/>
+    <col min="42" max="42" width="40.85546875" customWidth="1"/>
+    <col min="43" max="43" width="7.5703125" customWidth="1"/>
+    <col min="44" max="44" width="5.140625" customWidth="1"/>
+    <col min="45" max="45" width="24.5703125" customWidth="1"/>
+    <col min="46" max="47" width="7.5703125" customWidth="1"/>
+    <col min="48" max="48" width="23.85546875" customWidth="1"/>
+    <col min="49" max="49" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="41.85546875" customWidth="1"/>
+    <col min="51" max="51" width="65.140625" style="196" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="33" customHeight="1">
@@ -30138,12 +30495,12 @@
       <c r="AX1" s="410" t="s">
         <v>372</v>
       </c>
-      <c r="AY1" s="449" t="s">
+      <c r="AY1" s="447" t="s">
         <v>2055</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="104.25" customHeight="1">
-      <c r="A2" s="485" t="s">
+      <c r="A2" s="481" t="s">
         <v>2102</v>
       </c>
       <c r="B2" s="140">
@@ -30164,13 +30521,13 @@
       <c r="G2" s="142" t="s">
         <v>374</v>
       </c>
-      <c r="H2" s="486" t="s">
+      <c r="H2" s="482" t="s">
         <v>2104</v>
       </c>
       <c r="I2" s="142" t="s">
         <v>375</v>
       </c>
-      <c r="J2" s="487" t="s">
+      <c r="J2" s="483" t="s">
         <v>2105</v>
       </c>
       <c r="K2" s="142" t="s">
@@ -30208,7 +30565,7 @@
       <c r="W2" s="375"/>
       <c r="X2" s="375"/>
       <c r="Y2" s="375"/>
-      <c r="Z2" s="488" t="s">
+      <c r="Z2" s="484" t="s">
         <v>2108</v>
       </c>
       <c r="AA2" s="141" t="s">
@@ -30226,12 +30583,12 @@
       <c r="AE2" s="143" t="s">
         <v>2109</v>
       </c>
-      <c r="AF2" s="489"/>
-      <c r="AG2" s="489"/>
-      <c r="AH2" s="490" t="s">
+      <c r="AF2" s="485"/>
+      <c r="AG2" s="485"/>
+      <c r="AH2" s="486" t="s">
         <v>2110</v>
       </c>
-      <c r="AI2" s="491" t="s">
+      <c r="AI2" s="487" t="s">
         <v>2111</v>
       </c>
       <c r="AJ2" s="145"/>
@@ -30353,11 +30710,11 @@
       </c>
       <c r="AF3" s="82"/>
       <c r="AG3" s="82"/>
-      <c r="AH3" s="492" t="s">
+      <c r="AH3" s="488" t="s">
+        <v>2405</v>
+      </c>
+      <c r="AI3" s="222" t="s">
         <v>2238</v>
-      </c>
-      <c r="AI3" s="222" t="s">
-        <v>2239</v>
       </c>
       <c r="AJ3" s="84"/>
       <c r="AK3" s="79" t="s">
@@ -30376,12 +30733,12 @@
         <v>381</v>
       </c>
       <c r="AP3" s="78" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="AQ3" s="81"/>
       <c r="AR3" s="86"/>
       <c r="AS3" s="81" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="AT3" s="86"/>
       <c r="AU3" s="81"/>
@@ -30505,7 +30862,7 @@
       <c r="AP4" s="78" t="s">
         <v>2122</v>
       </c>
-      <c r="AQ4" s="493"/>
+      <c r="AQ4" s="489"/>
       <c r="AR4" s="86"/>
       <c r="AS4" s="81" t="s">
         <v>382</v>
@@ -30640,7 +30997,7 @@
       <c r="AV5" s="81"/>
       <c r="AW5" s="86"/>
       <c r="AX5" s="412"/>
-      <c r="AY5" s="494" t="s">
+      <c r="AY5" s="490" t="s">
         <v>2131</v>
       </c>
     </row>
@@ -31138,13 +31495,13 @@
       <c r="A10" s="220" t="s">
         <v>2102</v>
       </c>
-      <c r="B10" s="495">
+      <c r="B10" s="491">
         <v>9</v>
       </c>
       <c r="C10" s="109" t="s">
         <v>2158</v>
       </c>
-      <c r="D10" s="496" t="s">
+      <c r="D10" s="492" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="109" t="s">
@@ -31323,33 +31680,33 @@
       <c r="W11" s="376"/>
       <c r="X11" s="376"/>
       <c r="Y11" s="376"/>
-      <c r="Z11" s="497"/>
+      <c r="Z11" s="493"/>
       <c r="AA11" s="78" t="s">
         <v>405</v>
       </c>
-      <c r="AB11" s="498" t="s">
+      <c r="AB11" s="494" t="s">
         <v>378</v>
       </c>
-      <c r="AC11" s="498" t="s">
+      <c r="AC11" s="494" t="s">
         <v>380</v>
       </c>
-      <c r="AD11" s="498" t="s">
+      <c r="AD11" s="494" t="s">
         <v>380</v>
       </c>
       <c r="AE11" s="78" t="s">
         <v>2175</v>
       </c>
-      <c r="AF11" s="499"/>
+      <c r="AF11" s="495"/>
       <c r="AG11" s="82" t="s">
         <v>1961</v>
       </c>
-      <c r="AH11" s="500" t="s">
+      <c r="AH11" s="496" t="s">
         <v>2176</v>
       </c>
-      <c r="AI11" s="464" t="s">
-        <v>2362</v>
-      </c>
-      <c r="AJ11" s="501"/>
+      <c r="AI11" s="496" t="s">
+        <v>2409</v>
+      </c>
+      <c r="AJ11" s="497"/>
       <c r="AK11" s="90">
         <v>10</v>
       </c>
@@ -31375,7 +31732,7 @@
       </c>
       <c r="AT11" s="86"/>
       <c r="AU11" s="81"/>
-      <c r="AV11" s="498" t="s">
+      <c r="AV11" s="494" t="s">
         <v>2178</v>
       </c>
       <c r="AW11" s="86" t="s">
@@ -31392,13 +31749,13 @@
       <c r="A12" s="220" t="s">
         <v>2102</v>
       </c>
-      <c r="B12" s="495">
+      <c r="B12" s="491">
         <v>11</v>
       </c>
       <c r="C12" s="109" t="s">
         <v>411</v>
       </c>
-      <c r="D12" s="496" t="s">
+      <c r="D12" s="492" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="109" t="s">
@@ -31472,13 +31829,13 @@
       <c r="AG12" s="111" t="s">
         <v>2163</v>
       </c>
-      <c r="AH12" s="492" t="s">
+      <c r="AH12" s="488" t="s">
         <v>2182</v>
       </c>
       <c r="AI12" s="151" t="s">
         <v>2183</v>
       </c>
-      <c r="AJ12" s="501"/>
+      <c r="AJ12" s="497"/>
       <c r="AK12" s="90">
         <v>10</v>
       </c>
@@ -31494,7 +31851,7 @@
       <c r="AO12" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="AP12" s="502" t="s">
+      <c r="AP12" s="498" t="s">
         <v>2184</v>
       </c>
       <c r="AQ12" s="81"/>
@@ -31596,7 +31953,7 @@
         <v>1961</v>
       </c>
       <c r="AH13" s="346" t="s">
-        <v>2361</v>
+        <v>2392</v>
       </c>
       <c r="AI13" s="93" t="s">
         <v>2189</v>
@@ -31638,13 +31995,13 @@
       <c r="A14" s="220" t="s">
         <v>2102</v>
       </c>
-      <c r="B14" s="495">
+      <c r="B14" s="491">
         <v>13</v>
       </c>
       <c r="C14" s="109" t="s">
         <v>420</v>
       </c>
-      <c r="D14" s="496" t="s">
+      <c r="D14" s="492" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="109" t="s">
@@ -31718,11 +32075,11 @@
       <c r="AG14" s="82" t="s">
         <v>1961</v>
       </c>
-      <c r="AH14" s="461" t="s">
+      <c r="AH14" s="458" t="s">
         <v>2196</v>
       </c>
       <c r="AI14" s="222" t="s">
-        <v>2357</v>
+        <v>2393</v>
       </c>
       <c r="AJ14" s="84"/>
       <c r="AK14" s="79">
@@ -31971,7 +32328,7 @@
       <c r="AH16" s="346" t="s">
         <v>2209</v>
       </c>
-      <c r="AI16" s="422" t="s">
+      <c r="AI16" s="151" t="s">
         <v>2210</v>
       </c>
       <c r="AJ16" s="107"/>
@@ -32085,7 +32442,7 @@
       </c>
       <c r="AF17" s="280"/>
       <c r="AG17" s="280"/>
-      <c r="AH17" s="503" t="s">
+      <c r="AH17" s="499" t="s">
         <v>2212</v>
       </c>
       <c r="AI17" s="287" t="s">
@@ -32204,7 +32561,7 @@
       </c>
       <c r="AF18" s="280"/>
       <c r="AG18" s="280"/>
-      <c r="AH18" s="503" t="s">
+      <c r="AH18" s="499" t="s">
         <v>2215</v>
       </c>
       <c r="AI18" s="289" t="s">
@@ -32323,7 +32680,7 @@
       </c>
       <c r="AF19" s="280"/>
       <c r="AG19" s="280"/>
-      <c r="AH19" s="503" t="s">
+      <c r="AH19" s="499" t="s">
         <v>2218</v>
       </c>
       <c r="AI19" s="292" t="s">
@@ -32442,7 +32799,7 @@
       </c>
       <c r="AF20" s="280"/>
       <c r="AG20" s="280"/>
-      <c r="AH20" s="503" t="s">
+      <c r="AH20" s="499" t="s">
         <v>2221</v>
       </c>
       <c r="AI20" s="292" t="s">
@@ -32561,7 +32918,7 @@
       </c>
       <c r="AF21" s="280"/>
       <c r="AG21" s="280"/>
-      <c r="AH21" s="503" t="s">
+      <c r="AH21" s="499" t="s">
         <v>2224</v>
       </c>
       <c r="AI21" s="292" t="s">
@@ -32680,7 +33037,7 @@
       </c>
       <c r="AF22" s="280"/>
       <c r="AG22" s="280"/>
-      <c r="AH22" s="462" t="s">
+      <c r="AH22" s="459" t="s">
         <v>2227</v>
       </c>
       <c r="AI22" s="287" t="s">
@@ -32836,7 +33193,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="165.6">
+    <row r="24" spans="1:51" ht="165">
       <c r="A24" s="76" t="s">
         <v>2102</v>
       </c>
@@ -32925,7 +33282,7 @@
       <c r="AH24" s="346" t="s">
         <v>2092</v>
       </c>
-      <c r="AI24" s="426" t="s">
+      <c r="AI24" s="425" t="s">
         <v>1967</v>
       </c>
       <c r="AJ24" s="84"/>
@@ -32961,7 +33318,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="25" spans="1:51" ht="144">
+    <row r="25" spans="1:51" ht="165">
       <c r="A25" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33086,7 +33443,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="144">
+    <row r="26" spans="1:51" ht="165">
       <c r="A26" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33211,7 +33568,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="27" spans="1:51" ht="144">
+    <row r="27" spans="1:51" ht="165">
       <c r="A27" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33291,17 +33648,17 @@
         <v>380</v>
       </c>
       <c r="AE27" s="81" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="AF27" s="82"/>
       <c r="AG27" s="82" t="s">
         <v>1961</v>
       </c>
       <c r="AH27" s="346" t="s">
+        <v>2332</v>
+      </c>
+      <c r="AI27" s="426" t="s">
         <v>2333</v>
-      </c>
-      <c r="AI27" s="427" t="s">
-        <v>2334</v>
       </c>
       <c r="AJ27" s="79"/>
       <c r="AK27" s="79">
@@ -33336,7 +33693,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="86.4">
+    <row r="28" spans="1:51" ht="90">
       <c r="A28" s="76" t="s">
         <v>2102</v>
       </c>
@@ -33368,22 +33725,22 @@
         <v>392</v>
       </c>
       <c r="K28" s="107" t="s">
+        <v>2334</v>
+      </c>
+      <c r="L28" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M28" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N28" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O28" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P28" s="79" t="s">
         <v>2335</v>
-      </c>
-      <c r="L28" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M28" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N28" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O28" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P28" s="79" t="s">
-        <v>2336</v>
       </c>
       <c r="Q28" s="79" t="s">
         <v>375</v>
@@ -33416,17 +33773,17 @@
         <v>380</v>
       </c>
       <c r="AE28" s="113" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="AF28" s="82"/>
       <c r="AG28" s="82" t="s">
         <v>1961</v>
       </c>
       <c r="AH28" s="346" t="s">
+        <v>2337</v>
+      </c>
+      <c r="AI28" s="151" t="s">
         <v>2338</v>
-      </c>
-      <c r="AI28" s="151" t="s">
-        <v>2339</v>
       </c>
       <c r="AJ28" s="79"/>
       <c r="AK28" s="79">
@@ -33448,7 +33805,7 @@
       <c r="AQ28" s="81"/>
       <c r="AR28" s="86"/>
       <c r="AS28" s="81" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="AT28" s="86"/>
       <c r="AU28" s="81"/>
@@ -33491,7 +33848,7 @@
         <v>392</v>
       </c>
       <c r="K29" s="107" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="L29" s="107" t="s">
         <v>375</v>
@@ -33537,14 +33894,14 @@
         <v>387</v>
       </c>
       <c r="AE29" s="113" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="AF29" s="111"/>
       <c r="AG29" s="82" t="s">
         <v>1961</v>
       </c>
       <c r="AH29" s="346" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="AI29" s="108"/>
       <c r="AJ29" s="107"/>
@@ -33608,25 +33965,25 @@
         <v>392</v>
       </c>
       <c r="K30" s="79" t="s">
+        <v>2343</v>
+      </c>
+      <c r="L30" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M30" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N30" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O30" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P30" s="179" t="s">
         <v>2344</v>
       </c>
-      <c r="L30" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M30" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N30" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O30" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P30" s="179" t="s">
+      <c r="Q30" s="79" t="s">
         <v>2345</v>
-      </c>
-      <c r="Q30" s="79" t="s">
-        <v>2346</v>
       </c>
       <c r="R30" s="79" t="s">
         <v>375</v>
@@ -33656,17 +34013,17 @@
         <v>380</v>
       </c>
       <c r="AE30" s="81" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="AF30" s="82"/>
       <c r="AG30" s="82" t="s">
         <v>1961</v>
       </c>
       <c r="AH30" s="346" t="s">
+        <v>2347</v>
+      </c>
+      <c r="AI30" s="151" t="s">
         <v>2348</v>
-      </c>
-      <c r="AI30" s="151" t="s">
-        <v>2349</v>
       </c>
       <c r="AJ30" s="79"/>
       <c r="AK30" s="79" t="s">
@@ -33685,7 +34042,7 @@
         <v>381</v>
       </c>
       <c r="AP30" s="83" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="AQ30" s="81"/>
       <c r="AR30" s="86"/>
@@ -33781,17 +34138,17 @@
         <v>380</v>
       </c>
       <c r="AE31" s="81" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="AF31" s="82"/>
       <c r="AG31" s="82" t="s">
         <v>1961</v>
       </c>
       <c r="AH31" s="346" t="s">
+        <v>2351</v>
+      </c>
+      <c r="AI31" s="83" t="s">
         <v>2352</v>
-      </c>
-      <c r="AI31" s="83" t="s">
-        <v>2353</v>
       </c>
       <c r="AJ31" s="79"/>
       <c r="AK31" s="79" t="s">
@@ -33810,7 +34167,7 @@
         <v>381</v>
       </c>
       <c r="AP31" s="83" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="AQ31" s="81"/>
       <c r="AR31" s="86"/>
@@ -33852,11 +34209,11 @@
         <v>483</v>
       </c>
       <c r="I32" s="179" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="J32" s="179"/>
       <c r="K32" s="79" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="L32" s="79" t="s">
         <v>375</v>
@@ -33906,17 +34263,17 @@
         <v>380</v>
       </c>
       <c r="AE32" s="81" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="AF32" s="82"/>
       <c r="AG32" s="82" t="s">
+        <v>2244</v>
+      </c>
+      <c r="AH32" s="346" t="s">
         <v>2245</v>
       </c>
-      <c r="AH32" s="346" t="s">
+      <c r="AI32" s="83" t="s">
         <v>2246</v>
-      </c>
-      <c r="AI32" s="83" t="s">
-        <v>2247</v>
       </c>
       <c r="AJ32" s="84"/>
       <c r="AK32" s="79" t="s">
@@ -33935,7 +34292,7 @@
         <v>381</v>
       </c>
       <c r="AP32" s="83" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="AQ32" s="81"/>
       <c r="AR32" s="86"/>
@@ -33974,14 +34331,14 @@
         <v>374</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="I33" s="179" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="J33" s="179"/>
       <c r="K33" s="79" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="L33" s="79" t="s">
         <v>375</v>
@@ -34031,17 +34388,17 @@
         <v>380</v>
       </c>
       <c r="AE33" s="81" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="AF33" s="82"/>
       <c r="AG33" s="82" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="AH33" s="346" t="s">
+        <v>2251</v>
+      </c>
+      <c r="AI33" s="83" t="s">
         <v>2252</v>
-      </c>
-      <c r="AI33" s="83" t="s">
-        <v>2253</v>
       </c>
       <c r="AJ33" s="84"/>
       <c r="AK33" s="79" t="s">
@@ -34060,7 +34417,7 @@
         <v>381</v>
       </c>
       <c r="AP33" s="83" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="AQ33" s="81"/>
       <c r="AR33" s="86"/>
@@ -34106,22 +34463,22 @@
       </c>
       <c r="J34" s="79"/>
       <c r="K34" s="79" t="s">
+        <v>2254</v>
+      </c>
+      <c r="L34" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M34" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N34" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O34" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P34" s="79" t="s">
         <v>2255</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N34" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O34" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P34" s="79" t="s">
-        <v>2256</v>
       </c>
       <c r="Q34" s="79" t="s">
         <v>375</v>
@@ -34154,17 +34511,17 @@
         <v>458</v>
       </c>
       <c r="AE34" s="78" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="AF34" s="94"/>
       <c r="AG34" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH34" s="436" t="s">
+      <c r="AH34" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AI34" s="83" t="s">
         <v>2258</v>
-      </c>
-      <c r="AI34" s="83" t="s">
-        <v>2259</v>
       </c>
       <c r="AJ34" s="84"/>
       <c r="AK34" s="79" t="s">
@@ -34183,7 +34540,7 @@
         <v>381</v>
       </c>
       <c r="AP34" s="83" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="AQ34" s="81"/>
       <c r="AR34" s="86"/>
@@ -34229,7 +34586,7 @@
       </c>
       <c r="J35" s="79"/>
       <c r="K35" s="79" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="L35" s="79" t="s">
         <v>375</v>
@@ -34277,14 +34634,14 @@
         <v>458</v>
       </c>
       <c r="AE35" s="78" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="AF35" s="94"/>
       <c r="AG35" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH35" s="436" t="s">
-        <v>2258</v>
+      <c r="AH35" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI35" s="88" t="s">
         <v>398</v>
@@ -34306,7 +34663,7 @@
         <v>381</v>
       </c>
       <c r="AP35" s="83" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AQ35" s="81"/>
       <c r="AR35" s="86"/>
@@ -34352,22 +34709,22 @@
       </c>
       <c r="J36" s="79"/>
       <c r="K36" s="79" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L36" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M36" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N36" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O36" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P36" s="79" t="s">
         <v>2264</v>
-      </c>
-      <c r="L36" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M36" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N36" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O36" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P36" s="79" t="s">
-        <v>2265</v>
       </c>
       <c r="Q36" s="79" t="s">
         <v>375</v>
@@ -34400,17 +34757,17 @@
         <v>458</v>
       </c>
       <c r="AE36" s="78" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="AF36" s="94"/>
       <c r="AG36" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH36" s="436" t="s">
-        <v>2258</v>
+      <c r="AH36" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI36" s="83" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="AJ36" s="84"/>
       <c r="AK36" s="79" t="s">
@@ -34429,7 +34786,7 @@
         <v>381</v>
       </c>
       <c r="AP36" s="83" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="AQ36" s="81"/>
       <c r="AR36" s="86"/>
@@ -34471,11 +34828,11 @@
         <v>375</v>
       </c>
       <c r="I37" s="179" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="J37" s="90"/>
       <c r="K37" s="79" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="L37" s="79" t="s">
         <v>375</v>
@@ -34490,13 +34847,13 @@
         <v>404</v>
       </c>
       <c r="P37" s="90" t="s">
+        <v>2270</v>
+      </c>
+      <c r="Q37" s="90" t="s">
         <v>2271</v>
       </c>
-      <c r="Q37" s="90" t="s">
+      <c r="R37" s="256" t="s">
         <v>2272</v>
-      </c>
-      <c r="R37" s="256" t="s">
-        <v>2273</v>
       </c>
       <c r="S37" s="90" t="s">
         <v>375</v>
@@ -34523,17 +34880,17 @@
         <v>380</v>
       </c>
       <c r="AE37" s="78" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="AF37" s="94"/>
       <c r="AG37" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH37" s="461" t="s">
+      <c r="AH37" s="458" t="s">
+        <v>2274</v>
+      </c>
+      <c r="AI37" s="254" t="s">
         <v>2275</v>
-      </c>
-      <c r="AI37" s="254" t="s">
-        <v>2276</v>
       </c>
       <c r="AJ37" s="84"/>
       <c r="AK37" s="90">
@@ -34552,7 +34909,7 @@
         <v>381</v>
       </c>
       <c r="AP37" s="92" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="AQ37" s="81"/>
       <c r="AR37" s="86"/>
@@ -34598,26 +34955,26 @@
         <v>375</v>
       </c>
       <c r="I38" s="79" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="J38" s="79"/>
       <c r="K38" s="79" t="s">
+        <v>2278</v>
+      </c>
+      <c r="L38" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M38" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N38" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O38" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P38" s="90" t="s">
         <v>2279</v>
-      </c>
-      <c r="L38" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M38" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N38" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O38" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P38" s="90" t="s">
-        <v>2280</v>
       </c>
       <c r="Q38" s="90" t="s">
         <v>490</v>
@@ -34650,17 +35007,17 @@
         <v>458</v>
       </c>
       <c r="AE38" s="78" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="AF38" s="94"/>
       <c r="AG38" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH38" s="436" t="s">
-        <v>2258</v>
+      <c r="AH38" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI38" s="93" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="AJ38" s="84"/>
       <c r="AK38" s="79">
@@ -34679,7 +35036,7 @@
         <v>381</v>
       </c>
       <c r="AP38" s="93" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="AQ38" s="81"/>
       <c r="AR38" s="86"/>
@@ -34740,7 +35097,7 @@
         <v>375</v>
       </c>
       <c r="P39" s="90" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="Q39" s="79" t="s">
         <v>375</v>
@@ -34775,17 +35132,17 @@
         <v>458</v>
       </c>
       <c r="AE39" s="78" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="AF39" s="94"/>
       <c r="AG39" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH39" s="436" t="s">
-        <v>2258</v>
+      <c r="AH39" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI39" s="93" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="AJ39" s="84"/>
       <c r="AK39" s="79" t="s">
@@ -34804,7 +35161,7 @@
         <v>381</v>
       </c>
       <c r="AP39" s="93" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="AQ39" s="81"/>
       <c r="AR39" s="86"/>
@@ -34846,26 +35203,26 @@
         <v>375</v>
       </c>
       <c r="I40" s="107" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="J40" s="107"/>
       <c r="K40" s="107" t="s">
+        <v>2288</v>
+      </c>
+      <c r="L40" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="M40" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="N40" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="O40" s="107" t="s">
+        <v>375</v>
+      </c>
+      <c r="P40" s="107" t="s">
         <v>2289</v>
-      </c>
-      <c r="L40" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="M40" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="N40" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="O40" s="107" t="s">
-        <v>375</v>
-      </c>
-      <c r="P40" s="107" t="s">
-        <v>2290</v>
       </c>
       <c r="Q40" s="107" t="s">
         <v>375</v>
@@ -34900,17 +35257,17 @@
         <v>387</v>
       </c>
       <c r="AE40" s="113" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="AF40" s="111"/>
       <c r="AG40" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH40" s="436" t="s">
-        <v>2258</v>
+      <c r="AH40" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI40" s="151" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="AJ40" s="107"/>
       <c r="AK40" s="107" t="s">
@@ -34962,7 +35319,7 @@
         <v>374</v>
       </c>
       <c r="H41" s="107" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="I41" s="107" t="s">
         <v>488</v>
@@ -34984,7 +35341,7 @@
         <v>375</v>
       </c>
       <c r="P41" s="166" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="Q41" s="107" t="s">
         <v>375</v>
@@ -35004,7 +35361,7 @@
       <c r="X41" s="337"/>
       <c r="Y41" s="337"/>
       <c r="Z41" s="116" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="AA41" s="109" t="s">
         <v>377</v>
@@ -35019,17 +35376,17 @@
         <v>387</v>
       </c>
       <c r="AE41" s="109" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="AF41" s="221"/>
       <c r="AG41" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH41" s="436" t="s">
-        <v>2258</v>
+      <c r="AH41" s="434" t="s">
+        <v>2257</v>
       </c>
       <c r="AI41" s="222" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="AJ41" s="110"/>
       <c r="AK41" s="107" t="s">
@@ -35060,7 +35417,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="138">
+    <row r="42" spans="1:51" ht="135">
       <c r="A42" s="76" t="s">
         <v>2102</v>
       </c>
@@ -35068,7 +35425,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="78" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="D42" s="141" t="s">
         <v>26</v>
@@ -35090,7 +35447,7 @@
       </c>
       <c r="J42" s="79"/>
       <c r="K42" s="79" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="L42" s="79" t="s">
         <v>375</v>
@@ -35138,14 +35495,14 @@
         <v>458</v>
       </c>
       <c r="AE42" s="178" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="AF42" s="94"/>
       <c r="AG42" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH42" s="436" t="s">
-        <v>2301</v>
+      <c r="AH42" s="434" t="s">
+        <v>2300</v>
       </c>
       <c r="AI42" s="88" t="s">
         <v>398</v>
@@ -35167,7 +35524,7 @@
         <v>381</v>
       </c>
       <c r="AP42" s="83" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="AQ42" s="81"/>
       <c r="AR42" s="86"/>
@@ -35183,7 +35540,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="43" spans="1:51" s="193" customFormat="1" ht="124.2">
+    <row r="43" spans="1:51" s="193" customFormat="1" ht="108">
       <c r="A43" s="288" t="s">
         <v>2102</v>
       </c>
@@ -35209,7 +35566,7 @@
         <v>375</v>
       </c>
       <c r="I43" s="277" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J43" s="277" t="s">
         <v>429</v>
@@ -35263,12 +35620,12 @@
         <v>380</v>
       </c>
       <c r="AE43" s="276" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="AF43" s="294"/>
       <c r="AG43" s="280"/>
-      <c r="AH43" s="504" t="s">
-        <v>2304</v>
+      <c r="AH43" s="500" t="s">
+        <v>2303</v>
       </c>
       <c r="AI43" s="287" t="s">
         <v>398</v>
@@ -35328,28 +35685,28 @@
         <v>375</v>
       </c>
       <c r="I44" s="277" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J44" s="277" t="s">
         <v>429</v>
       </c>
       <c r="K44" s="277" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L44" s="277" t="s">
+        <v>375</v>
+      </c>
+      <c r="M44" s="277" t="s">
+        <v>375</v>
+      </c>
+      <c r="N44" s="277" t="s">
+        <v>375</v>
+      </c>
+      <c r="O44" s="277" t="s">
+        <v>375</v>
+      </c>
+      <c r="P44" s="290" t="s">
         <v>2305</v>
-      </c>
-      <c r="L44" s="277" t="s">
-        <v>375</v>
-      </c>
-      <c r="M44" s="277" t="s">
-        <v>375</v>
-      </c>
-      <c r="N44" s="277" t="s">
-        <v>375</v>
-      </c>
-      <c r="O44" s="277" t="s">
-        <v>375</v>
-      </c>
-      <c r="P44" s="290" t="s">
-        <v>2306</v>
       </c>
       <c r="Q44" s="277" t="s">
         <v>375</v>
@@ -35382,15 +35739,15 @@
         <v>380</v>
       </c>
       <c r="AE44" s="276" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="AF44" s="294"/>
       <c r="AG44" s="280"/>
-      <c r="AH44" s="504" t="s">
+      <c r="AH44" s="500" t="s">
+        <v>2307</v>
+      </c>
+      <c r="AI44" s="292" t="s">
         <v>2308</v>
-      </c>
-      <c r="AI44" s="292" t="s">
-        <v>2309</v>
       </c>
       <c r="AJ44" s="282"/>
       <c r="AK44" s="277" t="s">
@@ -35409,7 +35766,7 @@
         <v>381</v>
       </c>
       <c r="AP44" s="292" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="AQ44" s="279"/>
       <c r="AR44" s="195"/>
@@ -35449,7 +35806,7 @@
         <v>375</v>
       </c>
       <c r="I45" s="277" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J45" s="277" t="s">
         <v>429</v>
@@ -35503,15 +35860,15 @@
         <v>380</v>
       </c>
       <c r="AE45" s="276" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="AF45" s="294"/>
       <c r="AG45" s="280"/>
-      <c r="AH45" s="504" t="s">
+      <c r="AH45" s="500" t="s">
+        <v>2311</v>
+      </c>
+      <c r="AI45" s="292" t="s">
         <v>2312</v>
-      </c>
-      <c r="AI45" s="292" t="s">
-        <v>2313</v>
       </c>
       <c r="AJ45" s="282"/>
       <c r="AK45" s="277" t="s">
@@ -35530,7 +35887,7 @@
         <v>381</v>
       </c>
       <c r="AP45" s="292" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="AQ45" s="279"/>
       <c r="AR45" s="195"/>
@@ -35570,13 +35927,13 @@
         <v>440</v>
       </c>
       <c r="I46" s="277" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J46" s="277" t="s">
         <v>429</v>
       </c>
       <c r="K46" s="277" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="L46" s="277" t="s">
         <v>375</v>
@@ -35624,15 +35981,15 @@
         <v>380</v>
       </c>
       <c r="AE46" s="276" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="AF46" s="294"/>
       <c r="AG46" s="280"/>
-      <c r="AH46" s="504" t="s">
+      <c r="AH46" s="500" t="s">
+        <v>2316</v>
+      </c>
+      <c r="AI46" s="292" t="s">
         <v>2317</v>
-      </c>
-      <c r="AI46" s="292" t="s">
-        <v>2318</v>
       </c>
       <c r="AJ46" s="282"/>
       <c r="AK46" s="277" t="s">
@@ -35651,7 +36008,7 @@
         <v>381</v>
       </c>
       <c r="AP46" s="292" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="AQ46" s="279"/>
       <c r="AR46" s="195"/>
@@ -35691,7 +36048,7 @@
         <v>375</v>
       </c>
       <c r="I47" s="277" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="J47" s="277" t="s">
         <v>429</v>
@@ -35745,15 +36102,15 @@
         <v>380</v>
       </c>
       <c r="AE47" s="276" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="AF47" s="294"/>
       <c r="AG47" s="280"/>
-      <c r="AH47" s="504" t="s">
+      <c r="AH47" s="500" t="s">
+        <v>2320</v>
+      </c>
+      <c r="AI47" s="292" t="s">
         <v>2321</v>
-      </c>
-      <c r="AI47" s="292" t="s">
-        <v>2322</v>
       </c>
       <c r="AJ47" s="282"/>
       <c r="AK47" s="277">
@@ -35772,7 +36129,7 @@
         <v>381</v>
       </c>
       <c r="AP47" s="292" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="AQ47" s="279"/>
       <c r="AR47" s="195"/>
@@ -35866,12 +36223,12 @@
         <v>380</v>
       </c>
       <c r="AE48" s="276" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="AF48" s="294"/>
       <c r="AG48" s="280"/>
-      <c r="AH48" s="462" t="s">
-        <v>2325</v>
+      <c r="AH48" s="459" t="s">
+        <v>2324</v>
       </c>
       <c r="AI48" s="287" t="s">
         <v>398</v>
@@ -35905,7 +36262,7 @@
       <c r="AX48" s="414"/>
       <c r="AY48" s="420"/>
     </row>
-    <row r="49" spans="1:51" ht="179.4">
+    <row r="49" spans="1:51" ht="175.5">
       <c r="A49" s="76" t="s">
         <v>2102</v>
       </c>
@@ -35984,15 +36341,15 @@
       <c r="AD49" s="78" t="s">
         <v>458</v>
       </c>
-      <c r="AE49" s="505" t="s">
-        <v>2326</v>
+      <c r="AE49" s="501" t="s">
+        <v>2325</v>
       </c>
       <c r="AF49" s="82"/>
       <c r="AG49" s="82" t="s">
         <v>2093</v>
       </c>
-      <c r="AH49" s="506" t="s">
-        <v>2327</v>
+      <c r="AH49" s="502" t="s">
+        <v>2326</v>
       </c>
       <c r="AI49" s="88" t="s">
         <v>398</v>
@@ -36028,7 +36385,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="179.4">
+    <row r="50" spans="1:51" ht="162">
       <c r="A50" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36060,22 +36417,22 @@
         <v>499</v>
       </c>
       <c r="K50" s="79" t="s">
+        <v>2304</v>
+      </c>
+      <c r="L50" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="M50" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="N50" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" s="256" t="s">
         <v>2305</v>
-      </c>
-      <c r="L50" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="M50" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="N50" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="O50" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="P50" s="256" t="s">
-        <v>2306</v>
       </c>
       <c r="Q50" s="79" t="s">
         <v>375</v>
@@ -36108,17 +36465,17 @@
         <v>458</v>
       </c>
       <c r="AE50" s="78" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="AF50" s="94"/>
       <c r="AG50" s="82" t="s">
         <v>2093</v>
       </c>
-      <c r="AH50" s="507" t="s">
+      <c r="AH50" s="503" t="s">
+        <v>2328</v>
+      </c>
+      <c r="AI50" s="425" t="s">
         <v>2329</v>
-      </c>
-      <c r="AI50" s="426" t="s">
-        <v>2330</v>
       </c>
       <c r="AJ50" s="84"/>
       <c r="AK50" s="79" t="s">
@@ -36137,7 +36494,7 @@
         <v>381</v>
       </c>
       <c r="AP50" s="93" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="AQ50" s="81"/>
       <c r="AR50" s="86"/>
@@ -36153,7 +36510,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="179.4">
+    <row r="51" spans="1:51" ht="175.5">
       <c r="A51" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36239,7 +36596,7 @@
       <c r="AG51" s="82" t="s">
         <v>2093</v>
       </c>
-      <c r="AH51" s="460" t="s">
+      <c r="AH51" s="503" t="s">
         <v>2094</v>
       </c>
       <c r="AI51" s="93" t="s">
@@ -36278,7 +36635,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="165.6">
+    <row r="52" spans="1:51" ht="162">
       <c r="A52" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36364,7 +36721,7 @@
       <c r="AG52" s="82" t="s">
         <v>2093</v>
       </c>
-      <c r="AH52" s="460" t="s">
+      <c r="AH52" s="503" t="s">
         <v>2095</v>
       </c>
       <c r="AI52" s="93" t="s">
@@ -36403,7 +36760,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="179.4">
+    <row r="53" spans="1:51" ht="175.5">
       <c r="A53" s="76" t="s">
         <v>2102</v>
       </c>
@@ -36489,10 +36846,10 @@
       <c r="AG53" s="82" t="s">
         <v>2093</v>
       </c>
-      <c r="AH53" s="460" t="s">
+      <c r="AH53" s="503" t="s">
         <v>2096</v>
       </c>
-      <c r="AI53" s="427" t="s">
+      <c r="AI53" s="426" t="s">
         <v>1972</v>
       </c>
       <c r="AJ53" s="84"/>
@@ -36846,11 +37203,11 @@
       <c r="AG56" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH56" s="436" t="s">
+      <c r="AH56" s="434" t="s">
         <v>2067</v>
       </c>
       <c r="AI56" s="83" t="s">
-        <v>2358</v>
+        <v>2394</v>
       </c>
       <c r="AJ56" s="84"/>
       <c r="AK56" s="79" t="s">
@@ -36969,7 +37326,7 @@
       <c r="AG57" s="82" t="s">
         <v>2054</v>
       </c>
-      <c r="AH57" s="436" t="s">
+      <c r="AH57" s="434" t="s">
         <v>2068</v>
       </c>
       <c r="AI57" s="83" t="s">
@@ -37094,7 +37451,7 @@
       <c r="AG58" s="82" t="s">
         <v>2066</v>
       </c>
-      <c r="AH58" s="436" t="s">
+      <c r="AH58" s="434" t="s">
         <v>2230</v>
       </c>
       <c r="AI58" s="83" t="s">
@@ -37219,7 +37576,7 @@
       <c r="AG59" s="82" t="s">
         <v>2066</v>
       </c>
-      <c r="AH59" s="436" t="s">
+      <c r="AH59" s="434" t="s">
         <v>2231</v>
       </c>
       <c r="AI59" s="83" t="s">
@@ -37455,7 +37812,7 @@
       <c r="AG61" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH61" s="461" t="s">
+      <c r="AH61" s="458" t="s">
         <v>2083</v>
       </c>
       <c r="AI61" s="151" t="s">
@@ -37574,7 +37931,7 @@
       <c r="AG62" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH62" s="461" t="s">
+      <c r="AH62" s="458" t="s">
         <v>2070</v>
       </c>
       <c r="AI62" s="108" t="s">
@@ -37693,7 +38050,7 @@
       <c r="AG63" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH63" s="461" t="s">
+      <c r="AH63" s="458" t="s">
         <v>2071</v>
       </c>
       <c r="AI63" s="151" t="s">
@@ -37812,10 +38169,10 @@
       <c r="AG64" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH64" s="461" t="s">
+      <c r="AH64" s="458" t="s">
         <v>2084</v>
       </c>
-      <c r="AI64" s="435" t="s">
+      <c r="AI64" s="222" t="s">
         <v>2075</v>
       </c>
       <c r="AJ64" s="110"/>
@@ -37935,11 +38292,11 @@
       <c r="AG65" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH65" s="461" t="s">
+      <c r="AH65" s="458" t="s">
         <v>2072</v>
       </c>
       <c r="AI65" s="222" t="s">
-        <v>2359</v>
+        <v>2395</v>
       </c>
       <c r="AJ65" s="110"/>
       <c r="AK65" s="107">
@@ -38056,7 +38413,7 @@
       <c r="AG66" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH66" s="461" t="s">
+      <c r="AH66" s="458" t="s">
         <v>2070</v>
       </c>
       <c r="AI66" s="222" t="s">
@@ -38091,7 +38448,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="67" spans="1:51" s="115" customFormat="1" ht="110.4">
+    <row r="67" spans="1:51" s="115" customFormat="1" ht="108">
       <c r="A67" s="220" t="s">
         <v>2102</v>
       </c>
@@ -39000,11 +39357,11 @@
       <c r="AG74" s="111" t="s">
         <v>2065</v>
       </c>
-      <c r="AH74" s="461" t="s">
+      <c r="AH74" s="458" t="s">
         <v>2070</v>
       </c>
       <c r="AI74" s="151" t="s">
-        <v>2360</v>
+        <v>2396</v>
       </c>
       <c r="AJ74" s="110"/>
       <c r="AK74" s="107" t="s">
@@ -39064,7 +39421,7 @@
         <v>584</v>
       </c>
       <c r="J75" s="107" t="s">
-        <v>2363</v>
+        <v>2356</v>
       </c>
       <c r="K75" s="107"/>
       <c r="L75" s="107" t="s">
@@ -39113,13 +39470,13 @@
       </c>
       <c r="AF75" s="221"/>
       <c r="AG75" s="111" t="s">
-        <v>2392</v>
-      </c>
-      <c r="AH75" s="461" t="s">
-        <v>2388</v>
+        <v>2384</v>
+      </c>
+      <c r="AH75" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI75" s="151" t="s">
-        <v>2364</v>
+        <v>2357</v>
       </c>
       <c r="AJ75" s="110"/>
       <c r="AK75" s="107" t="s">
@@ -39220,17 +39577,17 @@
         <v>387</v>
       </c>
       <c r="AE76" s="109" t="s">
-        <v>2365</v>
+        <v>2358</v>
       </c>
       <c r="AF76" s="221"/>
       <c r="AG76" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH76" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH76" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI76" s="151" t="s">
-        <v>2366</v>
+        <v>2359</v>
       </c>
       <c r="AJ76" s="110"/>
       <c r="AK76" s="107" t="s">
@@ -39331,13 +39688,13 @@
       </c>
       <c r="AF77" s="221"/>
       <c r="AG77" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH77" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH77" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI77" s="108" t="s">
-        <v>2367</v>
+        <v>2360</v>
       </c>
       <c r="AJ77" s="110"/>
       <c r="AK77" s="107" t="s">
@@ -39436,10 +39793,10 @@
       </c>
       <c r="AF78" s="221"/>
       <c r="AG78" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH78" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH78" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI78" s="335"/>
       <c r="AJ78" s="110"/>
@@ -39541,13 +39898,13 @@
       </c>
       <c r="AF79" s="221"/>
       <c r="AG79" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH79" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH79" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI79" s="108" t="s">
-        <v>2368</v>
+        <v>2361</v>
       </c>
       <c r="AJ79" s="110"/>
       <c r="AK79" s="107" t="s">
@@ -39648,13 +40005,13 @@
       </c>
       <c r="AF80" s="221"/>
       <c r="AG80" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH80" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH80" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI80" s="108" t="s">
-        <v>2369</v>
+        <v>2362</v>
       </c>
       <c r="AJ80" s="110"/>
       <c r="AK80" s="166">
@@ -39691,7 +40048,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="109" t="s">
-        <v>2393</v>
+        <v>2385</v>
       </c>
       <c r="D81" s="141" t="s">
         <v>26</v>
@@ -39757,13 +40114,13 @@
       </c>
       <c r="AF81" s="221"/>
       <c r="AG81" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH81" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH81" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI81" s="108" t="s">
-        <v>2370</v>
+        <v>2363</v>
       </c>
       <c r="AJ81" s="110"/>
       <c r="AK81" s="166">
@@ -39864,13 +40221,13 @@
       </c>
       <c r="AF82" s="221"/>
       <c r="AG82" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH82" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH82" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI82" s="108" t="s">
-        <v>2371</v>
+        <v>2364</v>
       </c>
       <c r="AJ82" s="110"/>
       <c r="AK82" s="107">
@@ -39971,13 +40328,13 @@
       </c>
       <c r="AF83" s="221"/>
       <c r="AG83" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH83" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH83" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI83" s="108" t="s">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="AJ83" s="110"/>
       <c r="AK83" s="107" t="s">
@@ -40084,13 +40441,13 @@
       </c>
       <c r="AF84" s="221"/>
       <c r="AG84" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH84" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH84" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI84" s="151" t="s">
-        <v>2373</v>
+        <v>2366</v>
       </c>
       <c r="AJ84" s="110"/>
       <c r="AK84" s="107" t="s">
@@ -40193,13 +40550,13 @@
       </c>
       <c r="AF85" s="341"/>
       <c r="AG85" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH85" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH85" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI85" s="108" t="s">
-        <v>2374</v>
+        <v>2367</v>
       </c>
       <c r="AJ85" s="342"/>
       <c r="AK85" s="107" t="s">
@@ -40298,10 +40655,10 @@
       </c>
       <c r="AF86" s="109"/>
       <c r="AG86" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH86" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH86" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI86" s="108"/>
       <c r="AJ86" s="110"/>
@@ -40397,17 +40754,17 @@
         <v>387</v>
       </c>
       <c r="AE87" s="109" t="s">
-        <v>2394</v>
+        <v>2386</v>
       </c>
       <c r="AF87" s="109"/>
       <c r="AG87" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH87" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH87" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI87" s="108" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="AJ87" s="110"/>
       <c r="AK87" s="166">
@@ -40491,7 +40848,7 @@
       <c r="X88" s="337"/>
       <c r="Y88" s="337"/>
       <c r="Z88" s="116" t="s">
-        <v>2375</v>
+        <v>2368</v>
       </c>
       <c r="AA88" s="109" t="s">
         <v>377</v>
@@ -40510,13 +40867,13 @@
       </c>
       <c r="AF88" s="109"/>
       <c r="AG88" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH88" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH88" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI88" s="108" t="s">
-        <v>2376</v>
+        <v>2369</v>
       </c>
       <c r="AJ88" s="110"/>
       <c r="AK88" s="107" t="s">
@@ -40566,7 +40923,7 @@
         <v>374</v>
       </c>
       <c r="H89" s="107" t="s">
-        <v>2377</v>
+        <v>2370</v>
       </c>
       <c r="I89" s="109" t="s">
         <v>584</v>
@@ -40619,13 +40976,13 @@
       </c>
       <c r="AF89" s="109"/>
       <c r="AG89" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH89" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH89" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI89" s="108" t="s">
-        <v>2378</v>
+        <v>2371</v>
       </c>
       <c r="AJ89" s="110"/>
       <c r="AK89" s="107" t="s">
@@ -40709,7 +41066,7 @@
       <c r="X90" s="337"/>
       <c r="Y90" s="337"/>
       <c r="Z90" s="116" t="s">
-        <v>2379</v>
+        <v>2372</v>
       </c>
       <c r="AA90" s="109" t="s">
         <v>377</v>
@@ -40728,13 +41085,13 @@
       </c>
       <c r="AF90" s="109"/>
       <c r="AG90" s="111" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AH90" s="461" t="s">
-        <v>2397</v>
+        <v>2387</v>
+      </c>
+      <c r="AH90" s="458" t="s">
+        <v>2407</v>
       </c>
       <c r="AI90" s="108" t="s">
-        <v>2380</v>
+        <v>2373</v>
       </c>
       <c r="AJ90" s="110"/>
       <c r="AK90" s="107" t="s">
@@ -40833,13 +41190,13 @@
       </c>
       <c r="AF91" s="109"/>
       <c r="AG91" s="111" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AH91" s="461" t="s">
-        <v>2397</v>
+        <v>2387</v>
+      </c>
+      <c r="AH91" s="458" t="s">
+        <v>2408</v>
       </c>
       <c r="AI91" s="108" t="s">
-        <v>2381</v>
+        <v>2374</v>
       </c>
       <c r="AJ91" s="110"/>
       <c r="AK91" s="107" t="s">
@@ -40938,13 +41295,13 @@
       </c>
       <c r="AF92" s="109"/>
       <c r="AG92" s="111" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AH92" s="461" t="s">
-        <v>2397</v>
+        <v>2387</v>
+      </c>
+      <c r="AH92" s="458" t="s">
+        <v>2408</v>
       </c>
       <c r="AI92" s="108" t="s">
-        <v>2382</v>
+        <v>2375</v>
       </c>
       <c r="AJ92" s="110"/>
       <c r="AK92" s="107" t="s">
@@ -41043,13 +41400,13 @@
       </c>
       <c r="AF93" s="109"/>
       <c r="AG93" s="111" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AH93" s="461" t="s">
-        <v>2397</v>
+        <v>2387</v>
+      </c>
+      <c r="AH93" s="458" t="s">
+        <v>2408</v>
       </c>
       <c r="AI93" s="108" t="s">
-        <v>2383</v>
+        <v>2376</v>
       </c>
       <c r="AJ93" s="110"/>
       <c r="AK93" s="107" t="s">
@@ -41148,13 +41505,13 @@
       </c>
       <c r="AF94" s="109"/>
       <c r="AG94" s="111" t="s">
-        <v>2396</v>
-      </c>
-      <c r="AH94" s="461" t="s">
-        <v>2397</v>
+        <v>2387</v>
+      </c>
+      <c r="AH94" s="458" t="s">
+        <v>2408</v>
       </c>
       <c r="AI94" s="108" t="s">
-        <v>2384</v>
+        <v>2377</v>
       </c>
       <c r="AJ94" s="110"/>
       <c r="AK94" s="107" t="s">
@@ -41251,10 +41608,10 @@
       </c>
       <c r="AF95" s="109"/>
       <c r="AG95" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH95" s="461" t="s">
-        <v>2388</v>
+        <v>2384</v>
+      </c>
+      <c r="AH95" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI95" s="335" t="s">
         <v>539</v>
@@ -41352,17 +41709,17 @@
         <v>387</v>
       </c>
       <c r="AE96" s="109" t="s">
-        <v>2398</v>
+        <v>2388</v>
       </c>
       <c r="AF96" s="109"/>
       <c r="AG96" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH96" s="461" t="s">
-        <v>2388</v>
+        <v>2384</v>
+      </c>
+      <c r="AH96" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI96" s="108" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="AJ96" s="110"/>
       <c r="AK96" s="107" t="s">
@@ -41457,24 +41814,24 @@
         <v>387</v>
       </c>
       <c r="AE97" s="109" t="s">
-        <v>2402</v>
+        <v>2390</v>
       </c>
       <c r="AF97" s="109"/>
       <c r="AG97" s="111" t="s">
-        <v>2400</v>
-      </c>
-      <c r="AH97" s="461" t="s">
+        <v>2389</v>
+      </c>
+      <c r="AH97" s="458" t="s">
         <v>2401</v>
       </c>
       <c r="AI97" s="108" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="AJ97" s="110"/>
       <c r="AK97" s="107" t="s">
         <v>375</v>
       </c>
       <c r="AL97" s="107" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="AM97" s="107" t="s">
         <v>375</v>
@@ -41566,13 +41923,13 @@
       </c>
       <c r="AF98" s="109"/>
       <c r="AG98" s="111" t="s">
-        <v>2387</v>
-      </c>
-      <c r="AH98" s="461" t="s">
-        <v>2388</v>
+        <v>2380</v>
+      </c>
+      <c r="AH98" s="458" t="s">
+        <v>2397</v>
       </c>
       <c r="AI98" s="108" t="s">
-        <v>2386</v>
+        <v>2379</v>
       </c>
       <c r="AJ98" s="110"/>
       <c r="AK98" s="107" t="s">
@@ -41671,25 +42028,25 @@
       </c>
       <c r="AF99" s="109"/>
       <c r="AG99" s="111" t="s">
-        <v>2389</v>
-      </c>
-      <c r="AH99" s="461" t="s">
-        <v>2391</v>
+        <v>2381</v>
+      </c>
+      <c r="AH99" s="458" t="s">
+        <v>2403</v>
       </c>
       <c r="AI99" s="151" t="s">
         <v>2404</v>
       </c>
       <c r="AJ99" s="110"/>
-      <c r="AK99" s="508" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL99" s="509" t="s">
+      <c r="AK99" s="504" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL99" s="505" t="s">
         <v>972</v>
       </c>
-      <c r="AM99" s="509" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN99" s="510" t="s">
+      <c r="AM99" s="505" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN99" s="506" t="s">
         <v>973</v>
       </c>
       <c r="AO99" s="151"/>
@@ -41776,10 +42133,10 @@
       </c>
       <c r="AF100" s="109"/>
       <c r="AG100" s="111" t="s">
-        <v>2390</v>
-      </c>
-      <c r="AH100" s="461" t="s">
-        <v>2391</v>
+        <v>2382</v>
+      </c>
+      <c r="AH100" s="458" t="s">
+        <v>2403</v>
       </c>
       <c r="AI100" s="151" t="s">
         <v>2404</v>
@@ -41789,7 +42146,7 @@
         <v>375</v>
       </c>
       <c r="AL100" s="107" t="s">
-        <v>2385</v>
+        <v>2378</v>
       </c>
       <c r="AM100" s="107" t="s">
         <v>375</v>
@@ -42458,7 +42815,7 @@
       </c>
       <c r="AF106" s="294"/>
       <c r="AG106" s="294"/>
-      <c r="AH106" s="438" t="s">
+      <c r="AH106" s="436" t="s">
         <v>1915</v>
       </c>
       <c r="AI106" s="289" t="s">
@@ -42574,7 +42931,7 @@
       <c r="AH107" s="248" t="s">
         <v>1920</v>
       </c>
-      <c r="AI107" s="428" t="s">
+      <c r="AI107" s="427" t="s">
         <v>1989</v>
       </c>
       <c r="AJ107" s="245"/>
@@ -42685,7 +43042,7 @@
       <c r="AH108" s="315" t="s">
         <v>1920</v>
       </c>
-      <c r="AI108" s="429" t="s">
+      <c r="AI108" s="428" t="s">
         <v>1990</v>
       </c>
       <c r="AJ108" s="110"/>
@@ -42796,7 +43153,7 @@
         <v>712</v>
       </c>
       <c r="AF109" s="320"/>
-      <c r="AG109" s="423"/>
+      <c r="AG109" s="422"/>
       <c r="AH109" s="316" t="s">
         <v>713</v>
       </c>
@@ -42909,11 +43266,11 @@
         <v>717</v>
       </c>
       <c r="AF110" s="320"/>
-      <c r="AG110" s="423"/>
+      <c r="AG110" s="422"/>
       <c r="AH110" s="318" t="s">
         <v>718</v>
       </c>
-      <c r="AI110" s="430" t="s">
+      <c r="AI110" s="429" t="s">
         <v>1991</v>
       </c>
       <c r="AJ110" s="110"/>
@@ -43022,11 +43379,11 @@
         <v>721</v>
       </c>
       <c r="AF111" s="320"/>
-      <c r="AG111" s="423"/>
+      <c r="AG111" s="422"/>
       <c r="AH111" s="318" t="s">
         <v>722</v>
       </c>
-      <c r="AI111" s="431" t="s">
+      <c r="AI111" s="430" t="s">
         <v>1992</v>
       </c>
       <c r="AJ111" s="110"/>
@@ -43135,11 +43492,11 @@
         <v>724</v>
       </c>
       <c r="AF112" s="320"/>
-      <c r="AG112" s="423"/>
+      <c r="AG112" s="422"/>
       <c r="AH112" s="318" t="s">
         <v>725</v>
       </c>
-      <c r="AI112" s="431" t="s">
+      <c r="AI112" s="430" t="s">
         <v>1993</v>
       </c>
       <c r="AJ112" s="110"/>
@@ -43248,11 +43605,11 @@
         <v>728</v>
       </c>
       <c r="AF113" s="320"/>
-      <c r="AG113" s="423"/>
+      <c r="AG113" s="422"/>
       <c r="AH113" s="318" t="s">
         <v>729</v>
       </c>
-      <c r="AI113" s="431" t="s">
+      <c r="AI113" s="430" t="s">
         <v>1994</v>
       </c>
       <c r="AJ113" s="110"/>
@@ -43363,11 +43720,11 @@
         <v>734</v>
       </c>
       <c r="AF114" s="320"/>
-      <c r="AG114" s="423"/>
+      <c r="AG114" s="422"/>
       <c r="AH114" s="318" t="s">
         <v>1965</v>
       </c>
-      <c r="AI114" s="431" t="s">
+      <c r="AI114" s="430" t="s">
         <v>1995</v>
       </c>
       <c r="AJ114" s="110"/>
@@ -43476,7 +43833,7 @@
         <v>736</v>
       </c>
       <c r="AF115" s="221"/>
-      <c r="AG115" s="424"/>
+      <c r="AG115" s="423"/>
       <c r="AH115" s="324" t="s">
         <v>737</v>
       </c>
@@ -43590,7 +43947,7 @@
       </c>
       <c r="AF116" s="111"/>
       <c r="AG116" s="111"/>
-      <c r="AH116" s="437" t="s">
+      <c r="AH116" s="435" t="s">
         <v>1921</v>
       </c>
       <c r="AI116" s="108" t="s">
@@ -44156,11 +44513,11 @@
         <v>751</v>
       </c>
       <c r="AF121" s="320"/>
-      <c r="AG121" s="423"/>
+      <c r="AG121" s="422"/>
       <c r="AH121" s="318" t="s">
         <v>1965</v>
       </c>
-      <c r="AI121" s="432" t="s">
+      <c r="AI121" s="431" t="s">
         <v>1995</v>
       </c>
       <c r="AJ121" s="322"/>
@@ -44270,7 +44627,7 @@
       </c>
       <c r="AF122" s="221"/>
       <c r="AG122" s="221"/>
-      <c r="AH122" s="439" t="s">
+      <c r="AH122" s="437" t="s">
         <v>1916</v>
       </c>
       <c r="AI122" s="151" t="s">
@@ -44387,7 +44744,7 @@
       </c>
       <c r="AF123" s="221"/>
       <c r="AG123" s="221"/>
-      <c r="AH123" s="439" t="s">
+      <c r="AH123" s="437" t="s">
         <v>1916</v>
       </c>
       <c r="AI123" s="151" t="s">
@@ -44504,7 +44861,7 @@
       </c>
       <c r="AF124" s="221"/>
       <c r="AG124" s="221"/>
-      <c r="AH124" s="439" t="s">
+      <c r="AH124" s="437" t="s">
         <v>1916</v>
       </c>
       <c r="AI124" s="151" t="s">
@@ -44619,7 +44976,7 @@
       </c>
       <c r="AF125" s="221"/>
       <c r="AG125" s="221"/>
-      <c r="AH125" s="439" t="s">
+      <c r="AH125" s="437" t="s">
         <v>1916</v>
       </c>
       <c r="AI125" s="151" t="s">
@@ -44734,7 +45091,7 @@
       </c>
       <c r="AF126" s="221"/>
       <c r="AG126" s="221"/>
-      <c r="AH126" s="439" t="s">
+      <c r="AH126" s="437" t="s">
         <v>1916</v>
       </c>
       <c r="AI126" s="151" t="s">
@@ -44849,7 +45206,7 @@
       </c>
       <c r="AF127" s="221"/>
       <c r="AG127" s="221"/>
-      <c r="AH127" s="437" t="s">
+      <c r="AH127" s="435" t="s">
         <v>1917</v>
       </c>
       <c r="AI127" s="222" t="s">
@@ -44964,10 +45321,10 @@
       </c>
       <c r="AF128" s="221"/>
       <c r="AG128" s="341"/>
-      <c r="AH128" s="440" t="s">
+      <c r="AH128" s="438" t="s">
         <v>1917</v>
       </c>
-      <c r="AI128" s="433" t="s">
+      <c r="AI128" s="432" t="s">
         <v>2006</v>
       </c>
       <c r="AJ128" s="110"/>
@@ -45192,9 +45549,8 @@
       <c r="AE130" s="81" t="s">
         <v>762</v>
       </c>
-      <c r="AF130" s="327"/>
-      <c r="AG130" s="425"/>
-      <c r="AH130" s="441" t="s">
+      <c r="AG130" s="424"/>
+      <c r="AH130" s="439" t="s">
         <v>1914</v>
       </c>
       <c r="AI130" s="325" t="s">
@@ -45306,8 +45662,8 @@
         <v>764</v>
       </c>
       <c r="AF131" s="327"/>
-      <c r="AG131" s="425"/>
-      <c r="AH131" s="442" t="s">
+      <c r="AG131" s="424"/>
+      <c r="AH131" s="440" t="s">
         <v>1922</v>
       </c>
       <c r="AI131" s="326" t="s">
@@ -45419,8 +45775,8 @@
         <v>767</v>
       </c>
       <c r="AF132" s="327"/>
-      <c r="AG132" s="425"/>
-      <c r="AH132" s="442" t="s">
+      <c r="AG132" s="424"/>
+      <c r="AH132" s="440" t="s">
         <v>1914</v>
       </c>
       <c r="AI132" s="325" t="s">
@@ -45532,8 +45888,8 @@
         <v>770</v>
       </c>
       <c r="AF133" s="327"/>
-      <c r="AG133" s="425"/>
-      <c r="AH133" s="443" t="s">
+      <c r="AG133" s="424"/>
+      <c r="AH133" s="441" t="s">
         <v>1962</v>
       </c>
       <c r="AI133" s="334" t="s">
@@ -45645,8 +46001,8 @@
         <v>771</v>
       </c>
       <c r="AF134" s="327"/>
-      <c r="AG134" s="425"/>
-      <c r="AH134" s="443" t="s">
+      <c r="AG134" s="424"/>
+      <c r="AH134" s="441" t="s">
         <v>772</v>
       </c>
       <c r="AI134" s="326" t="s">
@@ -45758,8 +46114,8 @@
         <v>775</v>
       </c>
       <c r="AF135" s="327"/>
-      <c r="AG135" s="425"/>
-      <c r="AH135" s="444" t="s">
+      <c r="AG135" s="424"/>
+      <c r="AH135" s="442" t="s">
         <v>776</v>
       </c>
       <c r="AI135" s="325" t="s">
@@ -45871,8 +46227,8 @@
         <v>779</v>
       </c>
       <c r="AF136" s="327"/>
-      <c r="AG136" s="425"/>
-      <c r="AH136" s="444" t="s">
+      <c r="AG136" s="424"/>
+      <c r="AH136" s="442" t="s">
         <v>780</v>
       </c>
       <c r="AI136" s="334" t="s">
@@ -45984,8 +46340,8 @@
         <v>782</v>
       </c>
       <c r="AF137" s="327"/>
-      <c r="AG137" s="425"/>
-      <c r="AH137" s="444" t="s">
+      <c r="AG137" s="424"/>
+      <c r="AH137" s="442" t="s">
         <v>783</v>
       </c>
       <c r="AI137" s="334" t="s">
@@ -46097,8 +46453,8 @@
         <v>786</v>
       </c>
       <c r="AF138" s="327"/>
-      <c r="AG138" s="425"/>
-      <c r="AH138" s="444" t="s">
+      <c r="AG138" s="424"/>
+      <c r="AH138" s="442" t="s">
         <v>787</v>
       </c>
       <c r="AI138" s="334" t="s">
@@ -46212,11 +46568,11 @@
         <v>789</v>
       </c>
       <c r="AF139" s="221"/>
-      <c r="AG139" s="423"/>
-      <c r="AH139" s="445" t="s">
+      <c r="AG139" s="422"/>
+      <c r="AH139" s="443" t="s">
         <v>1966</v>
       </c>
-      <c r="AI139" s="431" t="s">
+      <c r="AI139" s="430" t="s">
         <v>2015</v>
       </c>
       <c r="AJ139" s="322"/>
@@ -46326,7 +46682,7 @@
       </c>
       <c r="AF140" s="221"/>
       <c r="AG140" s="320"/>
-      <c r="AH140" s="446" t="s">
+      <c r="AH140" s="444" t="s">
         <v>792</v>
       </c>
       <c r="AI140" s="317" t="s">
@@ -46443,7 +46799,7 @@
       </c>
       <c r="AF141" s="111"/>
       <c r="AG141" s="111"/>
-      <c r="AH141" s="437" t="s">
+      <c r="AH141" s="435" t="s">
         <v>1923</v>
       </c>
       <c r="AI141" s="217" t="s">
@@ -47021,11 +47377,11 @@
         <v>789</v>
       </c>
       <c r="AF146" s="221"/>
-      <c r="AG146" s="423"/>
-      <c r="AH146" s="445" t="s">
+      <c r="AG146" s="422"/>
+      <c r="AH146" s="443" t="s">
         <v>1966</v>
       </c>
-      <c r="AI146" s="432" t="s">
+      <c r="AI146" s="431" t="s">
         <v>2020</v>
       </c>
       <c r="AJ146" s="110"/>
@@ -47135,7 +47491,7 @@
       </c>
       <c r="AF147" s="111"/>
       <c r="AG147" s="111"/>
-      <c r="AH147" s="437" t="s">
+      <c r="AH147" s="435" t="s">
         <v>802</v>
       </c>
       <c r="AI147" s="151" t="s">
@@ -47248,7 +47604,7 @@
       </c>
       <c r="AF148" s="111"/>
       <c r="AG148" s="111"/>
-      <c r="AH148" s="437" t="s">
+      <c r="AH148" s="435" t="s">
         <v>1924</v>
       </c>
       <c r="AI148" s="108"/>
@@ -47360,12 +47716,12 @@
         <v>808</v>
       </c>
       <c r="AF149" s="94"/>
-      <c r="AG149" s="425"/>
-      <c r="AH149" s="447" t="s">
+      <c r="AG149" s="424"/>
+      <c r="AH149" s="445" t="s">
         <v>1925</v>
       </c>
-      <c r="AI149" s="434" t="s">
-        <v>2355</v>
+      <c r="AI149" s="433" t="s">
+        <v>2354</v>
       </c>
       <c r="AJ149" s="84"/>
       <c r="AK149" s="79" t="s">
@@ -47839,7 +48195,7 @@
       </c>
       <c r="AF153" s="82"/>
       <c r="AG153" s="82"/>
-      <c r="AH153" s="448" t="s">
+      <c r="AH153" s="446" t="s">
         <v>1929</v>
       </c>
       <c r="AI153" s="222" t="s">
@@ -48127,16 +48483,16 @@
       </c>
     </row>
     <row r="156" spans="1:51" s="75" customFormat="1" ht="104.25" customHeight="1">
-      <c r="A156" s="465" t="s">
+      <c r="A156" s="461" t="s">
         <v>809</v>
       </c>
-      <c r="B156" s="466">
+      <c r="B156" s="462">
         <v>158</v>
       </c>
       <c r="C156" s="313" t="s">
         <v>492</v>
       </c>
-      <c r="D156" s="467" t="s">
+      <c r="D156" s="463" t="s">
         <v>26</v>
       </c>
       <c r="E156" s="103" t="s">
@@ -48186,10 +48542,10 @@
         <v>393</v>
       </c>
       <c r="U156" s="313"/>
-      <c r="V156" s="468"/>
-      <c r="W156" s="468"/>
-      <c r="X156" s="468"/>
-      <c r="Y156" s="468"/>
+      <c r="V156" s="464"/>
+      <c r="W156" s="464"/>
+      <c r="X156" s="464"/>
+      <c r="Y156" s="464"/>
       <c r="Z156" s="150" t="s">
         <v>1909</v>
       </c>
@@ -48213,7 +48569,7 @@
       <c r="AH156" s="313" t="s">
         <v>1931</v>
       </c>
-      <c r="AI156" s="427" t="s">
+      <c r="AI156" s="426" t="s">
         <v>2027</v>
       </c>
       <c r="AJ156" s="313"/>
@@ -48245,7 +48601,7 @@
       <c r="AV156" s="103"/>
       <c r="AW156" s="185"/>
       <c r="AX156" s="418"/>
-      <c r="AY156" s="469" t="s">
+      <c r="AY156" s="465" t="s">
         <v>1889</v>
       </c>
     </row>
@@ -50019,7 +50375,7 @@
         <v>1941</v>
       </c>
       <c r="AI171" s="83" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="AJ171" s="84"/>
       <c r="AK171" s="79" t="s">
@@ -50501,7 +50857,7 @@
       </c>
       <c r="AF175" s="82"/>
       <c r="AG175" s="82"/>
-      <c r="AH175" s="437" t="s">
+      <c r="AH175" s="435" t="s">
         <v>1960</v>
       </c>
       <c r="AI175" s="222" t="s">
@@ -52902,100 +53258,111 @@
   <autoFilter ref="A1:BD194" xr:uid="{870F3D7E-D500-4249-A60B-8D4257022104}"/>
   <phoneticPr fontId="77" type="noConversion"/>
   <conditionalFormatting sqref="AB2:AC9">
-    <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC23 AB32:AC50 AB75:AC194">
-    <cfRule type="cellIs" dxfId="49" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="124" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AC74">
-    <cfRule type="containsText" dxfId="48" priority="92" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="51" priority="140" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AB10)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB11:AC11">
+    <cfRule type="containsText" dxfId="50" priority="46" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",AB11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="48" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",AB11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AC74">
-    <cfRule type="containsText" dxfId="47" priority="90" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="47" priority="138" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AB24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="139" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27:AC31">
-    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="45" priority="80" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AB27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB27:AC50">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="43" priority="82" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AB27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB32:AC50 AB2:AC23">
-    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="42" priority="123" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB75:AC194">
-    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="41" priority="58" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AB75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="12" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="40" priority="60" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AB75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC2:AC26 AC32:AC194">
-    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="39" priority="125" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AC2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="126" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC27:AC31">
-    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="37" priority="83" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AC27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="84" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD194">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="50" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD2:AD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="57" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ2:AU194">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AQ2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="28" priority="4" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AQ2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="27" priority="5" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AQ2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53015,340 +53382,1907 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A14CFD-1985-4F36-AA2D-D037BA334285}">
+  <dimension ref="A1:B196"/>
+  <sheetViews>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection sqref="A1:B100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.28515625" style="460" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21">
+      <c r="A1" s="403" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B1" s="403" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27">
+      <c r="A2" s="486" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2" s="487" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="89.25">
+      <c r="A3" s="488" t="s">
+        <v>2405</v>
+      </c>
+      <c r="B3" s="222" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54">
+      <c r="A4" s="346" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B4" s="222" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="346" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B5" s="222" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="67.5">
+      <c r="A6" s="346" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B6" s="222" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="54">
+      <c r="A7" s="346" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="54">
+      <c r="A8" s="346" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="54">
+      <c r="A9" s="346" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="67.5">
+      <c r="A10" s="346" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B10" s="151" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="127.5">
+      <c r="A11" s="496" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B11" s="254" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="51">
+      <c r="A12" s="488" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B12" s="151" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="67.5">
+      <c r="A13" s="346" t="s">
+        <v>2392</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="94.5">
+      <c r="A14" s="458" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B14" s="222" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="54">
+      <c r="A15" s="346" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="67.5">
+      <c r="A16" s="346" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B16" s="151" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="67.5">
+      <c r="A17" s="499" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B17" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="67.5">
+      <c r="A18" s="499" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B18" s="289" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="54">
+      <c r="A19" s="499" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B19" s="292" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="67.5">
+      <c r="A20" s="499" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B20" s="292" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="67.5">
+      <c r="A21" s="499" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B21" s="292" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="40.5">
+      <c r="A22" s="459" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B22" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="121.5">
+      <c r="A23" s="346" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="162">
+      <c r="A24" s="346" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B24" s="425" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="108">
+      <c r="A25" s="346" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="121.5">
+      <c r="A26" s="346" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B26" s="93" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="121.5">
+      <c r="A27" s="346" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B27" s="426" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="81">
+      <c r="A28" s="346" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B28" s="151" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="94.5">
+      <c r="A29" s="346" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B29" s="108"/>
+    </row>
+    <row r="30" spans="1:2" ht="60">
+      <c r="A30" s="346" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B30" s="151" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="67.5">
+      <c r="A31" s="346" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B31" s="83" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="81">
+      <c r="A32" s="346" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="81">
+      <c r="A33" s="346" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B33" s="83" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="54">
+      <c r="A34" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="54">
+      <c r="A35" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B35" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="54">
+      <c r="A36" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="121.5">
+      <c r="A37" s="458" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B37" s="254" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="54">
+      <c r="A38" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="54">
+      <c r="A39" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="54">
+      <c r="A40" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B40" s="151" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="54">
+      <c r="A41" s="434" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B41" s="222" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="135">
+      <c r="A42" s="434" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B42" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="108">
+      <c r="A43" s="500" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B43" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="94.5">
+      <c r="A44" s="500" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B44" s="292" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="81">
+      <c r="A45" s="500" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B45" s="292" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="94.5">
+      <c r="A46" s="500" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B46" s="292" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="94.5">
+      <c r="A47" s="500" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B47" s="292" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="67.5">
+      <c r="A48" s="459" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B48" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="175.5">
+      <c r="A49" s="502" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="162">
+      <c r="A50" s="503" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B50" s="425" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="175.5">
+      <c r="A51" s="503" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B51" s="93" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="162">
+      <c r="A52" s="503" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B52" s="93" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="175.5">
+      <c r="A53" s="503" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B53" s="426" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="94.5">
+      <c r="A54" s="346" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B54" s="151" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="81">
+      <c r="A55" s="346" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B55" s="108"/>
+    </row>
+    <row r="56" spans="1:2" ht="60">
+      <c r="A56" s="434" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B56" s="83" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="54">
+      <c r="A57" s="434" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B57" s="83" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="94.5">
+      <c r="A58" s="434" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B58" s="83" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="94.5">
+      <c r="A59" s="434" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B59" s="83" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="346"/>
+      <c r="B60" s="113"/>
+    </row>
+    <row r="61" spans="1:2" ht="81">
+      <c r="A61" s="458" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B61" s="151" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="54">
+      <c r="A62" s="458" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B62" s="108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="54">
+      <c r="A63" s="458" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B63" s="151" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="121.5">
+      <c r="A64" s="458" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B64" s="222" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="67.5">
+      <c r="A65" s="458" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B65" s="222" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="54">
+      <c r="A66" s="458" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B66" s="222" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="108">
+      <c r="A67" s="346" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B67" s="108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="81">
+      <c r="A68" s="346" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B68" s="151" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="81">
+      <c r="A69" s="346" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B69" s="222" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="81">
+      <c r="A70" s="346" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B70" s="222" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="94.5">
+      <c r="A71" s="346" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B71" s="222" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="81">
+      <c r="A72" s="346" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B72" s="151" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="81">
+      <c r="A73" s="346" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B73" s="108"/>
+    </row>
+    <row r="74" spans="1:2" ht="60">
+      <c r="A74" s="458" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B74" s="151" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="67.5">
+      <c r="A75" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B75" s="151" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="67.5">
+      <c r="A76" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B76" s="151" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="67.5">
+      <c r="A77" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B77" s="108" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="67.5">
+      <c r="A78" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B78" s="335"/>
+    </row>
+    <row r="79" spans="1:2" ht="67.5">
+      <c r="A79" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B79" s="108" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="67.5">
+      <c r="A80" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B80" s="108" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="67.5">
+      <c r="A81" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B81" s="108" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="67.5">
+      <c r="A82" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B82" s="108" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="67.5">
+      <c r="A83" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="67.5">
+      <c r="A84" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B84" s="151" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="67.5">
+      <c r="A85" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B85" s="108" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="67.5">
+      <c r="A86" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B86" s="108"/>
+    </row>
+    <row r="87" spans="1:2" ht="67.5">
+      <c r="A87" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B87" s="108" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="67.5">
+      <c r="A88" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B88" s="108" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="67.5">
+      <c r="A89" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B89" s="108" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="94.5">
+      <c r="A90" s="458" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B90" s="108" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="94.5">
+      <c r="A91" s="458" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B91" s="108" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="94.5">
+      <c r="A92" s="458" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B92" s="108" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="94.5">
+      <c r="A93" s="458" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B93" s="108" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="94.5">
+      <c r="A94" s="458" t="s">
+        <v>2399</v>
+      </c>
+      <c r="B94" s="108" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="67.5">
+      <c r="A95" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B95" s="335" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="67.5">
+      <c r="A96" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B96" s="108" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="94.5">
+      <c r="A97" s="458" t="s">
+        <v>2401</v>
+      </c>
+      <c r="B97" s="108" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="67.5">
+      <c r="A98" s="458" t="s">
+        <v>2397</v>
+      </c>
+      <c r="B98" s="108" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="94.5">
+      <c r="A99" s="458" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B99" s="151" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="94.5">
+      <c r="A100" s="458" t="s">
+        <v>2403</v>
+      </c>
+      <c r="B100" s="151" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="94.5">
+      <c r="A101" s="458" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B101" s="151" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="94.5">
+      <c r="A102" s="458" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B102" s="151" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="144" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B103" s="144" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="83" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B104" s="83" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="151" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B105" s="151" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="306" t="s">
+        <v>673</v>
+      </c>
+      <c r="B106" s="307" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="45">
+      <c r="A107" s="83" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B107" s="83" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="30">
+      <c r="A108" s="436" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B108" s="289" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="30">
+      <c r="A109" s="248" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B109" s="427" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="315" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B110" s="428" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="30">
+      <c r="A111" s="316" t="s">
+        <v>713</v>
+      </c>
+      <c r="B111" s="317" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="75">
+      <c r="A112" s="318" t="s">
+        <v>718</v>
+      </c>
+      <c r="B112" s="429" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="75">
+      <c r="A113" s="318" t="s">
+        <v>722</v>
+      </c>
+      <c r="B113" s="430" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="75">
+      <c r="A114" s="318" t="s">
+        <v>725</v>
+      </c>
+      <c r="B114" s="430" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="75">
+      <c r="A115" s="318" t="s">
+        <v>729</v>
+      </c>
+      <c r="B115" s="430" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="30">
+      <c r="A116" s="318" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B116" s="430" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="30">
+      <c r="A117" s="324" t="s">
+        <v>737</v>
+      </c>
+      <c r="B117" s="217" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="84.75">
+      <c r="A118" s="435" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B118" s="108" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="90">
+      <c r="A119" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="B119" s="151" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="90">
+      <c r="A120" s="113" t="s">
+        <v>503</v>
+      </c>
+      <c r="B120" s="222" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="75">
+      <c r="A121" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="B121" s="222" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="90">
+      <c r="A122" s="323" t="s">
+        <v>510</v>
+      </c>
+      <c r="B122" s="222" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="30">
+      <c r="A123" s="318" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B123" s="431" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="30">
+      <c r="A124" s="437" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B124" s="151" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="24">
+      <c r="A125" s="437" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B125" s="151" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="24">
+      <c r="A126" s="437" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B126" s="151" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="30">
+      <c r="A127" s="437" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B127" s="151" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="30">
+      <c r="A128" s="437" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B128" s="151" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="36.75">
+      <c r="A129" s="435" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B129" s="222" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="36.75">
+      <c r="A130" s="438" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B130" s="432" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="151" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B131" s="151" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="24">
+      <c r="A132" s="439" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B132" s="325" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="36">
+      <c r="A133" s="440" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B133" s="326" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="24">
+      <c r="A134" s="440" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B134" s="325" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="48.75">
+      <c r="A135" s="441" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B135" s="334" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="24.75">
+      <c r="A136" s="441" t="s">
+        <v>772</v>
+      </c>
+      <c r="B136" s="326" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="60.75">
+      <c r="A137" s="442" t="s">
+        <v>776</v>
+      </c>
+      <c r="B137" s="325" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="48.75">
+      <c r="A138" s="442" t="s">
+        <v>780</v>
+      </c>
+      <c r="B138" s="334" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="48.75">
+      <c r="A139" s="442" t="s">
+        <v>783</v>
+      </c>
+      <c r="B139" s="334" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="48.75">
+      <c r="A140" s="442" t="s">
+        <v>787</v>
+      </c>
+      <c r="B140" s="334" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="48.75">
+      <c r="A141" s="443" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B141" s="430" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="48.75">
+      <c r="A142" s="444" t="s">
+        <v>792</v>
+      </c>
+      <c r="B142" s="317" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="72.75">
+      <c r="A143" s="435" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B143" s="217" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="90">
+      <c r="A144" s="113" t="s">
+        <v>501</v>
+      </c>
+      <c r="B144" s="151" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="90">
+      <c r="A145" s="113" t="s">
+        <v>503</v>
+      </c>
+      <c r="B145" s="222" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="75">
+      <c r="A146" s="113" t="s">
+        <v>507</v>
+      </c>
+      <c r="B146" s="222" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="90">
+      <c r="A147" s="113" t="s">
+        <v>510</v>
+      </c>
+      <c r="B147" s="222" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="48.75">
+      <c r="A148" s="443" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B148" s="431" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="48.75">
+      <c r="A149" s="435" t="s">
+        <v>802</v>
+      </c>
+      <c r="B149" s="151" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="48.75">
+      <c r="A150" s="435" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B150" s="108"/>
+    </row>
+    <row r="151" spans="1:2" ht="60">
+      <c r="A151" s="445" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B151" s="433" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="60">
+      <c r="A152" s="99" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B152" s="83" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="60">
+      <c r="A153" s="99" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B153" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="60">
+      <c r="A154" s="99" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B154" s="101" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="96.75">
+      <c r="A155" s="446" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B155" s="222" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="90">
+      <c r="A156" s="99" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B156" s="93" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="60">
+      <c r="A157" s="99" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B157" s="93" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="60">
+      <c r="A158" s="313" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B158" s="426" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="150">
+      <c r="A159" s="88" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B159" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="120">
+      <c r="A160" s="279" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B160" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="135">
+      <c r="A161" s="279" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B161" s="292" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="135">
+      <c r="A162" s="279" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B162" s="292" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="135">
+      <c r="A163" s="279" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B163" s="292" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="135">
+      <c r="A164" s="279" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B164" s="292" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="30">
+      <c r="A165" s="297" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B165" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="105">
+      <c r="A166" s="81" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B166" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="90">
+      <c r="A167" s="81" t="s">
+        <v>873</v>
+      </c>
+      <c r="B167" s="83" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="90">
+      <c r="A168" s="81" t="s">
+        <v>503</v>
+      </c>
+      <c r="B168" s="93" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="75">
+      <c r="A169" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="B169" s="93" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="90">
+      <c r="A170" s="81" t="s">
+        <v>510</v>
+      </c>
+      <c r="B170" s="93" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="105">
+      <c r="A171" s="81" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B171" s="83" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="120">
+      <c r="A172" s="113" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B172" s="108"/>
+    </row>
+    <row r="173" spans="1:2" ht="60">
+      <c r="A173" s="81" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B173" s="83" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="105">
+      <c r="A174" s="108" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B174" s="83" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="120">
+      <c r="A175" s="108" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B175" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="105">
+      <c r="A176" s="108" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B176" s="83" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="120.75">
+      <c r="A177" s="435" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B177" s="222" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="120">
+      <c r="A178" s="113" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B178" s="93" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="90">
+      <c r="A179" s="108" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B179" s="93" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="105">
+      <c r="A180" s="112" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B180" s="93" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="135">
+      <c r="A181" s="113" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B181" s="117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="195">
+      <c r="A182" s="113" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B182" s="117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="75">
+      <c r="A183" s="279" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B183" s="286" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="120">
+      <c r="A184" s="279" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B184" s="292" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="120">
+      <c r="A185" s="279" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B185" s="292" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="120">
+      <c r="A186" s="279" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B186" s="292" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="135">
+      <c r="A187" s="279" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B187" s="292" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="30">
+      <c r="A188" s="297" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B188" s="287" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="165">
+      <c r="A189" s="113" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B189" s="88" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="240">
+      <c r="A190" s="113" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B190" s="83" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="240">
+      <c r="A191" s="113" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B191" s="93" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="225">
+      <c r="A192" s="113" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B192" s="93" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="240">
+      <c r="A193" s="113" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B193" s="93" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="165">
+      <c r="A194" s="113" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B194" s="83" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="210">
+      <c r="A195" s="113" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B195" s="108"/>
+    </row>
+    <row r="196" spans="1:2" ht="60">
+      <c r="A196" s="81" t="s">
+        <v>960</v>
+      </c>
+      <c r="B196" s="222" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F9F2FC-3655-4C15-8958-2BCEE4BA5067}">
   <dimension ref="A1:AY255"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" style="115" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="21" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" customWidth="1"/>
     <col min="16" max="16" width="18" customWidth="1"/>
-    <col min="17" max="17" width="28.109375" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.109375" customWidth="1"/>
-    <col min="20" max="20" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.140625" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" customWidth="1"/>
+    <col min="20" max="20" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" customWidth="1"/>
-    <col min="22" max="22" width="28.33203125" customWidth="1"/>
-    <col min="23" max="24" width="26.88671875" style="168" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="21.33203125" customWidth="1"/>
-    <col min="28" max="28" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" customWidth="1"/>
+    <col min="23" max="24" width="26.85546875" style="168" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="21.28515625" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.109375" customWidth="1"/>
-    <col min="31" max="31" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.33203125" customWidth="1"/>
-    <col min="33" max="33" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24.109375" customWidth="1"/>
+    <col min="30" max="30" width="25.140625" customWidth="1"/>
+    <col min="31" max="31" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.28515625" customWidth="1"/>
+    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24.140625" customWidth="1"/>
     <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.88671875" customWidth="1"/>
-    <col min="38" max="38" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" customWidth="1"/>
-    <col min="40" max="40" width="25.5546875" customWidth="1"/>
-    <col min="41" max="41" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5546875" customWidth="1"/>
-    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.109375" customWidth="1"/>
-    <col min="45" max="45" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.85546875" customWidth="1"/>
+    <col min="38" max="38" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.28515625" customWidth="1"/>
+    <col min="40" max="40" width="25.5703125" customWidth="1"/>
+    <col min="41" max="41" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.140625" customWidth="1"/>
+    <col min="45" max="45" width="32.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="475" customFormat="1" ht="72">
-      <c r="A1" s="472" t="s">
+    <row r="1" spans="1:51" s="471" customFormat="1" ht="75">
+      <c r="A1" s="468" t="s">
         <v>1065</v>
       </c>
-      <c r="B1" s="472" t="s">
+      <c r="B1" s="468" t="s">
         <v>989</v>
       </c>
-      <c r="C1" s="472" t="s">
+      <c r="C1" s="468" t="s">
         <v>1063</v>
       </c>
-      <c r="D1" s="472" t="s">
+      <c r="D1" s="468" t="s">
         <v>1064</v>
       </c>
-      <c r="E1" s="473" t="s">
+      <c r="E1" s="469" t="s">
         <v>1058</v>
       </c>
-      <c r="F1" s="472" t="s">
+      <c r="F1" s="468" t="s">
         <v>1062</v>
       </c>
-      <c r="G1" s="472" t="s">
+      <c r="G1" s="468" t="s">
         <v>1076</v>
       </c>
-      <c r="H1" s="472" t="s">
+      <c r="H1" s="468" t="s">
         <v>1055</v>
       </c>
-      <c r="I1" s="473" t="s">
+      <c r="I1" s="469" t="s">
         <v>1059</v>
       </c>
-      <c r="J1" s="472" t="s">
+      <c r="J1" s="468" t="s">
         <v>1046</v>
       </c>
-      <c r="K1" s="474" t="s">
+      <c r="K1" s="470" t="s">
         <v>1749</v>
       </c>
-      <c r="L1" s="472" t="s">
+      <c r="L1" s="468" t="s">
         <v>424</v>
       </c>
-      <c r="M1" s="472" t="s">
+      <c r="M1" s="468" t="s">
         <v>616</v>
       </c>
-      <c r="N1" s="472" t="s">
+      <c r="N1" s="468" t="s">
         <v>485</v>
       </c>
-      <c r="O1" s="472" t="s">
+      <c r="O1" s="468" t="s">
         <v>1056</v>
       </c>
-      <c r="P1" s="472" t="s">
+      <c r="P1" s="468" t="s">
         <v>1069</v>
       </c>
-      <c r="Q1" s="472" t="s">
+      <c r="Q1" s="468" t="s">
         <v>1072</v>
       </c>
-      <c r="R1" s="472" t="s">
+      <c r="R1" s="468" t="s">
         <v>1060</v>
       </c>
-      <c r="S1" s="473" t="s">
+      <c r="S1" s="469" t="s">
         <v>1071</v>
       </c>
-      <c r="T1" s="474" t="s">
+      <c r="T1" s="470" t="s">
         <v>1083</v>
       </c>
-      <c r="U1" s="472" t="s">
+      <c r="U1" s="468" t="s">
         <v>1070</v>
       </c>
-      <c r="V1" s="472" t="s">
+      <c r="V1" s="468" t="s">
         <v>1073</v>
       </c>
-      <c r="W1" s="474" t="s">
+      <c r="W1" s="470" t="s">
         <v>1077</v>
       </c>
-      <c r="X1" s="474" t="s">
+      <c r="X1" s="470" t="s">
         <v>1078</v>
       </c>
-      <c r="Y1" s="472" t="s">
+      <c r="Y1" s="468" t="s">
         <v>1079</v>
       </c>
-      <c r="Z1" s="472" t="s">
+      <c r="Z1" s="468" t="s">
         <v>1080</v>
       </c>
-      <c r="AA1" s="474" t="s">
+      <c r="AA1" s="470" t="s">
         <v>1751</v>
       </c>
-      <c r="AB1" s="472" t="s">
+      <c r="AB1" s="468" t="s">
         <v>373</v>
       </c>
-      <c r="AC1" s="472" t="s">
+      <c r="AC1" s="468" t="s">
         <v>383</v>
       </c>
-      <c r="AD1" s="472" t="s">
+      <c r="AD1" s="468" t="s">
         <v>1061</v>
       </c>
-      <c r="AE1" s="474" t="s">
+      <c r="AE1" s="470" t="s">
         <v>1081</v>
       </c>
-      <c r="AF1" s="474" t="s">
+      <c r="AF1" s="470" t="s">
         <v>619</v>
       </c>
-      <c r="AG1" s="474" t="s">
+      <c r="AG1" s="470" t="s">
         <v>1082</v>
       </c>
-      <c r="AH1" s="472" t="s">
+      <c r="AH1" s="468" t="s">
         <v>1057</v>
       </c>
-      <c r="AI1" s="472" t="s">
+      <c r="AI1" s="468" t="s">
         <v>1075</v>
       </c>
-      <c r="AJ1" s="472" t="s">
+      <c r="AJ1" s="468" t="s">
         <v>1068</v>
       </c>
-      <c r="AK1" s="474" t="s">
+      <c r="AK1" s="470" t="s">
         <v>1864</v>
       </c>
-      <c r="AL1" s="472" t="s">
+      <c r="AL1" s="468" t="s">
         <v>1054</v>
       </c>
-      <c r="AM1" s="472" t="s">
+      <c r="AM1" s="468" t="s">
         <v>985</v>
       </c>
-      <c r="AN1" s="472" t="s">
+      <c r="AN1" s="468" t="s">
         <v>988</v>
       </c>
-      <c r="AO1" s="472" t="s">
+      <c r="AO1" s="468" t="s">
         <v>660</v>
       </c>
-      <c r="AP1" s="472" t="s">
+      <c r="AP1" s="468" t="s">
         <v>1066</v>
       </c>
-      <c r="AQ1" s="472" t="s">
+      <c r="AQ1" s="468" t="s">
         <v>1067</v>
       </c>
-      <c r="AR1" s="472" t="s">
+      <c r="AR1" s="468" t="s">
         <v>1074</v>
       </c>
-      <c r="AS1" s="474" t="s">
+      <c r="AS1" s="470" t="s">
         <v>1774</v>
       </c>
-      <c r="AT1" s="474"/>
-      <c r="AU1" s="474"/>
-      <c r="AV1" s="474"/>
-      <c r="AW1" s="474"/>
-      <c r="AX1" s="474"/>
-      <c r="AY1" s="474"/>
-    </row>
-    <row r="2" spans="1:51" s="478" customFormat="1" ht="18">
-      <c r="A2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="F2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="J2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="K2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="L2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="M2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="N2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="P2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="R2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="S2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="T2" s="477" t="s">
-        <v>375</v>
-      </c>
-      <c r="U2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="V2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="W2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="X2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="Y2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AB2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AC2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AD2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AF2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AG2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AJ2" s="476" t="s">
+      <c r="AT1" s="470"/>
+      <c r="AU1" s="470"/>
+      <c r="AV1" s="470"/>
+      <c r="AW1" s="470"/>
+      <c r="AX1" s="470"/>
+      <c r="AY1" s="470"/>
+    </row>
+    <row r="2" spans="1:51" s="474" customFormat="1" ht="18.75">
+      <c r="A2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="D2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="G2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="J2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="K2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="L2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="N2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="P2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="S2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="T2" s="473" t="s">
+        <v>375</v>
+      </c>
+      <c r="U2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="V2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="W2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="X2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AD2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AF2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AG2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AI2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AJ2" s="472" t="s">
         <v>375</v>
       </c>
       <c r="AK2" s="113" t="s">
         <v>375</v>
       </c>
-      <c r="AL2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AM2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AN2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AQ2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR2" s="476" t="s">
-        <v>375</v>
-      </c>
-      <c r="AS2" s="477" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" s="86" customFormat="1" ht="72">
+      <c r="AL2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AO2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AQ2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR2" s="472" t="s">
+        <v>375</v>
+      </c>
+      <c r="AS2" s="473" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="86" customFormat="1" ht="90">
       <c r="A3" s="81" t="s">
         <v>1096</v>
       </c>
@@ -53364,7 +55298,7 @@
       <c r="E3" s="86" t="s">
         <v>1088</v>
       </c>
-      <c r="F3" s="479" t="s">
+      <c r="F3" s="475" t="s">
         <v>1094</v>
       </c>
       <c r="G3" s="99" t="s">
@@ -53436,7 +55370,7 @@
       <c r="AC3" s="81" t="s">
         <v>1092</v>
       </c>
-      <c r="AD3" s="479" t="s">
+      <c r="AD3" s="475" t="s">
         <v>1093</v>
       </c>
       <c r="AE3" s="86" t="s">
@@ -53485,7 +55419,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="86" customFormat="1" ht="86.4">
+    <row r="4" spans="1:51" s="86" customFormat="1" ht="90">
       <c r="A4" s="81" t="s">
         <v>1123</v>
       </c>
@@ -53616,7 +55550,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="86" customFormat="1" ht="86.4">
+    <row r="5" spans="1:51" s="86" customFormat="1" ht="90">
       <c r="A5" s="81" t="s">
         <v>1145</v>
       </c>
@@ -53657,7 +55591,7 @@
       <c r="S5" s="113" t="s">
         <v>1149</v>
       </c>
-      <c r="T5" s="480" t="s">
+      <c r="T5" s="476" t="s">
         <v>1154</v>
       </c>
       <c r="U5" s="113" t="s">
@@ -53713,7 +55647,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="6" spans="1:51" s="86" customFormat="1" ht="72">
+    <row r="6" spans="1:51" s="86" customFormat="1" ht="90">
       <c r="A6" s="81" t="s">
         <v>1162</v>
       </c>
@@ -53745,7 +55679,7 @@
         <v>1158</v>
       </c>
       <c r="S6" s="113"/>
-      <c r="T6" s="480"/>
+      <c r="T6" s="476"/>
       <c r="U6" s="113"/>
       <c r="V6" s="81"/>
       <c r="W6" s="196">
@@ -53758,7 +55692,7 @@
       <c r="AA6" s="86">
         <v>4</v>
       </c>
-      <c r="AB6" s="482" t="s">
+      <c r="AB6" s="478" t="s">
         <v>1179</v>
       </c>
       <c r="AD6" s="81"/>
@@ -53780,7 +55714,7 @@
       </c>
       <c r="AR6" s="81"/>
     </row>
-    <row r="7" spans="1:51" s="86" customFormat="1" ht="72">
+    <row r="7" spans="1:51" s="86" customFormat="1" ht="75">
       <c r="A7" s="81" t="s">
         <v>1172</v>
       </c>
@@ -53809,7 +55743,7 @@
         <v>1170</v>
       </c>
       <c r="S7" s="113"/>
-      <c r="T7" s="481"/>
+      <c r="T7" s="477"/>
       <c r="U7" s="113"/>
       <c r="V7" s="81"/>
       <c r="W7" s="215">
@@ -54663,183 +56597,183 @@
       </c>
     </row>
     <row r="52" spans="5:38" s="86" customFormat="1">
-      <c r="E52" s="483"/>
+      <c r="E52" s="479"/>
       <c r="H52" s="86" t="s">
         <v>1285</v>
       </c>
-      <c r="I52" s="484"/>
+      <c r="I52" s="480"/>
       <c r="W52" s="196"/>
       <c r="X52" s="196"/>
-      <c r="AH52" s="483"/>
+      <c r="AH52" s="479"/>
       <c r="AL52" s="86" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="53" spans="5:38" s="86" customFormat="1">
-      <c r="E53" s="483"/>
+      <c r="E53" s="479"/>
       <c r="H53" s="86" t="s">
         <v>1286</v>
       </c>
-      <c r="I53" s="484"/>
+      <c r="I53" s="480"/>
       <c r="W53" s="196"/>
       <c r="X53" s="196"/>
-      <c r="AH53" s="483"/>
+      <c r="AH53" s="479"/>
       <c r="AL53" s="86" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="54" spans="5:38" s="86" customFormat="1">
-      <c r="E54" s="483"/>
+      <c r="E54" s="479"/>
       <c r="H54" s="86" t="s">
         <v>1288</v>
       </c>
-      <c r="I54" s="484"/>
+      <c r="I54" s="480"/>
       <c r="W54" s="196"/>
       <c r="X54" s="196"/>
-      <c r="AH54" s="483"/>
+      <c r="AH54" s="479"/>
       <c r="AL54" s="86" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="55" spans="5:38" s="86" customFormat="1">
-      <c r="E55" s="483"/>
+      <c r="E55" s="479"/>
       <c r="H55" s="86" t="s">
         <v>1290</v>
       </c>
-      <c r="I55" s="484"/>
+      <c r="I55" s="480"/>
       <c r="W55" s="196"/>
       <c r="X55" s="196"/>
-      <c r="AH55" s="483"/>
+      <c r="AH55" s="479"/>
       <c r="AL55" s="86" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="56" spans="5:38" s="86" customFormat="1">
-      <c r="E56" s="483"/>
+      <c r="E56" s="479"/>
       <c r="H56" s="86" t="s">
         <v>1292</v>
       </c>
-      <c r="I56" s="484"/>
+      <c r="I56" s="480"/>
       <c r="W56" s="196"/>
       <c r="X56" s="196"/>
-      <c r="AH56" s="483"/>
+      <c r="AH56" s="479"/>
       <c r="AL56" s="86" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="57" spans="5:38" s="86" customFormat="1">
-      <c r="E57" s="483"/>
+      <c r="E57" s="479"/>
       <c r="H57" s="86" t="s">
         <v>1294</v>
       </c>
-      <c r="I57" s="484"/>
+      <c r="I57" s="480"/>
       <c r="W57" s="196"/>
       <c r="X57" s="196"/>
-      <c r="AH57" s="483"/>
+      <c r="AH57" s="479"/>
       <c r="AL57" s="86" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="58" spans="5:38" s="86" customFormat="1">
-      <c r="E58" s="483"/>
+      <c r="E58" s="479"/>
       <c r="H58" s="86" t="s">
         <v>1296</v>
       </c>
-      <c r="I58" s="484"/>
+      <c r="I58" s="480"/>
       <c r="W58" s="196"/>
       <c r="X58" s="196"/>
-      <c r="AH58" s="483"/>
+      <c r="AH58" s="479"/>
       <c r="AL58" s="86" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="59" spans="5:38" s="86" customFormat="1">
-      <c r="E59" s="483"/>
+      <c r="E59" s="479"/>
       <c r="H59" s="86" t="s">
         <v>1298</v>
       </c>
-      <c r="I59" s="484"/>
+      <c r="I59" s="480"/>
       <c r="W59" s="196"/>
       <c r="X59" s="196"/>
-      <c r="AH59" s="483"/>
+      <c r="AH59" s="479"/>
       <c r="AL59" s="86" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="60" spans="5:38" s="86" customFormat="1">
-      <c r="E60" s="483"/>
+      <c r="E60" s="479"/>
       <c r="H60" s="86" t="s">
         <v>1300</v>
       </c>
-      <c r="I60" s="484"/>
+      <c r="I60" s="480"/>
       <c r="W60" s="196"/>
       <c r="X60" s="196"/>
-      <c r="AH60" s="483"/>
+      <c r="AH60" s="479"/>
       <c r="AL60" s="86" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="61" spans="5:38" s="86" customFormat="1">
-      <c r="E61" s="483"/>
+      <c r="E61" s="479"/>
       <c r="H61" s="86" t="s">
         <v>1302</v>
       </c>
-      <c r="I61" s="484"/>
+      <c r="I61" s="480"/>
       <c r="W61" s="196"/>
       <c r="X61" s="196"/>
-      <c r="AH61" s="483"/>
+      <c r="AH61" s="479"/>
       <c r="AL61" s="86" t="s">
         <v>1301</v>
       </c>
     </row>
     <row r="62" spans="5:38" s="86" customFormat="1">
-      <c r="E62" s="483"/>
+      <c r="E62" s="479"/>
       <c r="H62" s="86" t="s">
         <v>1304</v>
       </c>
-      <c r="I62" s="484"/>
+      <c r="I62" s="480"/>
       <c r="W62" s="196"/>
       <c r="X62" s="196"/>
-      <c r="AH62" s="483"/>
+      <c r="AH62" s="479"/>
       <c r="AL62" s="86" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="63" spans="5:38" s="86" customFormat="1">
-      <c r="E63" s="483"/>
+      <c r="E63" s="479"/>
       <c r="H63" s="86" t="s">
         <v>1306</v>
       </c>
-      <c r="I63" s="484"/>
+      <c r="I63" s="480"/>
       <c r="W63" s="196"/>
       <c r="X63" s="196"/>
-      <c r="AH63" s="483"/>
+      <c r="AH63" s="479"/>
       <c r="AL63" s="86" t="s">
         <v>1305</v>
       </c>
     </row>
     <row r="64" spans="5:38" s="86" customFormat="1">
-      <c r="E64" s="483"/>
+      <c r="E64" s="479"/>
       <c r="H64" s="86" t="s">
         <v>1308</v>
       </c>
-      <c r="I64" s="484"/>
+      <c r="I64" s="480"/>
       <c r="W64" s="196"/>
       <c r="X64" s="196"/>
-      <c r="AH64" s="483"/>
+      <c r="AH64" s="479"/>
       <c r="AL64" s="86" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="65" spans="5:34" s="86" customFormat="1">
-      <c r="E65" s="483"/>
+      <c r="E65" s="479"/>
       <c r="H65" s="86" t="s">
         <v>1309</v>
       </c>
-      <c r="I65" s="484"/>
+      <c r="I65" s="480"/>
       <c r="W65" s="196"/>
       <c r="X65" s="196"/>
-      <c r="AH65" s="483"/>
+      <c r="AH65" s="479"/>
     </row>
     <row r="66" spans="5:34" s="86" customFormat="1">
       <c r="E66" s="81"/>
@@ -56367,7 +58301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A0D5988-CDCF-46D1-A06D-903CE8577065}">
   <dimension ref="A1:E70"/>
   <sheetViews>
@@ -56375,21 +58309,21 @@
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A1" s="516" t="s">
+      <c r="A1" s="512" t="s">
         <v>1485</v>
       </c>
-      <c r="B1" s="516"/>
-      <c r="C1" s="516"/>
-      <c r="D1" s="516"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="299" t="s">
@@ -56402,7 +58336,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="259" customFormat="1" ht="57.6">
+    <row r="3" spans="1:4" s="259" customFormat="1" ht="60">
       <c r="A3" s="273" t="s">
         <v>1489</v>
       </c>
@@ -56416,7 +58350,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="259" customFormat="1" ht="57.6">
+    <row r="4" spans="1:4" s="259" customFormat="1" ht="60">
       <c r="A4" s="273" t="s">
         <v>1489</v>
       </c>
@@ -56430,7 +58364,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="75" customFormat="1" ht="28.8">
+    <row r="5" spans="1:4" s="75" customFormat="1" ht="45">
       <c r="A5" s="103" t="s">
         <v>1495</v>
       </c>
@@ -56439,7 +58373,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6">
+    <row r="6" spans="1:4" ht="60">
       <c r="A6" s="81" t="s">
         <v>1497</v>
       </c>
@@ -56448,7 +58382,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="57.6">
+    <row r="7" spans="1:4" ht="60">
       <c r="A7" s="81" t="s">
         <v>1499</v>
       </c>
@@ -56457,7 +58391,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="75" customFormat="1" ht="28.8">
+    <row r="8" spans="1:4" s="75" customFormat="1" ht="30">
       <c r="A8" s="103" t="s">
         <v>1501</v>
       </c>
@@ -56540,7 +58474,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28.8">
+    <row r="24" spans="1:5" ht="30">
       <c r="A24" s="242" t="s">
         <v>1779</v>
       </c>
@@ -56553,7 +58487,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="43.2">
+    <row r="57" spans="1:5" ht="45">
       <c r="A57" s="103" t="s">
         <v>1783</v>
       </c>
@@ -56562,7 +58496,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="28.8">
+    <row r="58" spans="1:5" ht="45">
       <c r="A58" s="103" t="s">
         <v>1785</v>
       </c>
@@ -56695,321 +58629,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AEF824-EC99-4442-A58E-3D1DFF7D54BA}">
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="58" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A1" s="197" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B1" s="198" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C1" s="198" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D1" s="198" t="s">
-        <v>1515</v>
-      </c>
-      <c r="E1" s="198" t="s">
-        <v>1516</v>
-      </c>
-      <c r="F1" s="198" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A2" s="517" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B2" s="200" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="211">
-        <v>18</v>
-      </c>
-      <c r="D2" s="201" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E2" s="202" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F2" s="201" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A3" s="517"/>
-      <c r="B3" s="200" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="212" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D3" s="203" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E3" s="204" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F3" s="203" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A4" s="517"/>
-      <c r="B4" s="200" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C4" s="212" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D4" s="205" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E4" s="204" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F4" s="203" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="206"/>
-      <c r="B5" s="207"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="208"/>
-      <c r="F5" s="207"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A6" s="517" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B6" s="200" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="211">
-        <v>18</v>
-      </c>
-      <c r="D6" s="201" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E6" s="202" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F6" s="203" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A7" s="517"/>
-      <c r="B7" s="200" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C7" s="212">
-        <v>18</v>
-      </c>
-      <c r="D7" s="203" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E7" s="202" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F7" s="203" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A8" s="517"/>
-      <c r="B8" s="200" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="212" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D8" s="203" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E8" s="204" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F8" s="203" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A9" s="517"/>
-      <c r="B9" s="200" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C9" s="212" t="s">
-        <v>1521</v>
-      </c>
-      <c r="D9" s="205" t="s">
-        <v>1522</v>
-      </c>
-      <c r="E9" s="204" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F9" s="203" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A10" s="206"/>
-      <c r="B10" s="207"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="209"/>
-      <c r="F10" s="207"/>
-    </row>
-    <row r="11" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A11" s="517" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B11" s="200" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C11" s="212" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D11" s="201" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E11" s="204" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F11" s="203" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A12" s="517"/>
-      <c r="B12" s="200" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C12" s="212" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D12" s="203" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E12" s="204" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F12" s="203" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A13" s="517"/>
-      <c r="B13" s="200" t="s">
-        <v>1526</v>
-      </c>
-      <c r="C13" s="212" t="s">
-        <v>1524</v>
-      </c>
-      <c r="D13" s="203" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E13" s="204" t="s">
-        <v>1525</v>
-      </c>
-      <c r="F13" s="203" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A14" s="517"/>
-      <c r="B14" s="200" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="212">
-        <v>18</v>
-      </c>
-      <c r="D14" s="203" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E14" s="202" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F14" s="203" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A15" s="517"/>
-      <c r="B15" s="200" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C15" s="205">
-        <v>18</v>
-      </c>
-      <c r="D15" s="205" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E15" s="202" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F15" s="203" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A16" s="206"/>
-      <c r="B16" s="207"/>
-      <c r="C16" s="213"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="207"/>
-    </row>
-    <row r="17" spans="1:6" ht="32.4" thickTop="1" thickBot="1">
-      <c r="A17" s="199" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B17" s="200" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C17" s="210">
-        <v>0</v>
-      </c>
-      <c r="D17" s="210" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E17" s="210" t="s">
-        <v>1529</v>
-      </c>
-      <c r="F17" s="210" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickTop="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
@@ -57036,7 +58665,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A419301B98B8354A897828D82A6F00F6" ma:contentTypeVersion="34" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20ca8a0c0d59028efd0f33ef93e3a420">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3e08ed28-a208-4db3-90dc-062006ce0c78" xmlns:ns3="7e386c18-d449-4d9a-a5df-f64c6139a3c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ecc1aa61ba2aa3d92dc6750af3137611" ns2:_="" ns3:_="">
     <xsd:import namespace="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
@@ -57357,16 +58986,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E841BFC-575E-4C80-B796-EDB398657E74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -57383,7 +59011,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{827BF9C6-14B5-43FE-98BA-5537952370B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -57400,12 +59028,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/Client/FILI.xlsx
+++ b/src/test/resources/testdata/Client/FILI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\eApp\src\test\resources\testdata\Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gxk0124\IdeaProjects\eApp-automation\src\test\resources\testdata\Client\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EC66DB-0AF9-47D1-B0C8-2939E1F9E97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDF53A7-AC93-43E0-BC98-E88AA1FCA6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="5" activeTab="5" xr2:uid="{8D0F94DE-3100-47E5-A17C-DB8B711FEBE7}"/>
   </bookViews>
@@ -13586,7 +13586,135 @@
     <cellStyle name="Normal 3 2" xfId="5" xr:uid="{50DE3D44-ABB6-42F7-A295-F0E77105A8F4}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -20829,73 +20957,73 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Z5:Z8">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",Z5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z5:AA8">
-    <cfRule type="containsText" dxfId="23" priority="18" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="37" priority="18" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",Z5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="19" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z9:AA17">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",Z9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",Z9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"C"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5:AA8">
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="32" priority="14" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AA5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="23" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AA5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA9:AA17">
-    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="29" priority="12" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AA9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB17">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN9:AR17">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AN9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AN9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AN9)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22044,24 +22172,24 @@
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C5">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E5">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30173,10 +30301,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30188,10 +30316,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870F3D7E-D500-4249-A60B-8D4257022104}">
   <dimension ref="A1:AZ203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection activeCell="A332" sqref="A332"/>
-      <selection pane="topRight" activeCell="AH95" sqref="AH95"/>
+      <selection pane="topRight" activeCell="AH110" sqref="AH110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="104.25" customHeight="1"/>
@@ -53111,56 +53239,108 @@
   </sheetData>
   <autoFilter ref="A1:BD192" xr:uid="{870F3D7E-D500-4249-A60B-8D4257022104}"/>
   <phoneticPr fontId="78" type="noConversion"/>
-  <conditionalFormatting sqref="AB2:AC192">
-    <cfRule type="containsText" dxfId="40" priority="432" operator="containsText" text="N">
+  <conditionalFormatting sqref="AB2:AC100 AB148:AC192">
+    <cfRule type="containsText" dxfId="54" priority="446" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AB2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="447" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="517" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="52" priority="531" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AB2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC192">
-    <cfRule type="containsText" dxfId="37" priority="518" operator="containsText" text="O">
+  <conditionalFormatting sqref="AC2:AC100 AC148:AC192">
+    <cfRule type="containsText" dxfId="51" priority="532" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AC2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="519" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="533" operator="equal">
       <formula>"R"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD192">
-    <cfRule type="cellIs" dxfId="35" priority="11" operator="equal">
+  <conditionalFormatting sqref="AD2:AD100 AD148:AD192">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD1048576">
-    <cfRule type="cellIs" dxfId="32" priority="104" operator="equal">
+  <conditionalFormatting sqref="AD2:AD100 AD148:AD1048576">
+    <cfRule type="cellIs" dxfId="46" priority="118" operator="equal">
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AU192">
-    <cfRule type="cellIs" dxfId="31" priority="69" operator="equal">
+  <conditionalFormatting sqref="AQ2:AU100 AQ148:AU192">
+    <cfRule type="cellIs" dxfId="45" priority="83" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="70" operator="containsText" text="O">
+    <cfRule type="containsText" dxfId="44" priority="84" operator="containsText" text="O">
       <formula>NOT(ISERROR(SEARCH("O",AQ2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="85" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="72" operator="containsText" text="N">
+    <cfRule type="containsText" dxfId="42" priority="86" operator="containsText" text="N">
       <formula>NOT(ISERROR(SEARCH("N",AQ2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="73" operator="containsText" text="Y">
+    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="Y">
       <formula>NOT(ISERROR(SEARCH("Y",AQ2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB101:AC147">
+    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",AB101)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",AB101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC101:AC147">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",AC101)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD101:AD147">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"T"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD101:AD147">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ101:AU147">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="O">
+      <formula>NOT(ISERROR(SEARCH("O",AQ101)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" operator="containsText" text="N">
+      <formula>NOT(ISERROR(SEARCH("N",AQ101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" operator="containsText" text="Y">
+      <formula>NOT(ISERROR(SEARCH("Y",AQ101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -53169,7 +53349,7 @@
     <hyperlink ref="AL169" r:id="rId3" xr:uid="{B8A0C951-82C7-488B-A5EE-7CBF3669DC12}"/>
     <hyperlink ref="AL192" r:id="rId4" xr:uid="{BF7249AB-50A8-459E-BC72-C8FBDC96F7AD}"/>
     <hyperlink ref="AL74" r:id="rId5" xr:uid="{7F464BAD-E31B-441F-A3EA-8EEFEA69B63B}"/>
-    <hyperlink ref="AL147" r:id="rId6" xr:uid="{F392A321-4C55-4E4B-B7E4-3E1DD5082BBF}"/>
+    <hyperlink ref="AL147" r:id="rId6" xr:uid="{68AE26BC-5AB3-4ADE-8DAB-854715CAB58D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -56855,10 +57035,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="B66:D70">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57182,12 +57362,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
+    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
+    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
+      <UserInfo>
+        <DisplayName>Tammy Sunderland</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57512,36 +57710,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxCatchAll xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9" xsi:nil="true"/>
-    <Created0 xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Choice_x002d_Test xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <Date xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <ClientNumber xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <PartitionCode xmlns="3e08ed28-a208-4db3-90dc-062006ce0c78" xsi:nil="true"/>
-    <SharedWithUsers xmlns="7e386c18-d449-4d9a-a5df-f64c6139a3c9">
-      <UserInfo>
-        <DisplayName>Tammy Sunderland</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E841BFC-575E-4C80-B796-EDB398657E74}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
+    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -57566,12 +57749,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E841BFC-575E-4C80-B796-EDB398657E74}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79BEDA91-E434-447E-A9AB-EB3F15901C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3e08ed28-a208-4db3-90dc-062006ce0c78"/>
-    <ds:schemaRef ds:uri="7e386c18-d449-4d9a-a5df-f64c6139a3c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>